--- a/doc/2023年下期/【修正版】2023年上期/【画面設計】番組詳細画面（ProgramDetail.vue).xlsx
+++ b/doc/2023年下期/【修正版】2023年上期/【画面設計】番組詳細画面（ProgramDetail.vue).xlsx
@@ -11,14 +11,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="azkYx4YJGIyWoG35cdR++tMVYGVWcULEoTRr8hBAsOI="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="90k2JPx6/PpXwR/T1hA1H7y+EdQ/FGKHmq7KjGrzO1g="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="133">
   <si>
     <t>Java課題(2023上期）</t>
   </si>
@@ -41,7 +41,7 @@
     <t>更新者</t>
   </si>
   <si>
-    <t>TalentDetail</t>
+    <t>ProgramDetail</t>
   </si>
   <si>
     <t>番組詳細画面</t>
@@ -71,7 +71,11 @@
     <t>TOPリンクボタンの変更</t>
   </si>
   <si>
-    <t>ProgramDetail</t>
+    <t>・画面画像の差し替え
+・TOPリンクボタンの遷移先を変更
+・サイトバーの追加（他の画面でも共通）
+・ページングの最初と最後を追加
+・バリデーションチェックの追加と修正</t>
   </si>
   <si>
     <t>1.【画面イメージ】</t>
@@ -80,7 +84,7 @@
     <t>2.【機能概要】</t>
   </si>
   <si>
-    <t>・前の画面より受け取ったパラメータを元に、オンエア管理テーブルを元に、タレントID、オンエア日で検索を行い、検索結果を表示する。
+    <t>・前の画面より受け取ったパラメータを元に、オンエア管理テーブルを元に、番組ID、オンエア日、年月、週で検索を行い、検索結果を表示する。
 ・出演者のリンクボタンをクリック時に、次画面「タレント詳細画面（TalentDetail.vue)」へ遷移する。</t>
   </si>
   <si>
@@ -108,7 +112,7 @@
     <t>オンエア日</t>
   </si>
   <si>
-    <t>YYYYMMDD</t>
+    <t>YYYYMMDD HH:MM</t>
   </si>
   <si>
     <t>年月</t>
@@ -135,8 +139,21 @@
     <t>初期表示時</t>
   </si>
   <si>
-    <t xml:space="preserve">番組内容部と出演者検索結果を表示する。
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t xml:space="preserve">前画面からの各パラメータに対して、バリデーションチェックを行い、
 </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>番組内容部と出演者検索結果を表示する。</t>
+    </r>
   </si>
   <si>
     <t>出演者クリック時</t>
@@ -145,16 +162,28 @@
     <t>リンクボタンをクリック時に、次画面「タレント詳細画面（TalentDetail.vue)」へ遷移する。</t>
   </si>
   <si>
+    <t>最初リンククリック時</t>
+  </si>
+  <si>
+    <t>ページングの先頭に移動する。</t>
+  </si>
+  <si>
     <t>ページングリンククリック時</t>
   </si>
   <si>
     <t>ページングリンククリック時に、次の10件、前の10件へ遷移できるようにする。</t>
   </si>
   <si>
+    <t>最後リンククリック時</t>
+  </si>
+  <si>
+    <t>ページングの最後に移動する。</t>
+  </si>
+  <si>
     <t>TOPリンククリック時</t>
   </si>
   <si>
-    <t>TOPリンククリック時に、画面「週間タレント出演画面（WeekTalentShutsuen）」へ遷移する。</t>
+    <t>リンクボタンをクリック時に、画面「メインメニュー画面」へ遷移する。</t>
   </si>
   <si>
     <t>4.【フォーム情報】</t>
@@ -187,22 +216,47 @@
     <t>lable</t>
   </si>
   <si>
-    <t>初期表示時に、
-以下のバリデーションチェックでエラーの場合、表示
-① 番組ID、オンエア日、番組ジャンルが必須で設定されていること。      
-② オンエア日がYYYY/MM/DD形式であること。</t>
+    <r>
+      <rPr>
+        <rFont val="游ゴシック"/>
+        <color theme="1"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">初期表示時に、
+以下のバリデーションチェックでエラーの場合、エラーメッセージを表示する。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="游ゴシック"/>
+        <color rgb="FFFF0000"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">　・前画面からのパラメータは番組ID、オンエア日、年月、週は
+　　必須で入力されていること。
+　・年月がYYYYMM形式であること。
+　・年月がYYYY/MM/01で有効な日付であること。
+　・週が数値であること。
+　・週が1～5の数値のいずれかであること。
+　・オンエア日がYYYY-MM-DD HH:MM形式であること。
+　・番組IDが設定されている場合は、8桁以内であること。
+　→ビジネスルールに詳しく記載。</t>
+    </r>
+  </si>
+  <si>
+    <t>（ヘッダー項目）</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>linkbutton</t>
   </si>
   <si>
     <t>（番組情報）</t>
   </si>
   <si>
     <t>（出演者情報）</t>
-  </si>
-  <si>
-    <t>TOP</t>
-  </si>
-  <si>
-    <t>linkbutton</t>
   </si>
   <si>
     <t>番組名</t>
@@ -226,7 +280,10 @@
     <t>パラメータ.番組IDをキーとして、番組マスタより番組名を表示する。</t>
   </si>
   <si>
-    <t>パラメータ.オンエア日をYYY/MM/DDの書式で表示する。</t>
+    <t>オンエア日時</t>
+  </si>
+  <si>
+    <t>パラメータ.オンエア日をYYYY-MM-DD HH:MMの書式で表示する。</t>
   </si>
   <si>
     <t>番組ジャンル</t>
@@ -272,13 +329,13 @@
     <t>（検索条件）</t>
   </si>
   <si>
-    <t>出演者</t>
+    <t>タレント名</t>
   </si>
   <si>
     <t>ヘッダー</t>
   </si>
   <si>
-    <t>対象の番組のオンエア日の内容に出演する出演者をリンクボタンで表示する。リンクボタンをクリック時に、次画面「タレント詳細画面（TalentDetail.vue)」へ遷移する。遷移時に年月、週、タレント名を渡して、次の画面で検索状態で表示させる。</t>
+    <t>対象の番組のオンエア日の内容に出演するタレント名をリンクボタンで表示する。リンクボタンをクリック時に、次画面「タレント詳細画面（TalentDetail.vue)」へ遷移する。遷移時に年月、週、タレント名を渡して、次の画面で検索状態で表示させる。</t>
   </si>
   <si>
     <t>オンエア管理テーブル
@@ -304,10 +361,25 @@
     <t>オンエア管理テーブルより、パラメータ.タレントID、パラメータ.オンエア日をキーとして、タレントIDを取得して、タレントマスタ.タレントIDと紐づけて、タレントマスタ.タレント名を表示する。</t>
   </si>
   <si>
+    <t>最初</t>
+  </si>
+  <si>
+    <t>結果結果のグリッドのページングの先頭に移動する。</t>
+  </si>
+  <si>
     <t>ページングリンク</t>
   </si>
   <si>
     <t>検索結果が10件を超える場合に表示する。ページングリンクで次の10件、前の10件へ遷移できるようにする。（１，２，３，・・・【最終ページ番号】）</t>
+  </si>
+  <si>
+    <t>最後</t>
+  </si>
+  <si>
+    <t>結果結果のグリッドのページングの最後に移動する。</t>
+  </si>
+  <si>
+    <t>TalentDetail</t>
   </si>
   <si>
     <t>タレント詳細画面</t>
@@ -316,7 +388,21 @@
     <t>1. 処理一覧</t>
   </si>
   <si>
-    <t>番組内容部と出演者検索結果を表示する。</t>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t xml:space="preserve">前画面からの各パラメータに対して、バリデーションチェックを行い、
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>番組内容部と出演者検索結果を表示する。</t>
+    </r>
   </si>
   <si>
     <t>2. 処理詳細</t>
@@ -325,34 +411,94 @@
     <t xml:space="preserve"> 2.1 初期表示時</t>
   </si>
   <si>
-    <t xml:space="preserve">　　2-1-1. API「 番組出演者検索BFF」を呼び出す（API情報は別ブック_API一覧を参照）</t>
+    <t xml:space="preserve">　　2-1-1. 以下のバリデーションチェックを行う。</t>
   </si>
   <si>
-    <t xml:space="preserve">　　2-1-2.【2-2-1】で取得した結果が存在する場合は、データ部へ設定する。</t>
+    <t xml:space="preserve">　 ① 前画面からのパラメータは番組ID、オンエア日、年月、週は必須で入力されていること。</t>
   </si>
   <si>
-    <t xml:space="preserve">　　2-1-3.【2-2-1】で取得した結果がない場合は、ヘッダーのみを表示させる。</t>
+    <t>（MSG006）</t>
   </si>
   <si>
-    <t xml:space="preserve">　　2-1-4.【2-2-1】で取得した結果のうち、データが10件を超える場合は、最初の10件を表示させ、残りは10件ずつ別の領域に保管してページングリンクを表示させる。</t>
+    <t xml:space="preserve">　 ② 年月がYYYYMM形式であること。</t>
+  </si>
+  <si>
+    <t>（MSG003）年月、有効な日付の年月（YYYYMM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　 ③ 年月がYYYY/MM/01で有効な日付であること。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　 ④ 週が数値であること。</t>
+  </si>
+  <si>
+    <t>（MSG003）週、数値</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　 ⑤ 週が1～5の数値のいずれかであること。</t>
+  </si>
+  <si>
+    <t>（MSG004）週、1、5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　 ⑥ オンエア日がYYYY-MM-DD HH:MM形式であること。</t>
+  </si>
+  <si>
+    <t>（MSG003）オンエア日時、YYYY-MM-DD HH:MM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　 ⑦ 番組IDが設定されている場合は、8桁以内であること。</t>
+  </si>
+  <si>
+    <t>（MSG005）番組ID、8文字</t>
+  </si>
+  <si>
+    <t>上記で、問題があった場合は、処理を中断して、画面の上部にエラーメッセージを表示する。</t>
+  </si>
+  <si>
+    <t>問題がなかった場合は、以降の処理を続ける。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　　2-1-2. API「 番組出演者検索BFF」を呼び出す（API情報は別ブック_API一覧を参照）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　　2-1-3.【2-1-2】で取得した結果が存在する場合は、レスポンスの内容を対象週(FROM)～対象週(TO)とデータ部へ設定する。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　　2-1-4.【2-1-2】で取得した結果がない場合は、対象週(FROM)～対象週(TO)とヘッダーのみを表示させる。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　　2-1-5.【2-1-2】で取得した結果のうち、データが10件を超える場合は、最初の10件を表示させ、残りは10件ずつ別の領域に保管してページングリンクを表示させる。</t>
   </si>
   <si>
     <t xml:space="preserve"> 2.2 出演名クリック時</t>
   </si>
   <si>
-    <t xml:space="preserve">　　2-2-1.パラメータ.年月、パラメータ.週、タレント名をキーとして、次画面「タレント詳細画面（TalentDetail.vue)」へ遷移する。</t>
+    <t xml:space="preserve">　　2-2-1.パラメータ.年月、パラメータ.週、タレントIDをキーとして、次画面「タレント詳細画面（TalentDetail.vue)」へ遷移する。</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2.3 ページングリンククリック時</t>
+    <t xml:space="preserve"> 2.3 最初クリック時</t>
   </si>
   <si>
-    <t xml:space="preserve">　　2-3-1. クリックした番号の領域に保管されている内容を10件表示させる。</t>
+    <t xml:space="preserve">　　2-3-1. ページングの先頭に移動する。</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2.4 TOPリンククリック時</t>
+    <t xml:space="preserve"> 2.4 ページングリンククリック時</t>
   </si>
   <si>
-    <t xml:space="preserve">　　2-4-1. 画面「週間タレント出演画面（WeekTalentShutsuen）」へ遷移する。</t>
+    <t xml:space="preserve">　　2-4-1. クリックした番号の領域に保管されている内容を10件表示させる。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.5 最後クリック時</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　　2-5-1. ページングの最後に移動する。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.6 TOPリンククリック時</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　　2-6-1. リンクボタンをクリック時に、画面「メインメニュー画面」へ遷移する。</t>
   </si>
 </sst>
 </file>
@@ -362,7 +508,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/m/d"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="17">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -375,6 +521,11 @@
       <name val="游ゴシック"/>
     </font>
     <font/>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -390,12 +541,53 @@
       <name val="Arial"/>
     </font>
     <font>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <sz val="10.0"/>
       <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
     </font>
     <font>
       <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -496,6 +688,17 @@
       </bottom>
     </border>
     <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -507,17 +710,6 @@
       </bottom>
     </border>
     <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -569,7 +761,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="101">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -601,6 +793,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -609,37 +804,49 @@
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -654,67 +861,109 @@
     <xf borderId="4" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="9" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="7" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="12" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="10" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -729,29 +978,92 @@
     <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="9" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -770,29 +1082,58 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>-57150</xdr:rowOff>
+      <xdr:rowOff>-171450</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="8715375" cy="4695825"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="画像"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
+    <xdr:ext cx="11315700" cy="4743450"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Shape 2" title="図形描画"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="152400" y="152400"/>
+          <a:ext cx="10668000" cy="4453190"/>
+          <a:chOff x="152400" y="152400"/>
+          <a:chExt cx="10668000" cy="4453190"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="Shape 3"/>
+          <xdr:cNvPicPr preferRelativeResize="0"/>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip r:embed="rId1">
+            <a:alphaModFix/>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="152400" y="152400"/>
+            <a:ext cx="10668000" cy="4453190"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln cap="flat" cmpd="sng" w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd len="sm" w="sm" type="none"/>
+            <a:tailEnd len="sm" w="sm" type="none"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
@@ -1062,19 +1403,19 @@
       <c r="D2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="12">
         <v>45048.0</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="13">
-        <v>45152.0</v>
+      <c r="H2" s="14">
+        <v>45322.0</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="15" t="s">
         <v>9</v>
       </c>
       <c r="J2" s="6"/>
@@ -1097,192 +1438,200 @@
     </row>
     <row r="3" ht="18.75" customHeight="1"/>
     <row r="4" ht="18.75" customHeight="1">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="16" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1">
-      <c r="B5" s="15">
+      <c r="B5" s="17">
         <v>1.0</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="18">
         <v>45048.0</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" ht="18.75" customHeight="1">
-      <c r="B6" s="17">
+      <c r="B6" s="19">
         <v>2.0</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="20">
         <v>45129.0</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" ht="18.75" customHeight="1">
-      <c r="B7" s="15">
+      <c r="B7" s="17">
         <v>3.0</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="20">
         <v>45152.0</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" ht="18.75" customHeight="1">
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
+    <row r="8" ht="87.75" customHeight="1">
+      <c r="B8" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="C8" s="23">
+        <v>45322.0</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="9" ht="18.75" customHeight="1">
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
     </row>
     <row r="10" ht="18.75" customHeight="1">
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
     </row>
     <row r="11" ht="18.75" customHeight="1">
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
     </row>
     <row r="12" ht="18.75" customHeight="1">
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
     </row>
     <row r="13" ht="18.75" customHeight="1">
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
     </row>
     <row r="14" ht="18.75" customHeight="1">
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
     </row>
     <row r="15" ht="18.75" customHeight="1">
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
     </row>
     <row r="16" ht="18.75" customHeight="1">
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
     </row>
     <row r="17" ht="18.75" customHeight="1">
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
     </row>
     <row r="18" ht="18.75" customHeight="1">
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
     </row>
     <row r="19" ht="18.75" customHeight="1">
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
     </row>
     <row r="20" ht="18.75" customHeight="1">
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
     </row>
     <row r="21" ht="18.75" customHeight="1">
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
     </row>
     <row r="22" ht="18.75" customHeight="1">
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
     </row>
     <row r="23" ht="18.75" customHeight="1">
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
     </row>
     <row r="24" ht="18.75" customHeight="1">
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
     </row>
     <row r="25" ht="18.75" customHeight="1">
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
     </row>
     <row r="26" ht="18.75" customHeight="1">
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
     </row>
     <row r="27" ht="18.75" customHeight="1">
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
     </row>
     <row r="28" ht="18.75" customHeight="1">
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
     </row>
     <row r="29" ht="18.75" customHeight="1">
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
     </row>
     <row r="30" ht="18.75" customHeight="1"/>
     <row r="31" ht="18.75" customHeight="1"/>
@@ -2279,7 +2628,7 @@
     <col customWidth="1" min="1" max="1" width="9.0"/>
     <col customWidth="1" min="2" max="2" width="22.29"/>
     <col customWidth="1" min="3" max="3" width="18.29"/>
-    <col customWidth="1" min="4" max="4" width="50.86"/>
+    <col customWidth="1" min="4" max="4" width="61.86"/>
     <col customWidth="1" min="5" max="6" width="9.0"/>
     <col customWidth="1" min="7" max="7" width="21.29"/>
     <col customWidth="1" min="8" max="8" width="36.14"/>
@@ -2299,13 +2648,13 @@
       <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="22"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="27"/>
       <c r="J1" s="5" t="s">
         <v>3</v>
       </c>
@@ -2336,26 +2685,26 @@
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
       <c r="C2" s="9"/>
-      <c r="D2" s="10" t="s">
-        <v>17</v>
+      <c r="D2" s="11" t="s">
+        <v>7</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="11">
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="12">
         <v>45048.0</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="13">
-        <v>45152.0</v>
+      <c r="L2" s="14">
+        <v>45322.0</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="15" t="s">
         <v>9</v>
       </c>
       <c r="N2" s="6"/>
@@ -3134,7 +3483,7 @@
     </row>
     <row r="30" ht="16.5" customHeight="1">
       <c r="A30" s="6"/>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="29" t="s">
         <v>20</v>
       </c>
       <c r="C30" s="2"/>
@@ -3164,8 +3513,8 @@
     </row>
     <row r="31" ht="16.5" customHeight="1">
       <c r="A31" s="6"/>
-      <c r="B31" s="25"/>
-      <c r="H31" s="26"/>
+      <c r="B31" s="30"/>
+      <c r="H31" s="31"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
@@ -3187,8 +3536,8 @@
     </row>
     <row r="32" ht="16.5" customHeight="1">
       <c r="A32" s="6"/>
-      <c r="B32" s="25"/>
-      <c r="H32" s="26"/>
+      <c r="B32" s="30"/>
+      <c r="H32" s="31"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
@@ -3296,13 +3645,13 @@
     </row>
     <row r="36" ht="16.5" customHeight="1">
       <c r="A36" s="6"/>
-      <c r="B36" s="27" t="s">
+      <c r="B36" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="27" t="s">
+      <c r="C36" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="27" t="s">
+      <c r="D36" s="32" t="s">
         <v>24</v>
       </c>
       <c r="E36" s="6"/>
@@ -3330,13 +3679,13 @@
     </row>
     <row r="37" ht="16.5" customHeight="1">
       <c r="A37" s="6"/>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="D37" s="13" t="s">
         <v>27</v>
       </c>
       <c r="E37" s="6"/>
@@ -3364,13 +3713,13 @@
     </row>
     <row r="38" ht="16.5" customHeight="1">
       <c r="A38" s="6"/>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="D38" s="33" t="s">
         <v>29</v>
       </c>
       <c r="E38" s="6"/>
@@ -3397,72 +3746,72 @@
       <c r="Z38" s="6"/>
     </row>
     <row r="39" ht="16.5" customHeight="1">
-      <c r="A39" s="28"/>
-      <c r="B39" s="29" t="s">
+      <c r="A39" s="34"/>
+      <c r="B39" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="C39" s="30" t="s">
+      <c r="C39" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D39" s="30" t="s">
+      <c r="D39" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="31"/>
-      <c r="L39" s="31"/>
-      <c r="M39" s="31"/>
-      <c r="N39" s="31"/>
-      <c r="O39" s="31"/>
-      <c r="P39" s="31"/>
-      <c r="Q39" s="31"/>
-      <c r="R39" s="31"/>
-      <c r="S39" s="31"/>
-      <c r="T39" s="31"/>
-      <c r="U39" s="31"/>
-      <c r="V39" s="31"/>
-      <c r="W39" s="31"/>
-      <c r="X39" s="31"/>
-      <c r="Y39" s="31"/>
-      <c r="Z39" s="31"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="37"/>
+      <c r="M39" s="37"/>
+      <c r="N39" s="37"/>
+      <c r="O39" s="37"/>
+      <c r="P39" s="37"/>
+      <c r="Q39" s="37"/>
+      <c r="R39" s="37"/>
+      <c r="S39" s="37"/>
+      <c r="T39" s="37"/>
+      <c r="U39" s="37"/>
+      <c r="V39" s="37"/>
+      <c r="W39" s="37"/>
+      <c r="X39" s="37"/>
+      <c r="Y39" s="37"/>
+      <c r="Z39" s="37"/>
     </row>
     <row r="40" ht="16.5" customHeight="1">
-      <c r="A40" s="28"/>
-      <c r="B40" s="32" t="s">
+      <c r="A40" s="34"/>
+      <c r="B40" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="33" t="s">
+      <c r="C40" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="D40" s="33" t="s">
+      <c r="D40" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="31"/>
-      <c r="J40" s="31"/>
-      <c r="K40" s="31"/>
-      <c r="L40" s="31"/>
-      <c r="M40" s="31"/>
-      <c r="N40" s="31"/>
-      <c r="O40" s="31"/>
-      <c r="P40" s="31"/>
-      <c r="Q40" s="31"/>
-      <c r="R40" s="31"/>
-      <c r="S40" s="31"/>
-      <c r="T40" s="31"/>
-      <c r="U40" s="31"/>
-      <c r="V40" s="31"/>
-      <c r="W40" s="31"/>
-      <c r="X40" s="31"/>
-      <c r="Y40" s="31"/>
-      <c r="Z40" s="31"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="37"/>
+      <c r="L40" s="37"/>
+      <c r="M40" s="37"/>
+      <c r="N40" s="37"/>
+      <c r="O40" s="37"/>
+      <c r="P40" s="37"/>
+      <c r="Q40" s="37"/>
+      <c r="R40" s="37"/>
+      <c r="S40" s="37"/>
+      <c r="T40" s="37"/>
+      <c r="U40" s="37"/>
+      <c r="V40" s="37"/>
+      <c r="W40" s="37"/>
+      <c r="X40" s="37"/>
+      <c r="Y40" s="37"/>
+      <c r="Z40" s="37"/>
     </row>
     <row r="41" ht="16.5" customHeight="1">
       <c r="A41" s="6"/>
@@ -3524,13 +3873,13 @@
     </row>
     <row r="43" ht="16.5" customHeight="1">
       <c r="A43" s="6"/>
-      <c r="B43" s="27" t="s">
+      <c r="B43" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C43" s="34" t="s">
+      <c r="C43" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="22"/>
+      <c r="D43" s="27"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
@@ -3556,15 +3905,14 @@
     </row>
     <row r="44" ht="33.75" customHeight="1">
       <c r="A44" s="6"/>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C44" s="35" t="s">
+      <c r="C44" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="D44" s="22"/>
+      <c r="D44" s="27"/>
       <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
@@ -3588,13 +3936,13 @@
     </row>
     <row r="45" ht="48.0" customHeight="1">
       <c r="A45" s="6"/>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C45" s="36" t="s">
+      <c r="C45" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="D45" s="22"/>
+      <c r="D45" s="27"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
@@ -3620,13 +3968,13 @@
     </row>
     <row r="46" ht="38.25" customHeight="1">
       <c r="A46" s="6"/>
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="35" t="s">
+      <c r="C46" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="D46" s="22"/>
+      <c r="D46" s="27"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
@@ -3652,13 +4000,13 @@
     </row>
     <row r="47" ht="36.0" customHeight="1">
       <c r="A47" s="6"/>
-      <c r="B47" s="37" t="s">
+      <c r="B47" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="C47" s="36" t="s">
+      <c r="C47" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="D47" s="22"/>
+      <c r="D47" s="27"/>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
@@ -3682,11 +4030,15 @@
       <c r="Y47" s="6"/>
       <c r="Z47" s="6"/>
     </row>
-    <row r="48" ht="16.5" customHeight="1">
+    <row r="48" ht="43.5" customHeight="1">
       <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
+      <c r="B48" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="D48" s="27"/>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
@@ -3710,18 +4062,18 @@
       <c r="Y48" s="6"/>
       <c r="Z48" s="6"/>
     </row>
-    <row r="49" ht="16.5" customHeight="1">
+    <row r="49" ht="43.5" customHeight="1">
       <c r="A49" s="6"/>
-      <c r="B49" s="6" t="s">
-        <v>45</v>
+      <c r="B49" s="47" t="s">
+        <v>47</v>
       </c>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
+      <c r="C49" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" s="27"/>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
-      <c r="G49" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="G49" s="6"/>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
@@ -3744,16 +4096,12 @@
     </row>
     <row r="50" ht="16.5" customHeight="1">
       <c r="A50" s="6"/>
-      <c r="B50" s="6" t="s">
-        <v>47</v>
-      </c>
+      <c r="B50" s="6"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
-      <c r="G50" s="6" t="s">
-        <v>47</v>
-      </c>
+      <c r="G50" s="6"/>
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
@@ -3776,32 +4124,20 @@
     </row>
     <row r="51" ht="16.5" customHeight="1">
       <c r="A51" s="6"/>
-      <c r="B51" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="C51" s="27" t="s">
+      <c r="B51" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D51" s="27" t="s">
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="H51" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="I51" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="J51" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="K51" s="27" t="s">
-        <v>50</v>
-      </c>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
       <c r="L51" s="6"/>
       <c r="M51" s="6"/>
       <c r="N51" s="6"/>
@@ -3818,24 +4154,22 @@
       <c r="Y51" s="6"/>
       <c r="Z51" s="6"/>
     </row>
-    <row r="52" ht="94.5" customHeight="1">
+    <row r="52" ht="16.5" customHeight="1">
       <c r="A52" s="6"/>
-      <c r="B52" s="38" t="s">
-        <v>53</v>
+      <c r="B52" s="6" t="s">
+        <v>51</v>
       </c>
-      <c r="C52" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D52" s="38" t="s">
-        <v>55</v>
-      </c>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
-      <c r="G52" s="39"/>
-      <c r="H52" s="39"/>
-      <c r="I52" s="39"/>
-      <c r="J52" s="39"/>
-      <c r="K52" s="39"/>
+      <c r="G52" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
       <c r="L52" s="6"/>
       <c r="M52" s="6"/>
       <c r="N52" s="6"/>
@@ -3854,16 +4188,32 @@
     </row>
     <row r="53" ht="16.5" customHeight="1">
       <c r="A53" s="6"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
+      <c r="B53" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="D53" s="32" t="s">
+        <v>54</v>
+      </c>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
+      <c r="G53" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="H53" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="I53" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="J53" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="K53" s="32" t="s">
+        <v>54</v>
+      </c>
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
       <c r="N53" s="6"/>
@@ -3880,22 +4230,24 @@
       <c r="Y53" s="6"/>
       <c r="Z53" s="6"/>
     </row>
-    <row r="54" ht="16.5" customHeight="1">
+    <row r="54" ht="163.5" customHeight="1">
       <c r="A54" s="6"/>
-      <c r="B54" s="6" t="s">
-        <v>56</v>
+      <c r="B54" s="48" t="s">
+        <v>57</v>
       </c>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
+      <c r="C54" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D54" s="49" t="s">
+        <v>59</v>
+      </c>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
-      <c r="G54" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
+      <c r="G54" s="50"/>
+      <c r="H54" s="50"/>
+      <c r="I54" s="50"/>
+      <c r="J54" s="50"/>
+      <c r="K54" s="50"/>
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
       <c r="N54" s="6"/>
@@ -3913,319 +4265,291 @@
       <c r="Z54" s="6"/>
     </row>
     <row r="55" ht="16.5" customHeight="1">
-      <c r="A55" s="6"/>
-      <c r="B55" s="27" t="s">
+      <c r="A55" s="51"/>
+      <c r="B55" s="51"/>
+      <c r="C55" s="51"/>
+      <c r="D55" s="51"/>
+      <c r="E55" s="51"/>
+      <c r="F55" s="51"/>
+      <c r="G55" s="52"/>
+      <c r="H55" s="52"/>
+      <c r="I55" s="52"/>
+      <c r="J55" s="52"/>
+      <c r="K55" s="52"/>
+      <c r="L55" s="51"/>
+      <c r="M55" s="51"/>
+      <c r="N55" s="51"/>
+      <c r="O55" s="51"/>
+      <c r="P55" s="51"/>
+      <c r="Q55" s="51"/>
+      <c r="R55" s="51"/>
+      <c r="S55" s="51"/>
+      <c r="T55" s="51"/>
+      <c r="U55" s="51"/>
+      <c r="V55" s="51"/>
+      <c r="W55" s="51"/>
+      <c r="X55" s="51"/>
+      <c r="Y55" s="51"/>
+      <c r="Z55" s="51"/>
+    </row>
+    <row r="56" ht="16.5" customHeight="1">
+      <c r="A56" s="51"/>
+      <c r="B56" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" s="52"/>
+      <c r="D56" s="52"/>
+      <c r="E56" s="51"/>
+      <c r="F56" s="51"/>
+      <c r="G56" s="52"/>
+      <c r="H56" s="52"/>
+      <c r="I56" s="52"/>
+      <c r="J56" s="52"/>
+      <c r="K56" s="52"/>
+      <c r="L56" s="51"/>
+      <c r="M56" s="51"/>
+      <c r="N56" s="51"/>
+      <c r="O56" s="51"/>
+      <c r="P56" s="51"/>
+      <c r="Q56" s="51"/>
+      <c r="R56" s="51"/>
+      <c r="S56" s="51"/>
+      <c r="T56" s="51"/>
+      <c r="U56" s="51"/>
+      <c r="V56" s="51"/>
+      <c r="W56" s="51"/>
+      <c r="X56" s="51"/>
+      <c r="Y56" s="51"/>
+      <c r="Z56" s="51"/>
+    </row>
+    <row r="57" ht="16.5" customHeight="1">
+      <c r="A57" s="54"/>
+      <c r="B57" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="C57" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="D57" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="E57" s="51"/>
+      <c r="F57" s="54"/>
+      <c r="G57" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="H57" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="I57" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="J57" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="K57" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="L57" s="51"/>
+      <c r="M57" s="51"/>
+      <c r="N57" s="51"/>
+      <c r="O57" s="51"/>
+      <c r="P57" s="51"/>
+      <c r="Q57" s="51"/>
+      <c r="R57" s="51"/>
+      <c r="S57" s="51"/>
+      <c r="T57" s="51"/>
+      <c r="U57" s="51"/>
+      <c r="V57" s="51"/>
+      <c r="W57" s="51"/>
+      <c r="X57" s="51"/>
+      <c r="Y57" s="51"/>
+      <c r="Z57" s="51"/>
+    </row>
+    <row r="58" ht="16.5" customHeight="1">
+      <c r="A58" s="54"/>
+      <c r="B58" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="C58" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="D58" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="C55" s="27" t="s">
-        <v>49</v>
+      <c r="E58" s="51"/>
+      <c r="F58" s="54"/>
+      <c r="G58" s="58"/>
+      <c r="H58" s="58"/>
+      <c r="I58" s="58"/>
+      <c r="J58" s="58"/>
+      <c r="K58" s="58"/>
+      <c r="L58" s="51"/>
+      <c r="M58" s="51"/>
+      <c r="N58" s="51"/>
+      <c r="O58" s="51"/>
+      <c r="P58" s="51"/>
+      <c r="Q58" s="51"/>
+      <c r="R58" s="51"/>
+      <c r="S58" s="51"/>
+      <c r="T58" s="51"/>
+      <c r="U58" s="51"/>
+      <c r="V58" s="51"/>
+      <c r="W58" s="51"/>
+      <c r="X58" s="51"/>
+      <c r="Y58" s="51"/>
+      <c r="Z58" s="51"/>
+    </row>
+    <row r="59" ht="16.5" customHeight="1">
+      <c r="A59" s="54"/>
+      <c r="B59" s="59"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="51"/>
+      <c r="F59" s="54"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="51"/>
+      <c r="M59" s="51"/>
+      <c r="N59" s="51"/>
+      <c r="O59" s="51"/>
+      <c r="P59" s="51"/>
+      <c r="Q59" s="51"/>
+      <c r="R59" s="51"/>
+      <c r="S59" s="51"/>
+      <c r="T59" s="51"/>
+      <c r="U59" s="51"/>
+      <c r="V59" s="51"/>
+      <c r="W59" s="51"/>
+      <c r="X59" s="51"/>
+      <c r="Y59" s="51"/>
+      <c r="Z59" s="51"/>
+    </row>
+    <row r="60" ht="16.5" customHeight="1">
+      <c r="A60" s="51"/>
+      <c r="B60" s="51"/>
+      <c r="C60" s="51"/>
+      <c r="D60" s="51"/>
+      <c r="E60" s="51"/>
+      <c r="F60" s="51"/>
+      <c r="G60" s="51"/>
+      <c r="H60" s="51"/>
+      <c r="I60" s="51"/>
+      <c r="J60" s="51"/>
+      <c r="K60" s="51"/>
+      <c r="L60" s="51"/>
+      <c r="M60" s="51"/>
+      <c r="N60" s="51"/>
+      <c r="O60" s="51"/>
+      <c r="P60" s="51"/>
+      <c r="Q60" s="51"/>
+      <c r="R60" s="51"/>
+      <c r="S60" s="51"/>
+      <c r="T60" s="51"/>
+      <c r="U60" s="51"/>
+      <c r="V60" s="51"/>
+      <c r="W60" s="51"/>
+      <c r="X60" s="51"/>
+      <c r="Y60" s="51"/>
+      <c r="Z60" s="51"/>
+    </row>
+    <row r="61" ht="16.5" customHeight="1">
+      <c r="A61" s="6"/>
+      <c r="B61" s="6" t="s">
+        <v>63</v>
       </c>
-      <c r="D55" s="27" t="s">
-        <v>50</v>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6" t="s">
+        <v>64</v>
       </c>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="H55" s="27" t="s">
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
+      <c r="L61" s="6"/>
+      <c r="M61" s="6"/>
+      <c r="N61" s="6"/>
+      <c r="O61" s="6"/>
+      <c r="P61" s="6"/>
+      <c r="Q61" s="6"/>
+      <c r="R61" s="6"/>
+      <c r="S61" s="6"/>
+      <c r="T61" s="6"/>
+      <c r="U61" s="6"/>
+      <c r="V61" s="6"/>
+      <c r="W61" s="6"/>
+      <c r="X61" s="6"/>
+      <c r="Y61" s="6"/>
+      <c r="Z61" s="6"/>
+    </row>
+    <row r="62" ht="16.5" customHeight="1">
+      <c r="A62" s="6"/>
+      <c r="B62" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="I55" s="27" t="s">
+      <c r="C62" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="D62" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="H62" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="I62" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="J55" s="27" t="s">
+      <c r="J62" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="K55" s="27" t="s">
-        <v>50</v>
+      <c r="K62" s="32" t="s">
+        <v>54</v>
       </c>
-      <c r="L55" s="6"/>
-      <c r="M55" s="6"/>
-      <c r="N55" s="6"/>
-      <c r="O55" s="6"/>
-      <c r="P55" s="6"/>
-      <c r="Q55" s="6"/>
-      <c r="R55" s="6"/>
-      <c r="S55" s="6"/>
-      <c r="T55" s="6"/>
-      <c r="U55" s="6"/>
-      <c r="V55" s="6"/>
-      <c r="W55" s="6"/>
-      <c r="X55" s="6"/>
-      <c r="Y55" s="6"/>
-      <c r="Z55" s="6"/>
-    </row>
-    <row r="56" ht="41.25" customHeight="1">
-      <c r="A56" s="6"/>
-      <c r="B56" s="40" t="s">
+      <c r="L62" s="6"/>
+      <c r="M62" s="6"/>
+      <c r="N62" s="6"/>
+      <c r="O62" s="6"/>
+      <c r="P62" s="6"/>
+      <c r="Q62" s="6"/>
+      <c r="R62" s="6"/>
+      <c r="S62" s="6"/>
+      <c r="T62" s="6"/>
+      <c r="U62" s="6"/>
+      <c r="V62" s="6"/>
+      <c r="W62" s="6"/>
+      <c r="X62" s="6"/>
+      <c r="Y62" s="6"/>
+      <c r="Z62" s="6"/>
+    </row>
+    <row r="63" ht="16.5" customHeight="1">
+      <c r="A63" s="6"/>
+      <c r="B63" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="C63" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C56" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="D56" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="39"/>
-      <c r="H56" s="39"/>
-      <c r="I56" s="39"/>
-      <c r="J56" s="39"/>
-      <c r="K56" s="39"/>
-      <c r="L56" s="6"/>
-      <c r="M56" s="6"/>
-      <c r="N56" s="6"/>
-      <c r="O56" s="6"/>
-      <c r="P56" s="6"/>
-      <c r="Q56" s="6"/>
-      <c r="R56" s="6"/>
-      <c r="S56" s="6"/>
-      <c r="T56" s="6"/>
-      <c r="U56" s="6"/>
-      <c r="V56" s="6"/>
-      <c r="W56" s="6"/>
-      <c r="X56" s="6"/>
-      <c r="Y56" s="6"/>
-      <c r="Z56" s="6"/>
-    </row>
-    <row r="57" ht="16.5" customHeight="1">
-      <c r="A57" s="6"/>
-      <c r="B57" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="C57" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D57" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="39"/>
-      <c r="H57" s="39"/>
-      <c r="I57" s="39"/>
-      <c r="J57" s="39"/>
-      <c r="K57" s="39"/>
-      <c r="L57" s="6"/>
-      <c r="M57" s="6"/>
-      <c r="N57" s="6"/>
-      <c r="O57" s="6"/>
-      <c r="P57" s="6"/>
-      <c r="Q57" s="6"/>
-      <c r="R57" s="6"/>
-      <c r="S57" s="6"/>
-      <c r="T57" s="6"/>
-      <c r="U57" s="6"/>
-      <c r="V57" s="6"/>
-      <c r="W57" s="6"/>
-      <c r="X57" s="6"/>
-      <c r="Y57" s="6"/>
-      <c r="Z57" s="6"/>
-    </row>
-    <row r="58" ht="39.75" customHeight="1">
-      <c r="A58" s="6"/>
-      <c r="B58" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="C58" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D58" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="H58" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="I58" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J58" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="K58" s="38" t="s">
+      <c r="D63" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="L58" s="6"/>
-      <c r="M58" s="6"/>
-      <c r="N58" s="6"/>
-      <c r="O58" s="6"/>
-      <c r="P58" s="6"/>
-      <c r="Q58" s="6"/>
-      <c r="R58" s="6"/>
-      <c r="S58" s="6"/>
-      <c r="T58" s="6"/>
-      <c r="U58" s="6"/>
-      <c r="V58" s="6"/>
-      <c r="W58" s="6"/>
-      <c r="X58" s="6"/>
-      <c r="Y58" s="6"/>
-      <c r="Z58" s="6"/>
-    </row>
-    <row r="59" ht="16.5" customHeight="1">
-      <c r="A59" s="6"/>
-      <c r="B59" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="C59" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D59" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="39"/>
-      <c r="H59" s="39"/>
-      <c r="I59" s="39"/>
-      <c r="J59" s="39"/>
-      <c r="K59" s="39"/>
-      <c r="L59" s="6"/>
-      <c r="M59" s="6"/>
-      <c r="N59" s="6"/>
-      <c r="O59" s="6"/>
-      <c r="P59" s="6"/>
-      <c r="Q59" s="6"/>
-      <c r="R59" s="6"/>
-      <c r="S59" s="6"/>
-      <c r="T59" s="6"/>
-      <c r="U59" s="6"/>
-      <c r="V59" s="6"/>
-      <c r="W59" s="6"/>
-      <c r="X59" s="6"/>
-      <c r="Y59" s="6"/>
-      <c r="Z59" s="6"/>
-    </row>
-    <row r="60" ht="84.75" customHeight="1">
-      <c r="A60" s="6"/>
-      <c r="B60" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="C60" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D60" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="39"/>
-      <c r="H60" s="39"/>
-      <c r="I60" s="39"/>
-      <c r="J60" s="39"/>
-      <c r="K60" s="39"/>
-      <c r="L60" s="6"/>
-      <c r="M60" s="6"/>
-      <c r="N60" s="6"/>
-      <c r="O60" s="6"/>
-      <c r="P60" s="6"/>
-      <c r="Q60" s="6"/>
-      <c r="R60" s="6"/>
-      <c r="S60" s="6"/>
-      <c r="T60" s="6"/>
-      <c r="U60" s="6"/>
-      <c r="V60" s="6"/>
-      <c r="W60" s="6"/>
-      <c r="X60" s="6"/>
-      <c r="Y60" s="6"/>
-      <c r="Z60" s="6"/>
-    </row>
-    <row r="61" ht="16.5" customHeight="1">
-      <c r="A61" s="28"/>
-      <c r="B61" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="C61" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="D61" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="E61" s="31"/>
-      <c r="F61" s="28"/>
-      <c r="G61" s="45"/>
-      <c r="H61" s="45"/>
-      <c r="I61" s="45"/>
-      <c r="J61" s="45"/>
-      <c r="K61" s="45"/>
-      <c r="L61" s="31"/>
-      <c r="M61" s="31"/>
-      <c r="N61" s="31"/>
-      <c r="O61" s="31"/>
-      <c r="P61" s="31"/>
-      <c r="Q61" s="31"/>
-      <c r="R61" s="31"/>
-      <c r="S61" s="31"/>
-      <c r="T61" s="31"/>
-      <c r="U61" s="31"/>
-      <c r="V61" s="31"/>
-      <c r="W61" s="31"/>
-      <c r="X61" s="31"/>
-      <c r="Y61" s="31"/>
-      <c r="Z61" s="31"/>
-    </row>
-    <row r="62" ht="96.75" customHeight="1">
-      <c r="A62" s="28"/>
-      <c r="B62" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="C62" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="D62" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="E62" s="31"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="H62" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="I62" s="48" t="s">
-        <v>72</v>
-      </c>
-      <c r="J62" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="K62" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="L62" s="31"/>
-      <c r="M62" s="31"/>
-      <c r="N62" s="31"/>
-      <c r="O62" s="31"/>
-      <c r="P62" s="31"/>
-      <c r="Q62" s="31"/>
-      <c r="R62" s="31"/>
-      <c r="S62" s="31"/>
-      <c r="T62" s="31"/>
-      <c r="U62" s="31"/>
-      <c r="V62" s="31"/>
-      <c r="W62" s="31"/>
-      <c r="X62" s="31"/>
-      <c r="Y62" s="31"/>
-      <c r="Z62" s="31"/>
-    </row>
-    <row r="63" ht="16.5" customHeight="1">
-      <c r="A63" s="6"/>
-      <c r="B63" s="6"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="6"/>
-      <c r="K63" s="6"/>
+      <c r="G63" s="50"/>
+      <c r="H63" s="50"/>
+      <c r="I63" s="50"/>
+      <c r="J63" s="50"/>
+      <c r="K63" s="50"/>
       <c r="L63" s="6"/>
       <c r="M63" s="6"/>
       <c r="N63" s="6"/>
@@ -4242,22 +4566,34 @@
       <c r="Y63" s="6"/>
       <c r="Z63" s="6"/>
     </row>
-    <row r="64" ht="16.5" customHeight="1">
+    <row r="64" ht="39.75" customHeight="1">
       <c r="A64" s="6"/>
-      <c r="B64" s="6" t="s">
-        <v>75</v>
+      <c r="B64" s="61" t="s">
+        <v>67</v>
       </c>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
+      <c r="C64" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D64" s="48" t="s">
+        <v>68</v>
+      </c>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
-      <c r="G64" s="6" t="s">
-        <v>76</v>
+      <c r="G64" s="13" t="s">
+        <v>69</v>
       </c>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
-      <c r="J64" s="6"/>
-      <c r="K64" s="6"/>
+      <c r="H64" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="I64" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J64" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="K64" s="48" t="s">
+        <v>71</v>
+      </c>
       <c r="L64" s="6"/>
       <c r="M64" s="6"/>
       <c r="N64" s="6"/>
@@ -4276,32 +4612,22 @@
     </row>
     <row r="65" ht="16.5" customHeight="1">
       <c r="A65" s="6"/>
-      <c r="B65" s="27" t="s">
-        <v>48</v>
+      <c r="B65" s="62" t="s">
+        <v>72</v>
       </c>
-      <c r="C65" s="27" t="s">
-        <v>49</v>
+      <c r="C65" s="13" t="s">
+        <v>58</v>
       </c>
-      <c r="D65" s="27" t="s">
-        <v>50</v>
+      <c r="D65" s="13" t="s">
+        <v>66</v>
       </c>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
-      <c r="G65" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="H65" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="I65" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="J65" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="K65" s="27" t="s">
-        <v>50</v>
-      </c>
+      <c r="G65" s="50"/>
+      <c r="H65" s="50"/>
+      <c r="I65" s="50"/>
+      <c r="J65" s="50"/>
+      <c r="K65" s="50"/>
       <c r="L65" s="6"/>
       <c r="M65" s="6"/>
       <c r="N65" s="6"/>
@@ -4318,24 +4644,24 @@
       <c r="Y65" s="6"/>
       <c r="Z65" s="6"/>
     </row>
-    <row r="66" ht="16.5" customHeight="1">
+    <row r="66" ht="84.75" customHeight="1">
       <c r="A66" s="6"/>
-      <c r="B66" s="42" t="s">
-        <v>77</v>
+      <c r="B66" s="61" t="s">
+        <v>67</v>
       </c>
-      <c r="C66" s="12" t="s">
-        <v>54</v>
+      <c r="C66" s="13" t="s">
+        <v>58</v>
       </c>
-      <c r="D66" s="12" t="s">
-        <v>78</v>
+      <c r="D66" s="49" t="s">
+        <v>73</v>
       </c>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
-      <c r="G66" s="39"/>
-      <c r="H66" s="39"/>
-      <c r="I66" s="39"/>
-      <c r="J66" s="39"/>
-      <c r="K66" s="39"/>
+      <c r="G66" s="50"/>
+      <c r="H66" s="50"/>
+      <c r="I66" s="50"/>
+      <c r="J66" s="50"/>
+      <c r="K66" s="50"/>
       <c r="L66" s="6"/>
       <c r="M66" s="6"/>
       <c r="N66" s="6"/>
@@ -4352,81 +4678,83 @@
       <c r="Y66" s="6"/>
       <c r="Z66" s="6"/>
     </row>
-    <row r="67" ht="78.0" customHeight="1">
-      <c r="A67" s="6"/>
-      <c r="B67" s="49"/>
-      <c r="C67" s="50" t="s">
-        <v>59</v>
+    <row r="67" ht="16.5" customHeight="1">
+      <c r="A67" s="34"/>
+      <c r="B67" s="63" t="s">
+        <v>74</v>
       </c>
-      <c r="D67" s="51" t="s">
+      <c r="C67" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="D67" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="E67" s="37"/>
+      <c r="F67" s="34"/>
+      <c r="G67" s="64"/>
+      <c r="H67" s="64"/>
+      <c r="I67" s="64"/>
+      <c r="J67" s="64"/>
+      <c r="K67" s="64"/>
+      <c r="L67" s="37"/>
+      <c r="M67" s="37"/>
+      <c r="N67" s="37"/>
+      <c r="O67" s="37"/>
+      <c r="P67" s="37"/>
+      <c r="Q67" s="37"/>
+      <c r="R67" s="37"/>
+      <c r="S67" s="37"/>
+      <c r="T67" s="37"/>
+      <c r="U67" s="37"/>
+      <c r="V67" s="37"/>
+      <c r="W67" s="37"/>
+      <c r="X67" s="37"/>
+      <c r="Y67" s="37"/>
+      <c r="Z67" s="37"/>
+    </row>
+    <row r="68" ht="96.75" customHeight="1">
+      <c r="A68" s="34"/>
+      <c r="B68" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="C68" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="D68" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="E68" s="37"/>
+      <c r="F68" s="34"/>
+      <c r="G68" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="H68" s="67" t="s">
+        <v>77</v>
+      </c>
+      <c r="I68" s="67" t="s">
+        <v>78</v>
+      </c>
+      <c r="J68" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="38" t="s">
+      <c r="K68" s="67" t="s">
         <v>80</v>
       </c>
-      <c r="H67" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="I67" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="J67" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="K67" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="L67" s="6"/>
-      <c r="M67" s="6"/>
-      <c r="N67" s="6"/>
-      <c r="O67" s="6"/>
-      <c r="P67" s="6"/>
-      <c r="Q67" s="6"/>
-      <c r="R67" s="6"/>
-      <c r="S67" s="6"/>
-      <c r="T67" s="6"/>
-      <c r="U67" s="6"/>
-      <c r="V67" s="6"/>
-      <c r="W67" s="6"/>
-      <c r="X67" s="6"/>
-      <c r="Y67" s="6"/>
-      <c r="Z67" s="6"/>
-    </row>
-    <row r="68" ht="59.25" customHeight="1">
-      <c r="A68" s="53"/>
-      <c r="B68" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="C68" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D68" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="39"/>
-      <c r="H68" s="39"/>
-      <c r="I68" s="39"/>
-      <c r="J68" s="39"/>
-      <c r="K68" s="39"/>
-      <c r="L68" s="6"/>
-      <c r="M68" s="6"/>
-      <c r="N68" s="6"/>
-      <c r="O68" s="6"/>
-      <c r="P68" s="6"/>
-      <c r="Q68" s="6"/>
-      <c r="R68" s="6"/>
-      <c r="S68" s="6"/>
-      <c r="T68" s="6"/>
-      <c r="U68" s="6"/>
-      <c r="V68" s="6"/>
-      <c r="W68" s="6"/>
-      <c r="X68" s="6"/>
-      <c r="Y68" s="6"/>
-      <c r="Z68" s="6"/>
+      <c r="L68" s="37"/>
+      <c r="M68" s="37"/>
+      <c r="N68" s="37"/>
+      <c r="O68" s="37"/>
+      <c r="P68" s="37"/>
+      <c r="Q68" s="37"/>
+      <c r="R68" s="37"/>
+      <c r="S68" s="37"/>
+      <c r="T68" s="37"/>
+      <c r="U68" s="37"/>
+      <c r="V68" s="37"/>
+      <c r="W68" s="37"/>
+      <c r="X68" s="37"/>
+      <c r="Y68" s="37"/>
+      <c r="Z68" s="37"/>
     </row>
     <row r="69" ht="16.5" customHeight="1">
       <c r="A69" s="6"/>
@@ -4458,12 +4786,16 @@
     </row>
     <row r="70" ht="16.5" customHeight="1">
       <c r="A70" s="6"/>
-      <c r="B70" s="6"/>
+      <c r="B70" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
+      <c r="G70" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="H70" s="6"/>
       <c r="I70" s="6"/>
       <c r="J70" s="6"/>
@@ -4486,16 +4818,32 @@
     </row>
     <row r="71" ht="16.5" customHeight="1">
       <c r="A71" s="6"/>
-      <c r="B71" s="6"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
+      <c r="B71" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C71" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="D71" s="32" t="s">
+        <v>54</v>
+      </c>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
-      <c r="I71" s="6"/>
-      <c r="J71" s="6"/>
-      <c r="K71" s="6"/>
+      <c r="G71" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="H71" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="I71" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="J71" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="K71" s="32" t="s">
+        <v>54</v>
+      </c>
       <c r="L71" s="6"/>
       <c r="M71" s="6"/>
       <c r="N71" s="6"/>
@@ -4514,16 +4862,22 @@
     </row>
     <row r="72" ht="16.5" customHeight="1">
       <c r="A72" s="6"/>
-      <c r="B72" s="6"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
+      <c r="B72" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D72" s="13" t="s">
+        <v>84</v>
+      </c>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
-      <c r="I72" s="6"/>
-      <c r="J72" s="6"/>
-      <c r="K72" s="6"/>
+      <c r="G72" s="50"/>
+      <c r="H72" s="50"/>
+      <c r="I72" s="50"/>
+      <c r="J72" s="50"/>
+      <c r="K72" s="50"/>
       <c r="L72" s="6"/>
       <c r="M72" s="6"/>
       <c r="N72" s="6"/>
@@ -4540,18 +4894,32 @@
       <c r="Y72" s="6"/>
       <c r="Z72" s="6"/>
     </row>
-    <row r="73" ht="16.5" customHeight="1">
+    <row r="73" ht="78.0" customHeight="1">
       <c r="A73" s="6"/>
-      <c r="B73" s="6"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
+      <c r="B73" s="68"/>
+      <c r="C73" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="D73" s="70" t="s">
+        <v>85</v>
+      </c>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
-      <c r="H73" s="6"/>
-      <c r="I73" s="6"/>
-      <c r="J73" s="6"/>
-      <c r="K73" s="6"/>
+      <c r="G73" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="H73" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="I73" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="J73" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="K73" s="71" t="s">
+        <v>90</v>
+      </c>
       <c r="L73" s="6"/>
       <c r="M73" s="6"/>
       <c r="N73" s="6"/>
@@ -4568,89 +4936,107 @@
       <c r="Y73" s="6"/>
       <c r="Z73" s="6"/>
     </row>
-    <row r="74" ht="16.5" customHeight="1">
-      <c r="A74" s="6"/>
-      <c r="B74" s="6"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
-      <c r="H74" s="6"/>
-      <c r="I74" s="6"/>
-      <c r="J74" s="6"/>
-      <c r="K74" s="6"/>
-      <c r="L74" s="6"/>
-      <c r="M74" s="6"/>
-      <c r="N74" s="6"/>
-      <c r="O74" s="6"/>
-      <c r="P74" s="6"/>
-      <c r="Q74" s="6"/>
-      <c r="R74" s="6"/>
-      <c r="S74" s="6"/>
-      <c r="T74" s="6"/>
-      <c r="U74" s="6"/>
-      <c r="V74" s="6"/>
-      <c r="W74" s="6"/>
-      <c r="X74" s="6"/>
-      <c r="Y74" s="6"/>
-      <c r="Z74" s="6"/>
-    </row>
-    <row r="75" ht="16.5" customHeight="1">
-      <c r="A75" s="6"/>
-      <c r="B75" s="6"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
-      <c r="I75" s="6"/>
-      <c r="J75" s="6"/>
-      <c r="K75" s="6"/>
-      <c r="L75" s="6"/>
-      <c r="M75" s="6"/>
-      <c r="N75" s="6"/>
-      <c r="O75" s="6"/>
-      <c r="P75" s="6"/>
-      <c r="Q75" s="6"/>
-      <c r="R75" s="6"/>
-      <c r="S75" s="6"/>
-      <c r="T75" s="6"/>
-      <c r="U75" s="6"/>
-      <c r="V75" s="6"/>
-      <c r="W75" s="6"/>
-      <c r="X75" s="6"/>
-      <c r="Y75" s="6"/>
-      <c r="Z75" s="6"/>
+    <row r="74" ht="59.25" customHeight="1">
+      <c r="A74" s="54"/>
+      <c r="B74" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D74" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="E74" s="51"/>
+      <c r="F74" s="54"/>
+      <c r="G74" s="73"/>
+      <c r="H74" s="73"/>
+      <c r="I74" s="73"/>
+      <c r="J74" s="73"/>
+      <c r="K74" s="73"/>
+      <c r="L74" s="51"/>
+      <c r="M74" s="51"/>
+      <c r="N74" s="51"/>
+      <c r="O74" s="51"/>
+      <c r="P74" s="51"/>
+      <c r="Q74" s="51"/>
+      <c r="R74" s="51"/>
+      <c r="S74" s="51"/>
+      <c r="T74" s="51"/>
+      <c r="U74" s="51"/>
+      <c r="V74" s="51"/>
+      <c r="W74" s="51"/>
+      <c r="X74" s="51"/>
+      <c r="Y74" s="51"/>
+      <c r="Z74" s="51"/>
+    </row>
+    <row r="75" ht="55.5" customHeight="1">
+      <c r="A75" s="54"/>
+      <c r="B75" s="74" t="s">
+        <v>93</v>
+      </c>
+      <c r="C75" s="75" t="s">
+        <v>62</v>
+      </c>
+      <c r="D75" s="74" t="s">
+        <v>94</v>
+      </c>
+      <c r="E75" s="51"/>
+      <c r="F75" s="54"/>
+      <c r="G75" s="76"/>
+      <c r="H75" s="76"/>
+      <c r="I75" s="76"/>
+      <c r="J75" s="76"/>
+      <c r="K75" s="76"/>
+      <c r="L75" s="51"/>
+      <c r="M75" s="51"/>
+      <c r="N75" s="51"/>
+      <c r="O75" s="51"/>
+      <c r="P75" s="51"/>
+      <c r="Q75" s="51"/>
+      <c r="R75" s="51"/>
+      <c r="S75" s="51"/>
+      <c r="T75" s="51"/>
+      <c r="U75" s="51"/>
+      <c r="V75" s="51"/>
+      <c r="W75" s="51"/>
+      <c r="X75" s="51"/>
+      <c r="Y75" s="51"/>
+      <c r="Z75" s="51"/>
     </row>
     <row r="76" ht="16.5" customHeight="1">
-      <c r="A76" s="6"/>
-      <c r="B76" s="6"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
-      <c r="H76" s="6"/>
-      <c r="I76" s="6"/>
-      <c r="J76" s="6"/>
-      <c r="K76" s="6"/>
-      <c r="L76" s="6"/>
-      <c r="M76" s="6"/>
-      <c r="N76" s="6"/>
-      <c r="O76" s="6"/>
-      <c r="P76" s="6"/>
-      <c r="Q76" s="6"/>
-      <c r="R76" s="6"/>
-      <c r="S76" s="6"/>
-      <c r="T76" s="6"/>
-      <c r="U76" s="6"/>
-      <c r="V76" s="6"/>
-      <c r="W76" s="6"/>
-      <c r="X76" s="6"/>
-      <c r="Y76" s="6"/>
-      <c r="Z76" s="6"/>
+      <c r="A76" s="54"/>
+      <c r="B76" s="77" t="s">
+        <v>95</v>
+      </c>
+      <c r="C76" s="78" t="s">
+        <v>62</v>
+      </c>
+      <c r="D76" s="77" t="s">
+        <v>96</v>
+      </c>
+      <c r="E76" s="51"/>
+      <c r="F76" s="54"/>
+      <c r="G76" s="76"/>
+      <c r="H76" s="76"/>
+      <c r="I76" s="76"/>
+      <c r="J76" s="76"/>
+      <c r="K76" s="76"/>
+      <c r="L76" s="51"/>
+      <c r="M76" s="51"/>
+      <c r="N76" s="51"/>
+      <c r="O76" s="51"/>
+      <c r="P76" s="51"/>
+      <c r="Q76" s="51"/>
+      <c r="R76" s="51"/>
+      <c r="S76" s="51"/>
+      <c r="T76" s="51"/>
+      <c r="U76" s="51"/>
+      <c r="V76" s="51"/>
+      <c r="W76" s="51"/>
+      <c r="X76" s="51"/>
+      <c r="Y76" s="51"/>
+      <c r="Z76" s="51"/>
     </row>
     <row r="77" ht="16.5" customHeight="1">
       <c r="A77" s="6"/>
@@ -4856,25 +5242,25 @@
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
-      <c r="H84" s="6"/>
-      <c r="I84" s="6"/>
-      <c r="J84" s="6"/>
-      <c r="K84" s="6"/>
-      <c r="L84" s="6"/>
-      <c r="M84" s="6"/>
-      <c r="N84" s="6"/>
-      <c r="O84" s="6"/>
-      <c r="P84" s="6"/>
-      <c r="Q84" s="6"/>
-      <c r="R84" s="6"/>
-      <c r="S84" s="6"/>
-      <c r="T84" s="6"/>
-      <c r="U84" s="6"/>
-      <c r="V84" s="6"/>
-      <c r="W84" s="6"/>
-      <c r="X84" s="6"/>
-      <c r="Y84" s="6"/>
-      <c r="Z84" s="6"/>
+      <c r="H84" s="51"/>
+      <c r="I84" s="51"/>
+      <c r="J84" s="51"/>
+      <c r="K84" s="51"/>
+      <c r="L84" s="51"/>
+      <c r="M84" s="51"/>
+      <c r="N84" s="51"/>
+      <c r="O84" s="51"/>
+      <c r="P84" s="51"/>
+      <c r="Q84" s="51"/>
+      <c r="R84" s="51"/>
+      <c r="S84" s="51"/>
+      <c r="T84" s="51"/>
+      <c r="U84" s="51"/>
+      <c r="V84" s="51"/>
+      <c r="W84" s="51"/>
+      <c r="X84" s="51"/>
+      <c r="Y84" s="51"/>
+      <c r="Z84" s="51"/>
     </row>
     <row r="85" ht="16.5" customHeight="1">
       <c r="A85" s="6"/>
@@ -4884,25 +5270,25 @@
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
-      <c r="H85" s="6"/>
-      <c r="I85" s="6"/>
-      <c r="J85" s="6"/>
-      <c r="K85" s="6"/>
-      <c r="L85" s="6"/>
-      <c r="M85" s="6"/>
-      <c r="N85" s="6"/>
-      <c r="O85" s="6"/>
-      <c r="P85" s="6"/>
-      <c r="Q85" s="6"/>
-      <c r="R85" s="6"/>
-      <c r="S85" s="6"/>
-      <c r="T85" s="6"/>
-      <c r="U85" s="6"/>
-      <c r="V85" s="6"/>
-      <c r="W85" s="6"/>
-      <c r="X85" s="6"/>
-      <c r="Y85" s="6"/>
-      <c r="Z85" s="6"/>
+      <c r="H85" s="51"/>
+      <c r="I85" s="51"/>
+      <c r="J85" s="51"/>
+      <c r="K85" s="51"/>
+      <c r="L85" s="51"/>
+      <c r="M85" s="51"/>
+      <c r="N85" s="51"/>
+      <c r="O85" s="51"/>
+      <c r="P85" s="51"/>
+      <c r="Q85" s="51"/>
+      <c r="R85" s="51"/>
+      <c r="S85" s="51"/>
+      <c r="T85" s="51"/>
+      <c r="U85" s="51"/>
+      <c r="V85" s="51"/>
+      <c r="W85" s="51"/>
+      <c r="X85" s="51"/>
+      <c r="Y85" s="51"/>
+      <c r="Z85" s="51"/>
     </row>
     <row r="86" ht="16.5" customHeight="1">
       <c r="A86" s="6"/>
@@ -4912,25 +5298,25 @@
       <c r="E86" s="6"/>
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
-      <c r="H86" s="6"/>
-      <c r="I86" s="6"/>
-      <c r="J86" s="6"/>
-      <c r="K86" s="6"/>
-      <c r="L86" s="6"/>
-      <c r="M86" s="6"/>
-      <c r="N86" s="6"/>
-      <c r="O86" s="6"/>
-      <c r="P86" s="6"/>
-      <c r="Q86" s="6"/>
-      <c r="R86" s="6"/>
-      <c r="S86" s="6"/>
-      <c r="T86" s="6"/>
-      <c r="U86" s="6"/>
-      <c r="V86" s="6"/>
-      <c r="W86" s="6"/>
-      <c r="X86" s="6"/>
-      <c r="Y86" s="6"/>
-      <c r="Z86" s="6"/>
+      <c r="H86" s="51"/>
+      <c r="I86" s="51"/>
+      <c r="J86" s="51"/>
+      <c r="K86" s="51"/>
+      <c r="L86" s="51"/>
+      <c r="M86" s="51"/>
+      <c r="N86" s="51"/>
+      <c r="O86" s="51"/>
+      <c r="P86" s="51"/>
+      <c r="Q86" s="51"/>
+      <c r="R86" s="51"/>
+      <c r="S86" s="51"/>
+      <c r="T86" s="51"/>
+      <c r="U86" s="51"/>
+      <c r="V86" s="51"/>
+      <c r="W86" s="51"/>
+      <c r="X86" s="51"/>
+      <c r="Y86" s="51"/>
+      <c r="Z86" s="51"/>
     </row>
     <row r="87" ht="16.5" customHeight="1">
       <c r="A87" s="6"/>
@@ -4940,25 +5326,25 @@
       <c r="E87" s="6"/>
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
-      <c r="H87" s="6"/>
-      <c r="I87" s="6"/>
-      <c r="J87" s="6"/>
-      <c r="K87" s="6"/>
-      <c r="L87" s="6"/>
-      <c r="M87" s="6"/>
-      <c r="N87" s="6"/>
-      <c r="O87" s="6"/>
-      <c r="P87" s="6"/>
-      <c r="Q87" s="6"/>
-      <c r="R87" s="6"/>
-      <c r="S87" s="6"/>
-      <c r="T87" s="6"/>
-      <c r="U87" s="6"/>
-      <c r="V87" s="6"/>
-      <c r="W87" s="6"/>
-      <c r="X87" s="6"/>
-      <c r="Y87" s="6"/>
-      <c r="Z87" s="6"/>
+      <c r="H87" s="51"/>
+      <c r="I87" s="51"/>
+      <c r="J87" s="51"/>
+      <c r="K87" s="51"/>
+      <c r="L87" s="51"/>
+      <c r="M87" s="51"/>
+      <c r="N87" s="51"/>
+      <c r="O87" s="51"/>
+      <c r="P87" s="51"/>
+      <c r="Q87" s="51"/>
+      <c r="R87" s="51"/>
+      <c r="S87" s="51"/>
+      <c r="T87" s="51"/>
+      <c r="U87" s="51"/>
+      <c r="V87" s="51"/>
+      <c r="W87" s="51"/>
+      <c r="X87" s="51"/>
+      <c r="Y87" s="51"/>
+      <c r="Z87" s="51"/>
     </row>
     <row r="88" ht="16.5" customHeight="1">
       <c r="A88" s="6"/>
@@ -30216,10 +30602,176 @@
       <c r="Y989" s="6"/>
       <c r="Z989" s="6"/>
     </row>
+    <row r="990" ht="16.5" customHeight="1">
+      <c r="A990" s="6"/>
+      <c r="B990" s="6"/>
+      <c r="C990" s="6"/>
+      <c r="D990" s="6"/>
+      <c r="E990" s="6"/>
+      <c r="F990" s="6"/>
+      <c r="G990" s="6"/>
+      <c r="H990" s="6"/>
+      <c r="I990" s="6"/>
+      <c r="J990" s="6"/>
+      <c r="K990" s="6"/>
+      <c r="L990" s="6"/>
+      <c r="M990" s="6"/>
+      <c r="N990" s="6"/>
+      <c r="O990" s="6"/>
+      <c r="P990" s="6"/>
+      <c r="Q990" s="6"/>
+      <c r="R990" s="6"/>
+      <c r="S990" s="6"/>
+      <c r="T990" s="6"/>
+      <c r="U990" s="6"/>
+      <c r="V990" s="6"/>
+      <c r="W990" s="6"/>
+      <c r="X990" s="6"/>
+      <c r="Y990" s="6"/>
+      <c r="Z990" s="6"/>
+    </row>
+    <row r="991" ht="16.5" customHeight="1">
+      <c r="A991" s="6"/>
+      <c r="B991" s="6"/>
+      <c r="C991" s="6"/>
+      <c r="D991" s="6"/>
+      <c r="E991" s="6"/>
+      <c r="F991" s="6"/>
+      <c r="G991" s="6"/>
+      <c r="H991" s="6"/>
+      <c r="I991" s="6"/>
+      <c r="J991" s="6"/>
+      <c r="K991" s="6"/>
+      <c r="L991" s="6"/>
+      <c r="M991" s="6"/>
+      <c r="N991" s="6"/>
+      <c r="O991" s="6"/>
+      <c r="P991" s="6"/>
+      <c r="Q991" s="6"/>
+      <c r="R991" s="6"/>
+      <c r="S991" s="6"/>
+      <c r="T991" s="6"/>
+      <c r="U991" s="6"/>
+      <c r="V991" s="6"/>
+      <c r="W991" s="6"/>
+      <c r="X991" s="6"/>
+      <c r="Y991" s="6"/>
+      <c r="Z991" s="6"/>
+    </row>
+    <row r="992" ht="16.5" customHeight="1">
+      <c r="A992" s="6"/>
+      <c r="B992" s="6"/>
+      <c r="C992" s="6"/>
+      <c r="D992" s="6"/>
+      <c r="E992" s="6"/>
+      <c r="F992" s="6"/>
+      <c r="G992" s="6"/>
+      <c r="H992" s="6"/>
+      <c r="I992" s="6"/>
+      <c r="J992" s="6"/>
+      <c r="K992" s="6"/>
+      <c r="L992" s="6"/>
+      <c r="M992" s="6"/>
+      <c r="N992" s="6"/>
+      <c r="O992" s="6"/>
+      <c r="P992" s="6"/>
+      <c r="Q992" s="6"/>
+      <c r="R992" s="6"/>
+      <c r="S992" s="6"/>
+      <c r="T992" s="6"/>
+      <c r="U992" s="6"/>
+      <c r="V992" s="6"/>
+      <c r="W992" s="6"/>
+      <c r="X992" s="6"/>
+      <c r="Y992" s="6"/>
+      <c r="Z992" s="6"/>
+    </row>
+    <row r="993" ht="16.5" customHeight="1">
+      <c r="A993" s="6"/>
+      <c r="B993" s="6"/>
+      <c r="C993" s="6"/>
+      <c r="D993" s="6"/>
+      <c r="E993" s="6"/>
+      <c r="F993" s="6"/>
+      <c r="G993" s="6"/>
+      <c r="H993" s="6"/>
+      <c r="I993" s="6"/>
+      <c r="J993" s="6"/>
+      <c r="K993" s="6"/>
+      <c r="L993" s="6"/>
+      <c r="M993" s="6"/>
+      <c r="N993" s="6"/>
+      <c r="O993" s="6"/>
+      <c r="P993" s="6"/>
+      <c r="Q993" s="6"/>
+      <c r="R993" s="6"/>
+      <c r="S993" s="6"/>
+      <c r="T993" s="6"/>
+      <c r="U993" s="6"/>
+      <c r="V993" s="6"/>
+      <c r="W993" s="6"/>
+      <c r="X993" s="6"/>
+      <c r="Y993" s="6"/>
+      <c r="Z993" s="6"/>
+    </row>
+    <row r="994" ht="16.5" customHeight="1">
+      <c r="A994" s="6"/>
+      <c r="B994" s="6"/>
+      <c r="C994" s="6"/>
+      <c r="D994" s="6"/>
+      <c r="E994" s="6"/>
+      <c r="F994" s="6"/>
+      <c r="G994" s="6"/>
+      <c r="H994" s="6"/>
+      <c r="I994" s="6"/>
+      <c r="J994" s="6"/>
+      <c r="K994" s="6"/>
+      <c r="L994" s="6"/>
+      <c r="M994" s="6"/>
+      <c r="N994" s="6"/>
+      <c r="O994" s="6"/>
+      <c r="P994" s="6"/>
+      <c r="Q994" s="6"/>
+      <c r="R994" s="6"/>
+      <c r="S994" s="6"/>
+      <c r="T994" s="6"/>
+      <c r="U994" s="6"/>
+      <c r="V994" s="6"/>
+      <c r="W994" s="6"/>
+      <c r="X994" s="6"/>
+      <c r="Y994" s="6"/>
+      <c r="Z994" s="6"/>
+    </row>
+    <row r="995" ht="16.5" customHeight="1">
+      <c r="A995" s="6"/>
+      <c r="B995" s="6"/>
+      <c r="C995" s="6"/>
+      <c r="D995" s="6"/>
+      <c r="E995" s="6"/>
+      <c r="F995" s="6"/>
+      <c r="G995" s="6"/>
+      <c r="H995" s="6"/>
+      <c r="I995" s="6"/>
+      <c r="J995" s="6"/>
+      <c r="K995" s="6"/>
+      <c r="L995" s="6"/>
+      <c r="M995" s="6"/>
+      <c r="N995" s="6"/>
+      <c r="O995" s="6"/>
+      <c r="P995" s="6"/>
+      <c r="Q995" s="6"/>
+      <c r="R995" s="6"/>
+      <c r="S995" s="6"/>
+      <c r="T995" s="6"/>
+      <c r="U995" s="6"/>
+      <c r="V995" s="6"/>
+      <c r="W995" s="6"/>
+      <c r="X995" s="6"/>
+      <c r="Y995" s="6"/>
+      <c r="Z995" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
+  <mergeCells count="19">
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="E2:I2"/>
@@ -30227,6 +30779,18 @@
     <mergeCell ref="C43:D43"/>
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="J58:J59"/>
+    <mergeCell ref="K58:K59"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="G58:G59"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -30265,13 +30829,13 @@
       <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="22"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="27"/>
       <c r="J1" s="5" t="s">
         <v>3</v>
       </c>
@@ -30302,26 +30866,26 @@
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
       <c r="C2" s="9"/>
-      <c r="D2" s="54" t="s">
-        <v>7</v>
+      <c r="D2" s="79" t="s">
+        <v>97</v>
       </c>
-      <c r="E2" s="55" t="s">
-        <v>87</v>
+      <c r="E2" s="80" t="s">
+        <v>98</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="11">
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="12">
         <v>45048.0</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="13">
-        <v>45152.0</v>
+      <c r="L2" s="14">
+        <v>45322.0</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="15" t="s">
         <v>9</v>
       </c>
       <c r="N2" s="6"/>
@@ -30340,654 +30904,1372 @@
     </row>
     <row r="3" ht="18.75" customHeight="1"/>
     <row r="4" ht="18.75" customHeight="1">
-      <c r="B4" s="56" t="s">
-        <v>88</v>
+      <c r="B4" s="81" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1">
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="22"/>
-    </row>
-    <row r="6" ht="41.25" customHeight="1">
-      <c r="B6" s="15">
+      <c r="E5" s="27"/>
+    </row>
+    <row r="6" ht="66.75" customHeight="1">
+      <c r="B6" s="17">
         <v>1.0</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="35" t="s">
-        <v>89</v>
+      <c r="D6" s="85" t="s">
+        <v>100</v>
       </c>
-      <c r="E6" s="22"/>
+      <c r="E6" s="27"/>
     </row>
     <row r="7" ht="84.75" customHeight="1">
-      <c r="B7" s="15">
+      <c r="B7" s="17">
         <v>2.0</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="22"/>
+      <c r="E7" s="27"/>
     </row>
     <row r="8" ht="60.75" customHeight="1">
-      <c r="B8" s="15">
+      <c r="B8" s="87">
         <v>3.0</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="22"/>
-    </row>
-    <row r="9" ht="40.5" customHeight="1">
-      <c r="B9" s="15">
+      <c r="E8" s="27"/>
+    </row>
+    <row r="9" ht="60.75" customHeight="1">
+      <c r="B9" s="19">
         <v>4.0</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="22"/>
-    </row>
-    <row r="10" ht="18.75" customHeight="1"/>
-    <row r="11" ht="18.75" customHeight="1">
-      <c r="A11" s="31"/>
-      <c r="B11" s="59" t="s">
-        <v>90</v>
+      <c r="E9" s="27"/>
+    </row>
+    <row r="10" ht="60.75" customHeight="1">
+      <c r="B10" s="87">
+        <v>5.0</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="31"/>
-      <c r="S11" s="31"/>
-      <c r="T11" s="31"/>
-      <c r="U11" s="31"/>
-      <c r="V11" s="31"/>
-      <c r="W11" s="31"/>
-      <c r="X11" s="31"/>
-      <c r="Y11" s="31"/>
-      <c r="Z11" s="31"/>
-    </row>
-    <row r="12" ht="18.75" customHeight="1">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="31"/>
-      <c r="S12" s="31"/>
-      <c r="T12" s="31"/>
-      <c r="U12" s="31"/>
-      <c r="V12" s="31"/>
-      <c r="W12" s="31"/>
-      <c r="X12" s="31"/>
-      <c r="Y12" s="31"/>
-      <c r="Z12" s="31"/>
-    </row>
+      <c r="C10" s="88" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="89" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="27"/>
+    </row>
+    <row r="11" ht="40.5" customHeight="1">
+      <c r="B11" s="87">
+        <v>6.0</v>
+      </c>
+      <c r="C11" s="92" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="89" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="27"/>
+    </row>
+    <row r="12" ht="18.75" customHeight="1"/>
     <row r="13" ht="18.75" customHeight="1">
-      <c r="A13" s="31"/>
-      <c r="B13" s="59" t="s">
-        <v>91</v>
-      </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="31"/>
-      <c r="S13" s="31"/>
-      <c r="T13" s="31"/>
-      <c r="U13" s="31"/>
-      <c r="V13" s="31"/>
-      <c r="W13" s="31"/>
-      <c r="X13" s="31"/>
-      <c r="Y13" s="31"/>
-      <c r="Z13" s="31"/>
-    </row>
-    <row r="14" ht="18.75" customHeight="1">
-      <c r="A14" s="31"/>
-      <c r="B14" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="31"/>
-      <c r="R14" s="31"/>
-      <c r="S14" s="31"/>
-      <c r="T14" s="31"/>
-      <c r="U14" s="31"/>
-      <c r="V14" s="31"/>
-      <c r="W14" s="31"/>
-      <c r="X14" s="31"/>
-      <c r="Y14" s="31"/>
-      <c r="Z14" s="31"/>
-    </row>
-    <row r="15" ht="18.75" customHeight="1">
-      <c r="A15" s="31"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="31"/>
-      <c r="R15" s="31"/>
-      <c r="S15" s="31"/>
-      <c r="T15" s="31"/>
-      <c r="U15" s="31"/>
-      <c r="V15" s="31"/>
-      <c r="W15" s="31"/>
-      <c r="X15" s="31"/>
-      <c r="Y15" s="31"/>
-      <c r="Z15" s="31"/>
-    </row>
-    <row r="16" ht="18.75" customHeight="1">
-      <c r="A16" s="31"/>
-      <c r="B16" s="60" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="31"/>
-      <c r="R16" s="31"/>
-      <c r="S16" s="31"/>
-      <c r="T16" s="31"/>
-      <c r="U16" s="31"/>
-      <c r="V16" s="31"/>
-      <c r="W16" s="31"/>
-      <c r="X16" s="31"/>
-      <c r="Y16" s="31"/>
-      <c r="Z16" s="31"/>
-    </row>
-    <row r="17" ht="18.75" customHeight="1">
-      <c r="A17" s="31"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="31"/>
-      <c r="R17" s="31"/>
-      <c r="S17" s="31"/>
-      <c r="T17" s="31"/>
-      <c r="U17" s="31"/>
-      <c r="V17" s="31"/>
-      <c r="W17" s="31"/>
-      <c r="X17" s="31"/>
-      <c r="Y17" s="31"/>
-      <c r="Z17" s="31"/>
-    </row>
-    <row r="18" ht="18.75" customHeight="1">
-      <c r="A18" s="31"/>
-      <c r="B18" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="31"/>
-      <c r="R18" s="31"/>
-      <c r="S18" s="31"/>
-      <c r="T18" s="31"/>
-      <c r="U18" s="31"/>
-      <c r="V18" s="31"/>
-      <c r="W18" s="31"/>
-      <c r="X18" s="31"/>
-      <c r="Y18" s="31"/>
-      <c r="Z18" s="31"/>
-    </row>
-    <row r="19" ht="18.75" customHeight="1">
-      <c r="A19" s="31"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="31"/>
-      <c r="R19" s="31"/>
-      <c r="S19" s="31"/>
-      <c r="T19" s="31"/>
-      <c r="U19" s="31"/>
-      <c r="V19" s="31"/>
-      <c r="W19" s="31"/>
-      <c r="X19" s="31"/>
-      <c r="Y19" s="31"/>
-      <c r="Z19" s="31"/>
-    </row>
-    <row r="20" ht="18.75" customHeight="1">
-      <c r="A20" s="31"/>
-      <c r="B20" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="31"/>
-      <c r="R20" s="31"/>
-      <c r="S20" s="31"/>
-      <c r="T20" s="31"/>
-      <c r="U20" s="31"/>
-      <c r="V20" s="31"/>
-      <c r="W20" s="31"/>
-      <c r="X20" s="31"/>
-      <c r="Y20" s="31"/>
-      <c r="Z20" s="31"/>
-    </row>
-    <row r="21" ht="18.75" customHeight="1">
-      <c r="A21" s="31"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="31"/>
-      <c r="R21" s="31"/>
-      <c r="S21" s="31"/>
-      <c r="T21" s="31"/>
-      <c r="U21" s="31"/>
-      <c r="V21" s="31"/>
-      <c r="W21" s="31"/>
-      <c r="X21" s="31"/>
-      <c r="Y21" s="31"/>
-      <c r="Z21" s="31"/>
-    </row>
-    <row r="22" ht="18.75" customHeight="1">
-      <c r="A22" s="31"/>
-      <c r="B22" s="59" t="s">
-        <v>96</v>
-      </c>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="31"/>
-      <c r="R22" s="31"/>
-      <c r="S22" s="31"/>
-      <c r="T22" s="31"/>
-      <c r="U22" s="31"/>
-      <c r="V22" s="31"/>
-      <c r="W22" s="31"/>
-      <c r="X22" s="31"/>
-      <c r="Y22" s="31"/>
-      <c r="Z22" s="31"/>
-    </row>
-    <row r="23" ht="18.75" customHeight="1">
-      <c r="A23" s="31"/>
-      <c r="B23" s="60" t="s">
-        <v>97</v>
-      </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="31"/>
-      <c r="R23" s="31"/>
-      <c r="S23" s="31"/>
-      <c r="T23" s="31"/>
-      <c r="U23" s="31"/>
-      <c r="V23" s="31"/>
-      <c r="W23" s="31"/>
-      <c r="X23" s="31"/>
-      <c r="Y23" s="31"/>
-      <c r="Z23" s="31"/>
-    </row>
-    <row r="24" ht="18.75" customHeight="1">
-      <c r="A24" s="31"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="31"/>
-      <c r="R24" s="31"/>
-      <c r="S24" s="31"/>
-      <c r="T24" s="31"/>
-      <c r="U24" s="31"/>
-      <c r="V24" s="31"/>
-      <c r="W24" s="31"/>
-      <c r="X24" s="31"/>
-      <c r="Y24" s="31"/>
-      <c r="Z24" s="31"/>
-    </row>
-    <row r="25" ht="18.75" customHeight="1">
-      <c r="A25" s="31"/>
-      <c r="B25" s="59" t="s">
-        <v>98</v>
-      </c>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="31"/>
-      <c r="P25" s="31"/>
-      <c r="Q25" s="31"/>
-      <c r="R25" s="31"/>
-      <c r="S25" s="31"/>
-      <c r="T25" s="31"/>
-      <c r="U25" s="31"/>
-      <c r="V25" s="31"/>
-      <c r="W25" s="31"/>
-      <c r="X25" s="31"/>
-      <c r="Y25" s="31"/>
-      <c r="Z25" s="31"/>
-    </row>
-    <row r="26" ht="18.75" customHeight="1">
-      <c r="A26" s="31"/>
-      <c r="B26" s="59" t="s">
-        <v>99</v>
-      </c>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="31"/>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="31"/>
-      <c r="S26" s="31"/>
-      <c r="T26" s="31"/>
-      <c r="U26" s="31"/>
-      <c r="V26" s="31"/>
-      <c r="W26" s="31"/>
-      <c r="X26" s="31"/>
-      <c r="Y26" s="31"/>
-      <c r="Z26" s="31"/>
-    </row>
-    <row r="27" ht="18.75" customHeight="1">
-      <c r="A27" s="31"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="31"/>
-      <c r="P27" s="31"/>
-      <c r="Q27" s="31"/>
-      <c r="R27" s="31"/>
-      <c r="S27" s="31"/>
-      <c r="T27" s="31"/>
-      <c r="U27" s="31"/>
-      <c r="V27" s="31"/>
-      <c r="W27" s="31"/>
-      <c r="X27" s="31"/>
-      <c r="Y27" s="31"/>
-      <c r="Z27" s="31"/>
-    </row>
-    <row r="28" ht="18.75" customHeight="1">
-      <c r="A28" s="31"/>
-      <c r="B28" s="60" t="s">
-        <v>100</v>
-      </c>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="31"/>
-      <c r="P28" s="31"/>
-      <c r="Q28" s="31"/>
-      <c r="R28" s="31"/>
-      <c r="S28" s="31"/>
-      <c r="T28" s="31"/>
-      <c r="U28" s="31"/>
-      <c r="V28" s="31"/>
-      <c r="W28" s="31"/>
-      <c r="X28" s="31"/>
-      <c r="Y28" s="31"/>
-      <c r="Z28" s="31"/>
-    </row>
-    <row r="29" ht="18.75" customHeight="1">
-      <c r="A29" s="31"/>
-      <c r="B29" s="60" t="s">
+      <c r="A13" s="37"/>
+      <c r="B13" s="93" t="s">
         <v>101</v>
       </c>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="31"/>
-      <c r="O29" s="31"/>
-      <c r="P29" s="31"/>
-      <c r="Q29" s="31"/>
-      <c r="R29" s="31"/>
-      <c r="S29" s="31"/>
-      <c r="T29" s="31"/>
-      <c r="U29" s="31"/>
-      <c r="V29" s="31"/>
-      <c r="W29" s="31"/>
-      <c r="X29" s="31"/>
-      <c r="Y29" s="31"/>
-      <c r="Z29" s="31"/>
-    </row>
-    <row r="30" ht="18.75" customHeight="1"/>
-    <row r="31" ht="18.75" customHeight="1"/>
-    <row r="32" ht="18.75" customHeight="1"/>
-    <row r="33" ht="18.75" customHeight="1"/>
-    <row r="34" ht="18.75" customHeight="1"/>
-    <row r="35" ht="18.75" customHeight="1"/>
-    <row r="36" ht="18.75" customHeight="1"/>
-    <row r="37" ht="18.75" customHeight="1"/>
-    <row r="38" ht="18.75" customHeight="1"/>
-    <row r="39" ht="18.75" customHeight="1"/>
-    <row r="40" ht="18.75" customHeight="1"/>
-    <row r="41" ht="18.75" customHeight="1"/>
-    <row r="42" ht="18.75" customHeight="1"/>
-    <row r="43" ht="18.75" customHeight="1"/>
-    <row r="44" ht="18.75" customHeight="1"/>
-    <row r="45" ht="18.75" customHeight="1"/>
-    <row r="46" ht="18.75" customHeight="1"/>
-    <row r="47" ht="18.75" customHeight="1"/>
-    <row r="48" ht="18.75" customHeight="1"/>
-    <row r="49" ht="18.75" customHeight="1"/>
-    <row r="50" ht="18.75" customHeight="1"/>
-    <row r="51" ht="18.75" customHeight="1"/>
-    <row r="52" ht="18.75" customHeight="1"/>
-    <row r="53" ht="18.75" customHeight="1"/>
-    <row r="54" ht="18.75" customHeight="1"/>
-    <row r="55" ht="18.75" customHeight="1"/>
-    <row r="56" ht="18.75" customHeight="1"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="37"/>
+      <c r="T13" s="37"/>
+      <c r="U13" s="37"/>
+      <c r="V13" s="37"/>
+      <c r="W13" s="37"/>
+      <c r="X13" s="37"/>
+      <c r="Y13" s="37"/>
+      <c r="Z13" s="37"/>
+    </row>
+    <row r="14" ht="18.75" customHeight="1">
+      <c r="A14" s="37"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="37"/>
+      <c r="T14" s="37"/>
+      <c r="U14" s="37"/>
+      <c r="V14" s="37"/>
+      <c r="W14" s="37"/>
+      <c r="X14" s="37"/>
+      <c r="Y14" s="37"/>
+      <c r="Z14" s="37"/>
+    </row>
+    <row r="15" ht="18.75" customHeight="1">
+      <c r="A15" s="37"/>
+      <c r="B15" s="93" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="37"/>
+      <c r="T15" s="37"/>
+      <c r="U15" s="37"/>
+      <c r="V15" s="37"/>
+      <c r="W15" s="37"/>
+      <c r="X15" s="37"/>
+      <c r="Y15" s="37"/>
+      <c r="Z15" s="37"/>
+    </row>
+    <row r="16" ht="18.75" customHeight="1">
+      <c r="A16" s="94"/>
+      <c r="B16" s="95" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="94"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="94"/>
+      <c r="H16" s="94"/>
+      <c r="I16" s="94"/>
+      <c r="J16" s="94"/>
+      <c r="K16" s="94"/>
+      <c r="L16" s="94"/>
+      <c r="M16" s="94"/>
+      <c r="N16" s="94"/>
+      <c r="O16" s="94"/>
+      <c r="P16" s="94"/>
+      <c r="Q16" s="94"/>
+      <c r="R16" s="94"/>
+      <c r="S16" s="94"/>
+      <c r="T16" s="94"/>
+      <c r="U16" s="94"/>
+      <c r="V16" s="94"/>
+      <c r="W16" s="94"/>
+      <c r="X16" s="94"/>
+      <c r="Y16" s="94"/>
+      <c r="Z16" s="94"/>
+    </row>
+    <row r="17" ht="18.75" customHeight="1">
+      <c r="A17" s="94"/>
+      <c r="B17" s="94"/>
+      <c r="C17" s="96" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" s="94"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="94"/>
+      <c r="G17" s="94"/>
+      <c r="H17" s="95"/>
+      <c r="I17" s="95" t="s">
+        <v>105</v>
+      </c>
+      <c r="J17" s="94"/>
+      <c r="K17" s="94"/>
+      <c r="L17" s="94"/>
+      <c r="M17" s="94"/>
+      <c r="N17" s="94"/>
+      <c r="O17" s="94"/>
+      <c r="P17" s="94"/>
+      <c r="Q17" s="94"/>
+      <c r="R17" s="94"/>
+      <c r="S17" s="94"/>
+      <c r="T17" s="94"/>
+      <c r="U17" s="94"/>
+      <c r="V17" s="94"/>
+      <c r="W17" s="94"/>
+      <c r="X17" s="94"/>
+      <c r="Y17" s="94"/>
+      <c r="Z17" s="94"/>
+    </row>
+    <row r="18" ht="18.75" customHeight="1">
+      <c r="A18" s="94"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="95" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" s="94"/>
+      <c r="E18" s="95" t="s">
+        <v>107</v>
+      </c>
+      <c r="F18" s="94"/>
+      <c r="G18" s="94"/>
+      <c r="H18" s="94"/>
+      <c r="I18" s="94"/>
+      <c r="J18" s="94"/>
+      <c r="K18" s="94"/>
+      <c r="L18" s="94"/>
+      <c r="M18" s="94"/>
+      <c r="N18" s="94"/>
+      <c r="O18" s="94"/>
+      <c r="P18" s="94"/>
+      <c r="Q18" s="94"/>
+      <c r="R18" s="94"/>
+      <c r="S18" s="94"/>
+      <c r="T18" s="94"/>
+      <c r="U18" s="94"/>
+      <c r="V18" s="94"/>
+      <c r="W18" s="94"/>
+      <c r="X18" s="94"/>
+      <c r="Y18" s="94"/>
+      <c r="Z18" s="94"/>
+    </row>
+    <row r="19" ht="18.75" customHeight="1">
+      <c r="A19" s="94"/>
+      <c r="B19" s="94"/>
+      <c r="C19" s="95" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="94"/>
+      <c r="E19" s="95" t="s">
+        <v>107</v>
+      </c>
+      <c r="F19" s="94"/>
+      <c r="G19" s="94"/>
+      <c r="H19" s="94"/>
+      <c r="I19" s="94"/>
+      <c r="J19" s="94"/>
+      <c r="K19" s="94"/>
+      <c r="L19" s="94"/>
+      <c r="M19" s="94"/>
+      <c r="N19" s="94"/>
+      <c r="O19" s="94"/>
+      <c r="P19" s="94"/>
+      <c r="Q19" s="94"/>
+      <c r="R19" s="94"/>
+      <c r="S19" s="94"/>
+      <c r="T19" s="94"/>
+      <c r="U19" s="94"/>
+      <c r="V19" s="94"/>
+      <c r="W19" s="94"/>
+      <c r="X19" s="94"/>
+      <c r="Y19" s="94"/>
+      <c r="Z19" s="94"/>
+    </row>
+    <row r="20" ht="18.75" customHeight="1">
+      <c r="A20" s="94"/>
+      <c r="B20" s="94"/>
+      <c r="C20" s="95" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" s="94"/>
+      <c r="E20" s="95" t="s">
+        <v>110</v>
+      </c>
+      <c r="F20" s="94"/>
+      <c r="G20" s="94"/>
+      <c r="H20" s="94"/>
+      <c r="I20" s="94"/>
+      <c r="J20" s="94"/>
+      <c r="K20" s="94"/>
+      <c r="L20" s="94"/>
+      <c r="M20" s="94"/>
+      <c r="N20" s="94"/>
+      <c r="O20" s="94"/>
+      <c r="P20" s="94"/>
+      <c r="Q20" s="94"/>
+      <c r="R20" s="94"/>
+      <c r="S20" s="94"/>
+      <c r="T20" s="94"/>
+      <c r="U20" s="94"/>
+      <c r="V20" s="94"/>
+      <c r="W20" s="94"/>
+      <c r="X20" s="94"/>
+      <c r="Y20" s="94"/>
+      <c r="Z20" s="94"/>
+    </row>
+    <row r="21" ht="18.75" customHeight="1">
+      <c r="A21" s="94"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="95" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="94"/>
+      <c r="E21" s="95" t="s">
+        <v>112</v>
+      </c>
+      <c r="F21" s="94"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="94"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="94"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="94"/>
+      <c r="N21" s="94"/>
+      <c r="O21" s="94"/>
+      <c r="P21" s="94"/>
+      <c r="Q21" s="94"/>
+      <c r="R21" s="94"/>
+      <c r="S21" s="94"/>
+      <c r="T21" s="94"/>
+      <c r="U21" s="94"/>
+      <c r="V21" s="94"/>
+      <c r="W21" s="94"/>
+      <c r="X21" s="94"/>
+      <c r="Y21" s="94"/>
+      <c r="Z21" s="94"/>
+    </row>
+    <row r="22" ht="18.75" customHeight="1">
+      <c r="A22" s="94"/>
+      <c r="B22" s="94"/>
+      <c r="C22" s="96" t="s">
+        <v>113</v>
+      </c>
+      <c r="D22" s="94"/>
+      <c r="E22" s="96" t="s">
+        <v>114</v>
+      </c>
+      <c r="F22" s="94"/>
+      <c r="G22" s="94"/>
+      <c r="H22" s="94"/>
+      <c r="I22" s="94"/>
+      <c r="J22" s="94"/>
+      <c r="K22" s="94"/>
+      <c r="L22" s="94"/>
+      <c r="M22" s="94"/>
+      <c r="N22" s="94"/>
+      <c r="O22" s="94"/>
+      <c r="P22" s="94"/>
+      <c r="Q22" s="94"/>
+      <c r="R22" s="94"/>
+      <c r="S22" s="94"/>
+      <c r="T22" s="94"/>
+      <c r="U22" s="94"/>
+      <c r="V22" s="94"/>
+      <c r="W22" s="94"/>
+      <c r="X22" s="94"/>
+      <c r="Y22" s="94"/>
+      <c r="Z22" s="94"/>
+    </row>
+    <row r="23" ht="18.75" customHeight="1">
+      <c r="A23" s="94"/>
+      <c r="B23" s="94"/>
+      <c r="C23" s="96" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" s="94"/>
+      <c r="E23" s="96" t="s">
+        <v>116</v>
+      </c>
+      <c r="F23" s="94"/>
+      <c r="G23" s="94"/>
+      <c r="H23" s="94"/>
+      <c r="I23" s="94"/>
+      <c r="J23" s="94"/>
+      <c r="K23" s="94"/>
+      <c r="L23" s="94"/>
+      <c r="M23" s="94"/>
+      <c r="N23" s="94"/>
+      <c r="O23" s="94"/>
+      <c r="P23" s="94"/>
+      <c r="Q23" s="94"/>
+      <c r="R23" s="94"/>
+      <c r="S23" s="94"/>
+      <c r="T23" s="94"/>
+      <c r="U23" s="94"/>
+      <c r="V23" s="94"/>
+      <c r="W23" s="94"/>
+      <c r="X23" s="94"/>
+      <c r="Y23" s="94"/>
+      <c r="Z23" s="94"/>
+    </row>
+    <row r="24" ht="18.75" customHeight="1">
+      <c r="A24" s="94"/>
+      <c r="B24" s="94"/>
+      <c r="C24" s="95" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" s="94"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="94"/>
+      <c r="H24" s="94"/>
+      <c r="I24" s="94"/>
+      <c r="J24" s="94"/>
+      <c r="K24" s="94"/>
+      <c r="L24" s="94"/>
+      <c r="M24" s="94"/>
+      <c r="N24" s="94"/>
+      <c r="O24" s="94"/>
+      <c r="P24" s="94"/>
+      <c r="Q24" s="94"/>
+      <c r="R24" s="94"/>
+      <c r="S24" s="94"/>
+      <c r="T24" s="94"/>
+      <c r="U24" s="94"/>
+      <c r="V24" s="94"/>
+      <c r="W24" s="94"/>
+      <c r="X24" s="94"/>
+      <c r="Y24" s="94"/>
+      <c r="Z24" s="94"/>
+    </row>
+    <row r="25" ht="18.75" customHeight="1">
+      <c r="A25" s="94"/>
+      <c r="B25" s="94"/>
+      <c r="C25" s="95" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" s="94"/>
+      <c r="E25" s="94"/>
+      <c r="F25" s="94"/>
+      <c r="G25" s="94"/>
+      <c r="H25" s="94"/>
+      <c r="I25" s="94"/>
+      <c r="J25" s="94"/>
+      <c r="K25" s="94"/>
+      <c r="L25" s="94"/>
+      <c r="M25" s="94"/>
+      <c r="N25" s="94"/>
+      <c r="O25" s="94"/>
+      <c r="P25" s="94"/>
+      <c r="Q25" s="94"/>
+      <c r="R25" s="94"/>
+      <c r="S25" s="94"/>
+      <c r="T25" s="94"/>
+      <c r="U25" s="94"/>
+      <c r="V25" s="94"/>
+      <c r="W25" s="94"/>
+      <c r="X25" s="94"/>
+      <c r="Y25" s="94"/>
+      <c r="Z25" s="94"/>
+    </row>
+    <row r="26" ht="18.75" customHeight="1">
+      <c r="A26" s="37"/>
+      <c r="B26" s="97"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="37"/>
+      <c r="R26" s="37"/>
+      <c r="S26" s="37"/>
+      <c r="T26" s="37"/>
+      <c r="U26" s="37"/>
+      <c r="V26" s="37"/>
+      <c r="W26" s="37"/>
+      <c r="X26" s="37"/>
+      <c r="Y26" s="37"/>
+      <c r="Z26" s="37"/>
+    </row>
+    <row r="27" ht="18.75" customHeight="1">
+      <c r="A27" s="37"/>
+      <c r="B27" s="97" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="37"/>
+      <c r="O27" s="37"/>
+      <c r="P27" s="37"/>
+      <c r="Q27" s="37"/>
+      <c r="R27" s="37"/>
+      <c r="S27" s="37"/>
+      <c r="T27" s="37"/>
+      <c r="U27" s="37"/>
+      <c r="V27" s="37"/>
+      <c r="W27" s="37"/>
+      <c r="X27" s="37"/>
+      <c r="Y27" s="37"/>
+      <c r="Z27" s="37"/>
+    </row>
+    <row r="28" ht="18.75" customHeight="1">
+      <c r="A28" s="37"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="37"/>
+      <c r="O28" s="37"/>
+      <c r="P28" s="37"/>
+      <c r="Q28" s="37"/>
+      <c r="R28" s="37"/>
+      <c r="S28" s="37"/>
+      <c r="T28" s="37"/>
+      <c r="U28" s="37"/>
+      <c r="V28" s="37"/>
+      <c r="W28" s="37"/>
+      <c r="X28" s="37"/>
+      <c r="Y28" s="37"/>
+      <c r="Z28" s="37"/>
+    </row>
+    <row r="29" ht="18.75" customHeight="1">
+      <c r="A29" s="37"/>
+      <c r="B29" s="98" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="37"/>
+      <c r="N29" s="37"/>
+      <c r="O29" s="37"/>
+      <c r="P29" s="37"/>
+      <c r="Q29" s="37"/>
+      <c r="R29" s="37"/>
+      <c r="S29" s="37"/>
+      <c r="T29" s="37"/>
+      <c r="U29" s="37"/>
+      <c r="V29" s="37"/>
+      <c r="W29" s="37"/>
+      <c r="X29" s="37"/>
+      <c r="Y29" s="37"/>
+      <c r="Z29" s="37"/>
+    </row>
+    <row r="30" ht="18.75" customHeight="1">
+      <c r="A30" s="37"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="37"/>
+      <c r="N30" s="37"/>
+      <c r="O30" s="37"/>
+      <c r="P30" s="37"/>
+      <c r="Q30" s="37"/>
+      <c r="R30" s="37"/>
+      <c r="S30" s="37"/>
+      <c r="T30" s="37"/>
+      <c r="U30" s="37"/>
+      <c r="V30" s="37"/>
+      <c r="W30" s="37"/>
+      <c r="X30" s="37"/>
+      <c r="Y30" s="37"/>
+      <c r="Z30" s="37"/>
+    </row>
+    <row r="31" ht="18.75" customHeight="1">
+      <c r="A31" s="37"/>
+      <c r="B31" s="98" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="37"/>
+      <c r="N31" s="37"/>
+      <c r="O31" s="37"/>
+      <c r="P31" s="37"/>
+      <c r="Q31" s="37"/>
+      <c r="R31" s="37"/>
+      <c r="S31" s="37"/>
+      <c r="T31" s="37"/>
+      <c r="U31" s="37"/>
+      <c r="V31" s="37"/>
+      <c r="W31" s="37"/>
+      <c r="X31" s="37"/>
+      <c r="Y31" s="37"/>
+      <c r="Z31" s="37"/>
+    </row>
+    <row r="32" ht="18.75" customHeight="1">
+      <c r="A32" s="37"/>
+      <c r="B32" s="51"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="37"/>
+      <c r="O32" s="37"/>
+      <c r="P32" s="37"/>
+      <c r="Q32" s="37"/>
+      <c r="R32" s="37"/>
+      <c r="S32" s="37"/>
+      <c r="T32" s="37"/>
+      <c r="U32" s="37"/>
+      <c r="V32" s="37"/>
+      <c r="W32" s="37"/>
+      <c r="X32" s="37"/>
+      <c r="Y32" s="37"/>
+      <c r="Z32" s="37"/>
+    </row>
+    <row r="33" ht="18.75" customHeight="1">
+      <c r="A33" s="37"/>
+      <c r="B33" s="98" t="s">
+        <v>122</v>
+      </c>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="37"/>
+      <c r="O33" s="37"/>
+      <c r="P33" s="37"/>
+      <c r="Q33" s="37"/>
+      <c r="R33" s="37"/>
+      <c r="S33" s="37"/>
+      <c r="T33" s="37"/>
+      <c r="U33" s="37"/>
+      <c r="V33" s="37"/>
+      <c r="W33" s="37"/>
+      <c r="X33" s="37"/>
+      <c r="Y33" s="37"/>
+      <c r="Z33" s="37"/>
+    </row>
+    <row r="34" ht="18.75" customHeight="1">
+      <c r="A34" s="37"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="37"/>
+      <c r="N34" s="37"/>
+      <c r="O34" s="37"/>
+      <c r="P34" s="37"/>
+      <c r="Q34" s="37"/>
+      <c r="R34" s="37"/>
+      <c r="S34" s="37"/>
+      <c r="T34" s="37"/>
+      <c r="U34" s="37"/>
+      <c r="V34" s="37"/>
+      <c r="W34" s="37"/>
+      <c r="X34" s="37"/>
+      <c r="Y34" s="37"/>
+      <c r="Z34" s="37"/>
+    </row>
+    <row r="35" ht="18.75" customHeight="1">
+      <c r="A35" s="37"/>
+      <c r="B35" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="37"/>
+      <c r="K35" s="37"/>
+      <c r="L35" s="37"/>
+      <c r="M35" s="37"/>
+      <c r="N35" s="37"/>
+      <c r="O35" s="37"/>
+      <c r="P35" s="37"/>
+      <c r="Q35" s="37"/>
+      <c r="R35" s="37"/>
+      <c r="S35" s="37"/>
+      <c r="T35" s="37"/>
+      <c r="U35" s="37"/>
+      <c r="V35" s="37"/>
+      <c r="W35" s="37"/>
+      <c r="X35" s="37"/>
+      <c r="Y35" s="37"/>
+      <c r="Z35" s="37"/>
+    </row>
+    <row r="36" ht="18.75" customHeight="1">
+      <c r="A36" s="37"/>
+      <c r="B36" s="97" t="s">
+        <v>124</v>
+      </c>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="37"/>
+      <c r="N36" s="37"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="37"/>
+      <c r="Q36" s="37"/>
+      <c r="R36" s="37"/>
+      <c r="S36" s="37"/>
+      <c r="T36" s="37"/>
+      <c r="U36" s="37"/>
+      <c r="V36" s="37"/>
+      <c r="W36" s="37"/>
+      <c r="X36" s="37"/>
+      <c r="Y36" s="37"/>
+      <c r="Z36" s="37"/>
+    </row>
+    <row r="37" ht="18.75" customHeight="1">
+      <c r="A37" s="37"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="37"/>
+      <c r="O37" s="37"/>
+      <c r="P37" s="37"/>
+      <c r="Q37" s="37"/>
+      <c r="R37" s="37"/>
+      <c r="S37" s="37"/>
+      <c r="T37" s="37"/>
+      <c r="U37" s="37"/>
+      <c r="V37" s="37"/>
+      <c r="W37" s="37"/>
+      <c r="X37" s="37"/>
+      <c r="Y37" s="37"/>
+      <c r="Z37" s="37"/>
+    </row>
+    <row r="38" ht="18.75" customHeight="1">
+      <c r="A38" s="51"/>
+      <c r="B38" s="99" t="s">
+        <v>125</v>
+      </c>
+      <c r="C38" s="51"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="51"/>
+      <c r="L38" s="51"/>
+      <c r="M38" s="51"/>
+      <c r="N38" s="51"/>
+      <c r="O38" s="51"/>
+      <c r="P38" s="51"/>
+      <c r="Q38" s="51"/>
+      <c r="R38" s="51"/>
+      <c r="S38" s="51"/>
+      <c r="T38" s="51"/>
+      <c r="U38" s="51"/>
+      <c r="V38" s="51"/>
+      <c r="W38" s="51"/>
+      <c r="X38" s="51"/>
+      <c r="Y38" s="51"/>
+      <c r="Z38" s="51"/>
+    </row>
+    <row r="39" ht="18.75" customHeight="1">
+      <c r="A39" s="51"/>
+      <c r="B39" s="99" t="s">
+        <v>126</v>
+      </c>
+      <c r="C39" s="51"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="51"/>
+      <c r="K39" s="51"/>
+      <c r="L39" s="51"/>
+      <c r="M39" s="51"/>
+      <c r="N39" s="51"/>
+      <c r="O39" s="51"/>
+      <c r="P39" s="51"/>
+      <c r="Q39" s="51"/>
+      <c r="R39" s="51"/>
+      <c r="S39" s="51"/>
+      <c r="T39" s="51"/>
+      <c r="U39" s="51"/>
+      <c r="V39" s="51"/>
+      <c r="W39" s="51"/>
+      <c r="X39" s="51"/>
+      <c r="Y39" s="51"/>
+      <c r="Z39" s="51"/>
+    </row>
+    <row r="40" ht="18.75" customHeight="1">
+      <c r="A40" s="51"/>
+      <c r="B40" s="51"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="51"/>
+      <c r="K40" s="51"/>
+      <c r="L40" s="51"/>
+      <c r="M40" s="51"/>
+      <c r="N40" s="51"/>
+      <c r="O40" s="51"/>
+      <c r="P40" s="51"/>
+      <c r="Q40" s="51"/>
+      <c r="R40" s="51"/>
+      <c r="S40" s="51"/>
+      <c r="T40" s="51"/>
+      <c r="U40" s="51"/>
+      <c r="V40" s="51"/>
+      <c r="W40" s="51"/>
+      <c r="X40" s="51"/>
+      <c r="Y40" s="51"/>
+      <c r="Z40" s="51"/>
+    </row>
+    <row r="41" ht="18.75" customHeight="1">
+      <c r="A41" s="37"/>
+      <c r="B41" s="97" t="s">
+        <v>127</v>
+      </c>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="37"/>
+      <c r="L41" s="37"/>
+      <c r="M41" s="37"/>
+      <c r="N41" s="37"/>
+      <c r="O41" s="37"/>
+      <c r="P41" s="37"/>
+      <c r="Q41" s="37"/>
+      <c r="R41" s="37"/>
+      <c r="S41" s="37"/>
+      <c r="T41" s="37"/>
+      <c r="U41" s="37"/>
+      <c r="V41" s="37"/>
+      <c r="W41" s="37"/>
+      <c r="X41" s="37"/>
+      <c r="Y41" s="37"/>
+      <c r="Z41" s="37"/>
+    </row>
+    <row r="42" ht="18.75" customHeight="1">
+      <c r="A42" s="37"/>
+      <c r="B42" s="97" t="s">
+        <v>128</v>
+      </c>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="37"/>
+      <c r="M42" s="37"/>
+      <c r="N42" s="37"/>
+      <c r="O42" s="37"/>
+      <c r="P42" s="37"/>
+      <c r="Q42" s="37"/>
+      <c r="R42" s="37"/>
+      <c r="S42" s="37"/>
+      <c r="T42" s="37"/>
+      <c r="U42" s="37"/>
+      <c r="V42" s="37"/>
+      <c r="W42" s="37"/>
+      <c r="X42" s="37"/>
+      <c r="Y42" s="37"/>
+      <c r="Z42" s="37"/>
+    </row>
+    <row r="43" ht="18.75" customHeight="1">
+      <c r="A43" s="37"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="37"/>
+      <c r="K43" s="37"/>
+      <c r="L43" s="37"/>
+      <c r="M43" s="37"/>
+      <c r="N43" s="37"/>
+      <c r="O43" s="37"/>
+      <c r="P43" s="37"/>
+      <c r="Q43" s="37"/>
+      <c r="R43" s="37"/>
+      <c r="S43" s="37"/>
+      <c r="T43" s="37"/>
+      <c r="U43" s="37"/>
+      <c r="V43" s="37"/>
+      <c r="W43" s="37"/>
+      <c r="X43" s="37"/>
+      <c r="Y43" s="37"/>
+      <c r="Z43" s="37"/>
+    </row>
+    <row r="44" ht="18.75" customHeight="1">
+      <c r="A44" s="37"/>
+      <c r="B44" s="100" t="s">
+        <v>129</v>
+      </c>
+      <c r="C44" s="51"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="51"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="37"/>
+      <c r="J44" s="37"/>
+      <c r="K44" s="37"/>
+      <c r="L44" s="37"/>
+      <c r="M44" s="37"/>
+      <c r="N44" s="37"/>
+      <c r="O44" s="37"/>
+      <c r="P44" s="37"/>
+      <c r="Q44" s="37"/>
+      <c r="R44" s="37"/>
+      <c r="S44" s="37"/>
+      <c r="T44" s="37"/>
+      <c r="U44" s="37"/>
+      <c r="V44" s="37"/>
+      <c r="W44" s="37"/>
+      <c r="X44" s="37"/>
+      <c r="Y44" s="37"/>
+      <c r="Z44" s="37"/>
+    </row>
+    <row r="45" ht="18.75" customHeight="1">
+      <c r="A45" s="37"/>
+      <c r="B45" s="100" t="s">
+        <v>130</v>
+      </c>
+      <c r="C45" s="51"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="51"/>
+      <c r="F45" s="51"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="37"/>
+      <c r="J45" s="37"/>
+      <c r="K45" s="37"/>
+      <c r="L45" s="37"/>
+      <c r="M45" s="37"/>
+      <c r="N45" s="37"/>
+      <c r="O45" s="37"/>
+      <c r="P45" s="37"/>
+      <c r="Q45" s="37"/>
+      <c r="R45" s="37"/>
+      <c r="S45" s="37"/>
+      <c r="T45" s="37"/>
+      <c r="U45" s="37"/>
+      <c r="V45" s="37"/>
+      <c r="W45" s="37"/>
+      <c r="X45" s="37"/>
+      <c r="Y45" s="37"/>
+      <c r="Z45" s="37"/>
+    </row>
+    <row r="46" ht="18.75" customHeight="1">
+      <c r="B46" s="94"/>
+      <c r="C46" s="94"/>
+      <c r="D46" s="94"/>
+      <c r="E46" s="94"/>
+      <c r="F46" s="94"/>
+    </row>
+    <row r="47" ht="18.75" customHeight="1">
+      <c r="A47" s="94"/>
+      <c r="B47" s="95" t="s">
+        <v>131</v>
+      </c>
+      <c r="C47" s="94"/>
+      <c r="D47" s="94"/>
+      <c r="E47" s="94"/>
+      <c r="F47" s="94"/>
+      <c r="G47" s="94"/>
+      <c r="H47" s="94"/>
+      <c r="I47" s="94"/>
+      <c r="J47" s="94"/>
+      <c r="K47" s="94"/>
+      <c r="L47" s="94"/>
+      <c r="M47" s="94"/>
+      <c r="N47" s="94"/>
+      <c r="O47" s="94"/>
+      <c r="P47" s="94"/>
+      <c r="Q47" s="94"/>
+      <c r="R47" s="94"/>
+      <c r="S47" s="94"/>
+      <c r="T47" s="94"/>
+      <c r="U47" s="94"/>
+      <c r="V47" s="94"/>
+      <c r="W47" s="94"/>
+      <c r="X47" s="94"/>
+      <c r="Y47" s="94"/>
+      <c r="Z47" s="94"/>
+    </row>
+    <row r="48" ht="18.75" customHeight="1">
+      <c r="A48" s="94"/>
+      <c r="B48" s="95" t="s">
+        <v>132</v>
+      </c>
+      <c r="C48" s="94"/>
+      <c r="D48" s="94"/>
+      <c r="E48" s="94"/>
+      <c r="F48" s="94"/>
+      <c r="G48" s="94"/>
+      <c r="H48" s="95"/>
+      <c r="I48" s="94"/>
+      <c r="J48" s="94"/>
+      <c r="K48" s="94"/>
+      <c r="L48" s="94"/>
+      <c r="M48" s="94"/>
+      <c r="N48" s="94"/>
+      <c r="O48" s="94"/>
+      <c r="P48" s="94"/>
+      <c r="Q48" s="94"/>
+      <c r="R48" s="94"/>
+      <c r="S48" s="94"/>
+      <c r="T48" s="94"/>
+      <c r="U48" s="94"/>
+      <c r="V48" s="94"/>
+      <c r="W48" s="94"/>
+      <c r="X48" s="94"/>
+      <c r="Y48" s="94"/>
+      <c r="Z48" s="94"/>
+    </row>
+    <row r="49" ht="18.75" customHeight="1">
+      <c r="A49" s="94"/>
+      <c r="B49" s="94"/>
+      <c r="C49" s="94"/>
+      <c r="D49" s="94"/>
+      <c r="E49" s="94"/>
+      <c r="F49" s="94"/>
+      <c r="G49" s="94"/>
+      <c r="H49" s="94"/>
+      <c r="I49" s="94"/>
+      <c r="J49" s="94"/>
+      <c r="K49" s="94"/>
+      <c r="L49" s="94"/>
+      <c r="M49" s="94"/>
+      <c r="N49" s="94"/>
+      <c r="O49" s="94"/>
+      <c r="P49" s="94"/>
+      <c r="Q49" s="94"/>
+      <c r="R49" s="94"/>
+      <c r="S49" s="94"/>
+      <c r="T49" s="94"/>
+      <c r="U49" s="94"/>
+      <c r="V49" s="94"/>
+      <c r="W49" s="94"/>
+      <c r="X49" s="94"/>
+      <c r="Y49" s="94"/>
+      <c r="Z49" s="94"/>
+    </row>
+    <row r="50" ht="18.75" customHeight="1">
+      <c r="A50" s="94"/>
+      <c r="B50" s="94"/>
+      <c r="C50" s="95"/>
+      <c r="D50" s="94"/>
+      <c r="E50" s="95"/>
+      <c r="F50" s="94"/>
+      <c r="G50" s="94"/>
+      <c r="H50" s="94"/>
+      <c r="I50" s="94"/>
+      <c r="J50" s="94"/>
+      <c r="K50" s="94"/>
+      <c r="L50" s="94"/>
+      <c r="M50" s="94"/>
+      <c r="N50" s="94"/>
+      <c r="O50" s="94"/>
+      <c r="P50" s="94"/>
+      <c r="Q50" s="94"/>
+      <c r="R50" s="94"/>
+      <c r="S50" s="94"/>
+      <c r="T50" s="94"/>
+      <c r="U50" s="94"/>
+      <c r="V50" s="94"/>
+      <c r="W50" s="94"/>
+      <c r="X50" s="94"/>
+      <c r="Y50" s="94"/>
+      <c r="Z50" s="94"/>
+    </row>
+    <row r="51" ht="18.75" customHeight="1">
+      <c r="A51" s="94"/>
+      <c r="B51" s="94"/>
+      <c r="C51" s="95"/>
+      <c r="D51" s="94"/>
+      <c r="E51" s="95"/>
+      <c r="F51" s="94"/>
+      <c r="G51" s="94"/>
+      <c r="H51" s="94"/>
+      <c r="I51" s="94"/>
+      <c r="J51" s="94"/>
+      <c r="K51" s="94"/>
+      <c r="L51" s="94"/>
+      <c r="M51" s="94"/>
+      <c r="N51" s="94"/>
+      <c r="O51" s="94"/>
+      <c r="P51" s="94"/>
+      <c r="Q51" s="94"/>
+      <c r="R51" s="94"/>
+      <c r="S51" s="94"/>
+      <c r="T51" s="94"/>
+      <c r="U51" s="94"/>
+      <c r="V51" s="94"/>
+      <c r="W51" s="94"/>
+      <c r="X51" s="94"/>
+      <c r="Y51" s="94"/>
+      <c r="Z51" s="94"/>
+    </row>
+    <row r="52" ht="18.75" customHeight="1">
+      <c r="A52" s="94"/>
+      <c r="B52" s="94"/>
+      <c r="C52" s="95"/>
+      <c r="D52" s="94"/>
+      <c r="E52" s="95"/>
+      <c r="F52" s="94"/>
+      <c r="G52" s="94"/>
+      <c r="H52" s="94"/>
+      <c r="I52" s="94"/>
+      <c r="J52" s="94"/>
+      <c r="K52" s="94"/>
+      <c r="L52" s="94"/>
+      <c r="M52" s="94"/>
+      <c r="N52" s="94"/>
+      <c r="O52" s="94"/>
+      <c r="P52" s="94"/>
+      <c r="Q52" s="94"/>
+      <c r="R52" s="94"/>
+      <c r="S52" s="94"/>
+      <c r="T52" s="94"/>
+      <c r="U52" s="94"/>
+      <c r="V52" s="94"/>
+      <c r="W52" s="94"/>
+      <c r="X52" s="94"/>
+      <c r="Y52" s="94"/>
+      <c r="Z52" s="94"/>
+    </row>
+    <row r="53" ht="18.75" customHeight="1">
+      <c r="A53" s="94"/>
+      <c r="B53" s="94"/>
+      <c r="C53" s="95"/>
+      <c r="D53" s="94"/>
+      <c r="E53" s="95"/>
+      <c r="F53" s="94"/>
+      <c r="G53" s="94"/>
+      <c r="H53" s="94"/>
+      <c r="I53" s="94"/>
+      <c r="J53" s="94"/>
+      <c r="K53" s="94"/>
+      <c r="L53" s="94"/>
+      <c r="M53" s="94"/>
+      <c r="N53" s="94"/>
+      <c r="O53" s="94"/>
+      <c r="P53" s="94"/>
+      <c r="Q53" s="94"/>
+      <c r="R53" s="94"/>
+      <c r="S53" s="94"/>
+      <c r="T53" s="94"/>
+      <c r="U53" s="94"/>
+      <c r="V53" s="94"/>
+      <c r="W53" s="94"/>
+      <c r="X53" s="94"/>
+      <c r="Y53" s="94"/>
+      <c r="Z53" s="94"/>
+    </row>
+    <row r="54" ht="18.75" customHeight="1">
+      <c r="A54" s="94"/>
+      <c r="B54" s="94"/>
+      <c r="C54" s="95"/>
+      <c r="D54" s="94"/>
+      <c r="E54" s="94"/>
+      <c r="F54" s="94"/>
+      <c r="G54" s="94"/>
+      <c r="H54" s="94"/>
+      <c r="I54" s="94"/>
+      <c r="J54" s="94"/>
+      <c r="K54" s="94"/>
+      <c r="L54" s="94"/>
+      <c r="M54" s="94"/>
+      <c r="N54" s="94"/>
+      <c r="O54" s="94"/>
+      <c r="P54" s="94"/>
+      <c r="Q54" s="94"/>
+      <c r="R54" s="94"/>
+      <c r="S54" s="94"/>
+      <c r="T54" s="94"/>
+      <c r="U54" s="94"/>
+      <c r="V54" s="94"/>
+      <c r="W54" s="94"/>
+      <c r="X54" s="94"/>
+      <c r="Y54" s="94"/>
+      <c r="Z54" s="94"/>
+    </row>
+    <row r="55" ht="18.75" customHeight="1">
+      <c r="A55" s="94"/>
+      <c r="B55" s="94"/>
+      <c r="C55" s="95"/>
+      <c r="D55" s="94"/>
+      <c r="E55" s="94"/>
+      <c r="F55" s="94"/>
+      <c r="G55" s="94"/>
+      <c r="H55" s="94"/>
+      <c r="I55" s="94"/>
+      <c r="J55" s="94"/>
+      <c r="K55" s="94"/>
+      <c r="L55" s="94"/>
+      <c r="M55" s="94"/>
+      <c r="N55" s="94"/>
+      <c r="O55" s="94"/>
+      <c r="P55" s="94"/>
+      <c r="Q55" s="94"/>
+      <c r="R55" s="94"/>
+      <c r="S55" s="94"/>
+      <c r="T55" s="94"/>
+      <c r="U55" s="94"/>
+      <c r="V55" s="94"/>
+      <c r="W55" s="94"/>
+      <c r="X55" s="94"/>
+      <c r="Y55" s="94"/>
+      <c r="Z55" s="94"/>
+    </row>
+    <row r="56" ht="18.75" customHeight="1">
+      <c r="A56" s="94"/>
+      <c r="B56" s="94"/>
+      <c r="C56" s="94"/>
+      <c r="D56" s="94"/>
+      <c r="E56" s="94"/>
+      <c r="F56" s="94"/>
+      <c r="G56" s="94"/>
+      <c r="H56" s="94"/>
+      <c r="I56" s="94"/>
+      <c r="J56" s="94"/>
+      <c r="K56" s="94"/>
+      <c r="L56" s="94"/>
+      <c r="M56" s="94"/>
+      <c r="N56" s="94"/>
+      <c r="O56" s="94"/>
+      <c r="P56" s="94"/>
+      <c r="Q56" s="94"/>
+      <c r="R56" s="94"/>
+      <c r="S56" s="94"/>
+      <c r="T56" s="94"/>
+      <c r="U56" s="94"/>
+      <c r="V56" s="94"/>
+      <c r="W56" s="94"/>
+      <c r="X56" s="94"/>
+      <c r="Y56" s="94"/>
+      <c r="Z56" s="94"/>
+    </row>
     <row r="57" ht="18.75" customHeight="1"/>
     <row r="58" ht="18.75" customHeight="1"/>
     <row r="59" ht="18.75" customHeight="1"/>
@@ -31920,8 +33202,27 @@
     <row r="986" ht="18.75" customHeight="1"/>
     <row r="987" ht="18.75" customHeight="1"/>
     <row r="988" ht="18.75" customHeight="1"/>
+    <row r="989" ht="18.75" customHeight="1"/>
+    <row r="990" ht="18.75" customHeight="1"/>
+    <row r="991" ht="18.75" customHeight="1"/>
+    <row r="992" ht="18.75" customHeight="1"/>
+    <row r="993" ht="18.75" customHeight="1"/>
+    <row r="994" ht="18.75" customHeight="1"/>
+    <row r="995" ht="18.75" customHeight="1"/>
+    <row r="996" ht="18.75" customHeight="1"/>
+    <row r="997" ht="18.75" customHeight="1"/>
+    <row r="998" ht="18.75" customHeight="1"/>
+    <row r="999" ht="18.75" customHeight="1"/>
+    <row r="1000" ht="18.75" customHeight="1"/>
+    <row r="1001" ht="18.75" customHeight="1"/>
+    <row r="1002" ht="18.75" customHeight="1"/>
+    <row r="1003" ht="18.75" customHeight="1"/>
+    <row r="1004" ht="18.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="E2:I2"/>
@@ -31929,7 +33230,6 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>

--- a/doc/2023年下期/【修正版】2023年上期/【画面設計】番組詳細画面（ProgramDetail.vue).xlsx
+++ b/doc/2023年下期/【修正版】2023年上期/【画面設計】番組詳細画面（ProgramDetail.vue).xlsx
@@ -11,14 +11,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="90k2JPx6/PpXwR/T1hA1H7y+EdQ/FGKHmq7KjGrzO1g="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="90UXAUl9YBbgMwUJsh1XcM9IwuzEwU8dVFILK3outpQ="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="131">
   <si>
     <t>Java課題(2023上期）</t>
   </si>
@@ -78,7 +78,20 @@
 ・バリデーションチェックの追加と修正</t>
   </si>
   <si>
+    <t>・TOPリンクボタンの削除
+・画面画像の差し替え</t>
+  </si>
+  <si>
     <t>1.【画面イメージ】</t>
+  </si>
+  <si>
+    <t>【初期表示】</t>
+  </si>
+  <si>
+    <t>※10件未満のため、ページングが非表示</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    【エラーが発生時】</t>
   </si>
   <si>
     <t>2.【機能概要】</t>
@@ -127,7 +140,7 @@
     <t>１桁</t>
   </si>
   <si>
-    <t>3.【イベント情報】</t>
+    <t>4.【イベント情報】</t>
   </si>
   <si>
     <t>イベント名</t>
@@ -156,7 +169,7 @@
     </r>
   </si>
   <si>
-    <t>出演者クリック時</t>
+    <t>タレント名クリック時</t>
   </si>
   <si>
     <t>リンクボタンをクリック時に、次画面「タレント詳細画面（TalentDetail.vue)」へ遷移する。</t>
@@ -180,13 +193,7 @@
     <t>ページングの最後に移動する。</t>
   </si>
   <si>
-    <t>TOPリンククリック時</t>
-  </si>
-  <si>
-    <t>リンクボタンをクリック時に、画面「メインメニュー画面」へ遷移する。</t>
-  </si>
-  <si>
-    <t>4.【フォーム情報】</t>
+    <t>5.【フォーム情報】</t>
   </si>
   <si>
     <t>5.【DB情報】</t>
@@ -242,15 +249,6 @@
 　・番組IDが設定されている場合は、8桁以内であること。
 　→ビジネスルールに詳しく記載。</t>
     </r>
-  </si>
-  <si>
-    <t>（ヘッダー項目）</t>
-  </si>
-  <si>
-    <t>TOP</t>
-  </si>
-  <si>
-    <t>linkbutton</t>
   </si>
   <si>
     <t>（番組情報）</t>
@@ -335,6 +333,9 @@
     <t>ヘッダー</t>
   </si>
   <si>
+    <t>linkbutton</t>
+  </si>
+  <si>
     <t>対象の番組のオンエア日の内容に出演するタレント名をリンクボタンで表示する。リンクボタンをクリック時に、次画面「タレント詳細画面（TalentDetail.vue)」へ遷移する。遷移時に年月、週、タレント名を渡して、次の画面で検索状態で表示させる。</t>
   </si>
   <si>
@@ -364,7 +365,7 @@
     <t>最初</t>
   </si>
   <si>
-    <t>結果結果のグリッドのページングの先頭に移動する。</t>
+    <t>検索結果のグリッドのページングの先頭に移動する。</t>
   </si>
   <si>
     <t>ページングリンク</t>
@@ -376,7 +377,7 @@
     <t>最後</t>
   </si>
   <si>
-    <t>結果結果のグリッドのページングの最後に移動する。</t>
+    <t>検索結果のグリッドのページングの最後に移動する。</t>
   </si>
   <si>
     <t>TalentDetail</t>
@@ -471,13 +472,13 @@
     <t xml:space="preserve">　　2-1-5.【2-1-2】で取得した結果のうち、データが10件を超える場合は、最初の10件を表示させ、残りは10件ずつ別の領域に保管してページングリンクを表示させる。</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2.2 出演名クリック時</t>
+    <t xml:space="preserve"> 2.2 タレント名クリック時</t>
   </si>
   <si>
     <t xml:space="preserve">　　2-2-1.パラメータ.年月、パラメータ.週、タレントIDをキーとして、次画面「タレント詳細画面（TalentDetail.vue)」へ遷移する。</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2.3 最初クリック時</t>
+    <t xml:space="preserve"> 2.3 最初リンククリック時</t>
   </si>
   <si>
     <t xml:space="preserve">　　2-3-1. ページングの先頭に移動する。</t>
@@ -489,16 +490,10 @@
     <t xml:space="preserve">　　2-4-1. クリックした番号の領域に保管されている内容を10件表示させる。</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2.5 最後クリック時</t>
+    <t xml:space="preserve"> 2.5 最後リンククリック時</t>
   </si>
   <si>
     <t xml:space="preserve">　　2-5-1. ページングの最後に移動する。</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.6 TOPリンククリック時</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　2-6-1. リンクボタンをクリック時に、画面「メインメニュー画面」へ遷移する。</t>
   </si>
 </sst>
 </file>
@@ -545,27 +540,27 @@
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10.0"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+    </font>
+    <font>
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
-      <color rgb="FFFF0000"/>
-      <name val="游ゴシック"/>
     </font>
     <font>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10.0"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <color rgb="FFFF0000"/>
+      <sz val="10.0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
@@ -761,7 +756,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="94">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -804,7 +799,7 @@
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -831,11 +826,11 @@
     <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="9" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
@@ -848,6 +843,12 @@
     </xf>
     <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -903,9 +904,6 @@
     <xf borderId="9" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -921,31 +919,10 @@
     <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="7" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -966,7 +943,7 @@
     <xf borderId="8" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -978,16 +955,22 @@
     <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="12" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="8" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="7" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -998,6 +981,9 @@
     </xf>
     <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
@@ -1014,32 +1000,20 @@
     <xf borderId="9" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf borderId="9" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="9" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
@@ -1082,11 +1056,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>-171450</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="11315700" cy="4743450"/>
+    <xdr:ext cx="8620125" cy="2847975"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="2" name="Shape 2" title="図形描画"/>
@@ -1095,9 +1069,9 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="152400" y="152400"/>
-          <a:ext cx="10668000" cy="4453190"/>
+          <a:ext cx="10667999" cy="3504266"/>
           <a:chOff x="152400" y="152400"/>
-          <a:chExt cx="10668000" cy="4453190"/>
+          <a:chExt cx="10667999" cy="3504266"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
@@ -1116,7 +1090,64 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="152400" y="152400"/>
-            <a:ext cx="10668000" cy="4453190"/>
+            <a:ext cx="10667999" cy="3504266"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln cap="flat" cmpd="sng" w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd len="sm" w="sm" type="none"/>
+            <a:tailEnd len="sm" w="sm" type="none"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9277350" cy="2847975"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Shape 2" title="図形描画"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="152400" y="152400"/>
+          <a:ext cx="10667999" cy="3251044"/>
+          <a:chOff x="152400" y="152400"/>
+          <a:chExt cx="10667999" cy="3251044"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="4" name="Shape 4"/>
+          <xdr:cNvPicPr preferRelativeResize="0"/>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip r:embed="rId2">
+            <a:alphaModFix/>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="152400" y="152400"/>
+            <a:ext cx="10667999" cy="3251044"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1413,7 +1444,7 @@
         <v>9</v>
       </c>
       <c r="H2" s="14">
-        <v>45322.0</v>
+        <v>45332.0</v>
       </c>
       <c r="I2" s="15" t="s">
         <v>9</v>
@@ -1497,21 +1528,29 @@
       <c r="B8" s="22">
         <v>4.0</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="14">
         <v>45322.0</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" ht="18.75" customHeight="1">
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
+    <row r="9" ht="37.5" customHeight="1">
+      <c r="B9" s="24">
+        <v>5.0</v>
+      </c>
+      <c r="C9" s="14">
+        <v>45332.0</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="10" ht="18.75" customHeight="1">
       <c r="B10" s="17"/>
@@ -2702,7 +2741,7 @@
         <v>9</v>
       </c>
       <c r="L2" s="14">
-        <v>45322.0</v>
+        <v>45332.0</v>
       </c>
       <c r="M2" s="15" t="s">
         <v>9</v>
@@ -2752,7 +2791,7 @@
     <row r="4" ht="16.5" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -2781,15 +2820,21 @@
     </row>
     <row r="5" ht="16.5" customHeight="1">
       <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
+      <c r="B5" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
+      <c r="H5" s="29" t="s">
+        <v>22</v>
+      </c>
       <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
+      <c r="J5" s="29"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
@@ -3229,7 +3274,9 @@
     </row>
     <row r="21" ht="16.5" customHeight="1">
       <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
+      <c r="B21" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -3257,13 +3304,15 @@
     </row>
     <row r="22" ht="16.5" customHeight="1">
       <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
+      <c r="B22" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="3"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
@@ -3285,13 +3334,8 @@
     </row>
     <row r="23" ht="16.5" customHeight="1">
       <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
+      <c r="B23" s="32"/>
+      <c r="H23" s="33"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
@@ -3313,13 +3357,13 @@
     </row>
     <row r="24" ht="16.5" customHeight="1">
       <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="9"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
@@ -3369,7 +3413,9 @@
     </row>
     <row r="26" ht="16.5" customHeight="1">
       <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
+      <c r="B26" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
@@ -3397,9 +3443,15 @@
     </row>
     <row r="27" ht="16.5" customHeight="1">
       <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
+      <c r="B27" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="34" t="s">
+        <v>28</v>
+      </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
@@ -3425,9 +3477,15 @@
     </row>
     <row r="28" ht="16.5" customHeight="1">
       <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
+      <c r="B28" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>31</v>
+      </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
@@ -3453,11 +3511,15 @@
     </row>
     <row r="29" ht="16.5" customHeight="1">
       <c r="A29" s="6"/>
-      <c r="B29" s="6" t="s">
-        <v>19</v>
+      <c r="B29" s="13" t="s">
+        <v>32</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
+      <c r="C29" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="35" t="s">
+        <v>33</v>
+      </c>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
@@ -3482,62 +3544,82 @@
       <c r="Z29" s="6"/>
     </row>
     <row r="30" ht="16.5" customHeight="1">
-      <c r="A30" s="6"/>
-      <c r="B30" s="29" t="s">
-        <v>20</v>
+      <c r="A30" s="36"/>
+      <c r="B30" s="37" t="s">
+        <v>34</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
-      <c r="S30" s="6"/>
-      <c r="T30" s="6"/>
-      <c r="U30" s="6"/>
-      <c r="V30" s="6"/>
-      <c r="W30" s="6"/>
-      <c r="X30" s="6"/>
-      <c r="Y30" s="6"/>
-      <c r="Z30" s="6"/>
+      <c r="C30" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="39"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="39"/>
+      <c r="Q30" s="39"/>
+      <c r="R30" s="39"/>
+      <c r="S30" s="39"/>
+      <c r="T30" s="39"/>
+      <c r="U30" s="39"/>
+      <c r="V30" s="39"/>
+      <c r="W30" s="39"/>
+      <c r="X30" s="39"/>
+      <c r="Y30" s="39"/>
+      <c r="Z30" s="39"/>
     </row>
     <row r="31" ht="16.5" customHeight="1">
-      <c r="A31" s="6"/>
-      <c r="B31" s="30"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="6"/>
-      <c r="S31" s="6"/>
-      <c r="T31" s="6"/>
-      <c r="U31" s="6"/>
-      <c r="V31" s="6"/>
-      <c r="W31" s="6"/>
-      <c r="X31" s="6"/>
-      <c r="Y31" s="6"/>
-      <c r="Z31" s="6"/>
+      <c r="A31" s="36"/>
+      <c r="B31" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="39"/>
+      <c r="R31" s="39"/>
+      <c r="S31" s="39"/>
+      <c r="T31" s="39"/>
+      <c r="U31" s="39"/>
+      <c r="V31" s="39"/>
+      <c r="W31" s="39"/>
+      <c r="X31" s="39"/>
+      <c r="Y31" s="39"/>
+      <c r="Z31" s="39"/>
     </row>
     <row r="32" ht="16.5" customHeight="1">
       <c r="A32" s="6"/>
-      <c r="B32" s="30"/>
-      <c r="H32" s="31"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
@@ -3559,13 +3641,15 @@
     </row>
     <row r="33" ht="16.5" customHeight="1">
       <c r="A33" s="6"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="9"/>
+      <c r="B33" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
@@ -3587,9 +3671,13 @@
     </row>
     <row r="34" ht="16.5" customHeight="1">
       <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
+      <c r="B34" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="27"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
@@ -3613,15 +3701,16 @@
       <c r="Y34" s="6"/>
       <c r="Z34" s="6"/>
     </row>
-    <row r="35" ht="16.5" customHeight="1">
+    <row r="35" ht="33.75" customHeight="1">
       <c r="A35" s="6"/>
-      <c r="B35" s="6" t="s">
-        <v>21</v>
+      <c r="B35" s="13" t="s">
+        <v>41</v>
       </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
+      <c r="C35" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" s="27"/>
       <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
@@ -3643,17 +3732,15 @@
       <c r="Y35" s="6"/>
       <c r="Z35" s="6"/>
     </row>
-    <row r="36" ht="16.5" customHeight="1">
+    <row r="36" ht="48.0" customHeight="1">
       <c r="A36" s="6"/>
-      <c r="B36" s="32" t="s">
-        <v>22</v>
+      <c r="B36" s="35" t="s">
+        <v>43</v>
       </c>
-      <c r="C36" s="32" t="s">
-        <v>23</v>
+      <c r="C36" s="44" t="s">
+        <v>44</v>
       </c>
-      <c r="D36" s="32" t="s">
-        <v>24</v>
-      </c>
+      <c r="D36" s="27"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
@@ -3677,17 +3764,15 @@
       <c r="Y36" s="6"/>
       <c r="Z36" s="6"/>
     </row>
-    <row r="37" ht="16.5" customHeight="1">
+    <row r="37" ht="38.25" customHeight="1">
       <c r="A37" s="6"/>
-      <c r="B37" s="13" t="s">
-        <v>25</v>
+      <c r="B37" s="45" t="s">
+        <v>45</v>
       </c>
-      <c r="C37" s="13" t="s">
-        <v>26</v>
+      <c r="C37" s="46" t="s">
+        <v>46</v>
       </c>
-      <c r="D37" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="D37" s="27"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
@@ -3711,17 +3796,15 @@
       <c r="Y37" s="6"/>
       <c r="Z37" s="6"/>
     </row>
-    <row r="38" ht="16.5" customHeight="1">
+    <row r="38" ht="36.0" customHeight="1">
       <c r="A38" s="6"/>
-      <c r="B38" s="13" t="s">
-        <v>28</v>
+      <c r="B38" s="47" t="s">
+        <v>47</v>
       </c>
-      <c r="C38" s="13" t="s">
-        <v>26</v>
+      <c r="C38" s="48" t="s">
+        <v>48</v>
       </c>
-      <c r="D38" s="33" t="s">
-        <v>29</v>
-      </c>
+      <c r="D38" s="27"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
@@ -3745,82 +3828,78 @@
       <c r="Y38" s="6"/>
       <c r="Z38" s="6"/>
     </row>
-    <row r="39" ht="16.5" customHeight="1">
-      <c r="A39" s="34"/>
-      <c r="B39" s="35" t="s">
-        <v>30</v>
+    <row r="39" ht="43.5" customHeight="1">
+      <c r="A39" s="6"/>
+      <c r="B39" s="45" t="s">
+        <v>49</v>
       </c>
-      <c r="C39" s="36" t="s">
-        <v>26</v>
+      <c r="C39" s="46" t="s">
+        <v>50</v>
       </c>
-      <c r="D39" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="37"/>
-      <c r="K39" s="37"/>
-      <c r="L39" s="37"/>
-      <c r="M39" s="37"/>
-      <c r="N39" s="37"/>
-      <c r="O39" s="37"/>
-      <c r="P39" s="37"/>
-      <c r="Q39" s="37"/>
-      <c r="R39" s="37"/>
-      <c r="S39" s="37"/>
-      <c r="T39" s="37"/>
-      <c r="U39" s="37"/>
-      <c r="V39" s="37"/>
-      <c r="W39" s="37"/>
-      <c r="X39" s="37"/>
-      <c r="Y39" s="37"/>
-      <c r="Z39" s="37"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="6"/>
+      <c r="T39" s="6"/>
+      <c r="U39" s="6"/>
+      <c r="V39" s="6"/>
+      <c r="W39" s="6"/>
+      <c r="X39" s="6"/>
+      <c r="Y39" s="6"/>
+      <c r="Z39" s="6"/>
     </row>
     <row r="40" ht="16.5" customHeight="1">
-      <c r="A40" s="34"/>
-      <c r="B40" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="C40" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="D40" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="37"/>
-      <c r="K40" s="37"/>
-      <c r="L40" s="37"/>
-      <c r="M40" s="37"/>
-      <c r="N40" s="37"/>
-      <c r="O40" s="37"/>
-      <c r="P40" s="37"/>
-      <c r="Q40" s="37"/>
-      <c r="R40" s="37"/>
-      <c r="S40" s="37"/>
-      <c r="T40" s="37"/>
-      <c r="U40" s="37"/>
-      <c r="V40" s="37"/>
-      <c r="W40" s="37"/>
-      <c r="X40" s="37"/>
-      <c r="Y40" s="37"/>
-      <c r="Z40" s="37"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="6"/>
+      <c r="T40" s="6"/>
+      <c r="U40" s="6"/>
+      <c r="V40" s="6"/>
+      <c r="W40" s="6"/>
+      <c r="X40" s="6"/>
+      <c r="Y40" s="6"/>
+      <c r="Z40" s="6"/>
     </row>
     <row r="41" ht="16.5" customHeight="1">
       <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
+      <c r="B41" s="29" t="s">
+        <v>51</v>
+      </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
+      <c r="G41" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
@@ -3844,13 +3923,15 @@
     <row r="42" ht="16.5" customHeight="1">
       <c r="A42" s="6"/>
       <c r="B42" s="6" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
+      <c r="G42" s="6" t="s">
+        <v>53</v>
+      </c>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
@@ -3873,20 +3954,32 @@
     </row>
     <row r="43" ht="16.5" customHeight="1">
       <c r="A43" s="6"/>
-      <c r="B43" s="32" t="s">
-        <v>35</v>
+      <c r="B43" s="34" t="s">
+        <v>54</v>
       </c>
-      <c r="C43" s="40" t="s">
-        <v>36</v>
+      <c r="C43" s="34" t="s">
+        <v>55</v>
       </c>
-      <c r="D43" s="27"/>
+      <c r="D43" s="34" t="s">
+        <v>56</v>
+      </c>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
+      <c r="G43" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="H43" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="I43" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="J43" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="K43" s="34" t="s">
+        <v>56</v>
+      </c>
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
@@ -3903,21 +3996,24 @@
       <c r="Y43" s="6"/>
       <c r="Z43" s="6"/>
     </row>
-    <row r="44" ht="33.75" customHeight="1">
+    <row r="44" ht="163.5" customHeight="1">
       <c r="A44" s="6"/>
-      <c r="B44" s="13" t="s">
-        <v>37</v>
+      <c r="B44" s="49" t="s">
+        <v>59</v>
       </c>
-      <c r="C44" s="41" t="s">
-        <v>38</v>
+      <c r="C44" s="13" t="s">
+        <v>60</v>
       </c>
-      <c r="D44" s="27"/>
+      <c r="D44" s="50" t="s">
+        <v>61</v>
+      </c>
       <c r="E44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="51"/>
+      <c r="H44" s="51"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="51"/>
+      <c r="K44" s="51"/>
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
       <c r="N44" s="6"/>
@@ -3934,50 +4030,46 @@
       <c r="Y44" s="6"/>
       <c r="Z44" s="6"/>
     </row>
-    <row r="45" ht="48.0" customHeight="1">
-      <c r="A45" s="6"/>
-      <c r="B45" s="13" t="s">
-        <v>39</v>
+    <row r="45" ht="16.5" customHeight="1">
+      <c r="A45" s="52"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="52"/>
+      <c r="E45" s="52"/>
+      <c r="F45" s="52"/>
+      <c r="G45" s="53"/>
+      <c r="H45" s="53"/>
+      <c r="I45" s="53"/>
+      <c r="J45" s="53"/>
+      <c r="K45" s="53"/>
+      <c r="L45" s="52"/>
+      <c r="M45" s="52"/>
+      <c r="N45" s="52"/>
+      <c r="O45" s="52"/>
+      <c r="P45" s="52"/>
+      <c r="Q45" s="52"/>
+      <c r="R45" s="52"/>
+      <c r="S45" s="52"/>
+      <c r="T45" s="52"/>
+      <c r="U45" s="52"/>
+      <c r="V45" s="52"/>
+      <c r="W45" s="52"/>
+      <c r="X45" s="52"/>
+      <c r="Y45" s="52"/>
+      <c r="Z45" s="52"/>
+    </row>
+    <row r="46" ht="16.5" customHeight="1">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6" t="s">
+        <v>62</v>
       </c>
-      <c r="C45" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="D45" s="27"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
-      <c r="M45" s="6"/>
-      <c r="N45" s="6"/>
-      <c r="O45" s="6"/>
-      <c r="P45" s="6"/>
-      <c r="Q45" s="6"/>
-      <c r="R45" s="6"/>
-      <c r="S45" s="6"/>
-      <c r="T45" s="6"/>
-      <c r="U45" s="6"/>
-      <c r="V45" s="6"/>
-      <c r="W45" s="6"/>
-      <c r="X45" s="6"/>
-      <c r="Y45" s="6"/>
-      <c r="Z45" s="6"/>
-    </row>
-    <row r="46" ht="38.25" customHeight="1">
-      <c r="A46" s="6"/>
-      <c r="B46" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="C46" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="D46" s="27"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
+      <c r="G46" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
@@ -3998,22 +4090,34 @@
       <c r="Y46" s="6"/>
       <c r="Z46" s="6"/>
     </row>
-    <row r="47" ht="36.0" customHeight="1">
+    <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="6"/>
-      <c r="B47" s="45" t="s">
-        <v>43</v>
+      <c r="B47" s="34" t="s">
+        <v>54</v>
       </c>
-      <c r="C47" s="46" t="s">
-        <v>44</v>
+      <c r="C47" s="34" t="s">
+        <v>55</v>
       </c>
-      <c r="D47" s="27"/>
+      <c r="D47" s="34" t="s">
+        <v>56</v>
+      </c>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
+      <c r="G47" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="H47" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="I47" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="J47" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="K47" s="34" t="s">
+        <v>56</v>
+      </c>
       <c r="L47" s="6"/>
       <c r="M47" s="6"/>
       <c r="N47" s="6"/>
@@ -4030,22 +4134,24 @@
       <c r="Y47" s="6"/>
       <c r="Z47" s="6"/>
     </row>
-    <row r="48" ht="43.5" customHeight="1">
+    <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="6"/>
-      <c r="B48" s="43" t="s">
-        <v>45</v>
+      <c r="B48" s="54" t="s">
+        <v>64</v>
       </c>
-      <c r="C48" s="44" t="s">
-        <v>46</v>
+      <c r="C48" s="13" t="s">
+        <v>60</v>
       </c>
-      <c r="D48" s="27"/>
+      <c r="D48" s="13" t="s">
+        <v>65</v>
+      </c>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
+      <c r="G48" s="51"/>
+      <c r="H48" s="51"/>
+      <c r="I48" s="51"/>
+      <c r="J48" s="51"/>
+      <c r="K48" s="51"/>
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
       <c r="N48" s="6"/>
@@ -4062,22 +4168,34 @@
       <c r="Y48" s="6"/>
       <c r="Z48" s="6"/>
     </row>
-    <row r="49" ht="43.5" customHeight="1">
+    <row r="49" ht="39.75" customHeight="1">
       <c r="A49" s="6"/>
-      <c r="B49" s="47" t="s">
-        <v>47</v>
+      <c r="B49" s="55" t="s">
+        <v>66</v>
       </c>
-      <c r="C49" s="44" t="s">
-        <v>48</v>
+      <c r="C49" s="13" t="s">
+        <v>60</v>
       </c>
-      <c r="D49" s="27"/>
+      <c r="D49" s="49" t="s">
+        <v>67</v>
+      </c>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
+      <c r="G49" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="I49" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J49" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="K49" s="49" t="s">
+        <v>70</v>
+      </c>
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
       <c r="N49" s="6"/>
@@ -4096,16 +4214,22 @@
     </row>
     <row r="50" ht="16.5" customHeight="1">
       <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
+      <c r="B50" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>65</v>
+      </c>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
+      <c r="G50" s="51"/>
+      <c r="H50" s="51"/>
+      <c r="I50" s="51"/>
+      <c r="J50" s="51"/>
+      <c r="K50" s="51"/>
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
       <c r="N50" s="6"/>
@@ -4122,22 +4246,24 @@
       <c r="Y50" s="6"/>
       <c r="Z50" s="6"/>
     </row>
-    <row r="51" ht="16.5" customHeight="1">
+    <row r="51" ht="84.75" customHeight="1">
       <c r="A51" s="6"/>
-      <c r="B51" s="6" t="s">
-        <v>49</v>
+      <c r="B51" s="55" t="s">
+        <v>66</v>
       </c>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
+      <c r="C51" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D51" s="50" t="s">
+        <v>72</v>
+      </c>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
-      <c r="G51" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
+      <c r="G51" s="51"/>
+      <c r="H51" s="51"/>
+      <c r="I51" s="51"/>
+      <c r="J51" s="51"/>
+      <c r="K51" s="51"/>
       <c r="L51" s="6"/>
       <c r="M51" s="6"/>
       <c r="N51" s="6"/>
@@ -4155,99 +4281,95 @@
       <c r="Z51" s="6"/>
     </row>
     <row r="52" ht="16.5" customHeight="1">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6" t="s">
-        <v>51</v>
+      <c r="A52" s="36"/>
+      <c r="B52" s="57" t="s">
+        <v>73</v>
       </c>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6" t="s">
-        <v>51</v>
+      <c r="C52" s="38" t="s">
+        <v>60</v>
       </c>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
-      <c r="L52" s="6"/>
-      <c r="M52" s="6"/>
-      <c r="N52" s="6"/>
-      <c r="O52" s="6"/>
-      <c r="P52" s="6"/>
-      <c r="Q52" s="6"/>
-      <c r="R52" s="6"/>
-      <c r="S52" s="6"/>
-      <c r="T52" s="6"/>
-      <c r="U52" s="6"/>
-      <c r="V52" s="6"/>
-      <c r="W52" s="6"/>
-      <c r="X52" s="6"/>
-      <c r="Y52" s="6"/>
-      <c r="Z52" s="6"/>
-    </row>
-    <row r="53" ht="16.5" customHeight="1">
-      <c r="A53" s="6"/>
-      <c r="B53" s="32" t="s">
-        <v>52</v>
+      <c r="D52" s="38" t="s">
+        <v>65</v>
       </c>
-      <c r="C53" s="32" t="s">
-        <v>53</v>
+      <c r="E52" s="39"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="58"/>
+      <c r="H52" s="58"/>
+      <c r="I52" s="58"/>
+      <c r="J52" s="58"/>
+      <c r="K52" s="58"/>
+      <c r="L52" s="39"/>
+      <c r="M52" s="39"/>
+      <c r="N52" s="39"/>
+      <c r="O52" s="39"/>
+      <c r="P52" s="39"/>
+      <c r="Q52" s="39"/>
+      <c r="R52" s="39"/>
+      <c r="S52" s="39"/>
+      <c r="T52" s="39"/>
+      <c r="U52" s="39"/>
+      <c r="V52" s="39"/>
+      <c r="W52" s="39"/>
+      <c r="X52" s="39"/>
+      <c r="Y52" s="39"/>
+      <c r="Z52" s="39"/>
+    </row>
+    <row r="53" ht="96.75" customHeight="1">
+      <c r="A53" s="36"/>
+      <c r="B53" s="55" t="s">
+        <v>66</v>
       </c>
-      <c r="D53" s="32" t="s">
-        <v>54</v>
+      <c r="C53" s="41" t="s">
+        <v>60</v>
       </c>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="32" t="s">
-        <v>55</v>
+      <c r="D53" s="59" t="s">
+        <v>74</v>
       </c>
-      <c r="H53" s="32" t="s">
-        <v>56</v>
+      <c r="E53" s="39"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="60" t="s">
+        <v>75</v>
       </c>
-      <c r="I53" s="32" t="s">
-        <v>23</v>
+      <c r="H53" s="61" t="s">
+        <v>76</v>
       </c>
-      <c r="J53" s="32" t="s">
-        <v>24</v>
+      <c r="I53" s="61" t="s">
+        <v>77</v>
       </c>
-      <c r="K53" s="32" t="s">
-        <v>54</v>
+      <c r="J53" s="61" t="s">
+        <v>78</v>
       </c>
-      <c r="L53" s="6"/>
-      <c r="M53" s="6"/>
-      <c r="N53" s="6"/>
-      <c r="O53" s="6"/>
-      <c r="P53" s="6"/>
-      <c r="Q53" s="6"/>
-      <c r="R53" s="6"/>
-      <c r="S53" s="6"/>
-      <c r="T53" s="6"/>
-      <c r="U53" s="6"/>
-      <c r="V53" s="6"/>
-      <c r="W53" s="6"/>
-      <c r="X53" s="6"/>
-      <c r="Y53" s="6"/>
-      <c r="Z53" s="6"/>
-    </row>
-    <row r="54" ht="163.5" customHeight="1">
+      <c r="K53" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="L53" s="39"/>
+      <c r="M53" s="39"/>
+      <c r="N53" s="39"/>
+      <c r="O53" s="39"/>
+      <c r="P53" s="39"/>
+      <c r="Q53" s="39"/>
+      <c r="R53" s="39"/>
+      <c r="S53" s="39"/>
+      <c r="T53" s="39"/>
+      <c r="U53" s="39"/>
+      <c r="V53" s="39"/>
+      <c r="W53" s="39"/>
+      <c r="X53" s="39"/>
+      <c r="Y53" s="39"/>
+      <c r="Z53" s="39"/>
+    </row>
+    <row r="54" ht="16.5" customHeight="1">
       <c r="A54" s="6"/>
-      <c r="B54" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D54" s="49" t="s">
-        <v>59</v>
-      </c>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
-      <c r="G54" s="50"/>
-      <c r="H54" s="50"/>
-      <c r="I54" s="50"/>
-      <c r="J54" s="50"/>
-      <c r="K54" s="50"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
       <c r="N54" s="6"/>
@@ -4265,257 +4387,271 @@
       <c r="Z54" s="6"/>
     </row>
     <row r="55" ht="16.5" customHeight="1">
-      <c r="A55" s="51"/>
-      <c r="B55" s="51"/>
-      <c r="C55" s="51"/>
-      <c r="D55" s="51"/>
-      <c r="E55" s="51"/>
-      <c r="F55" s="51"/>
-      <c r="G55" s="52"/>
-      <c r="H55" s="52"/>
-      <c r="I55" s="52"/>
-      <c r="J55" s="52"/>
-      <c r="K55" s="52"/>
-      <c r="L55" s="51"/>
-      <c r="M55" s="51"/>
-      <c r="N55" s="51"/>
-      <c r="O55" s="51"/>
-      <c r="P55" s="51"/>
-      <c r="Q55" s="51"/>
-      <c r="R55" s="51"/>
-      <c r="S55" s="51"/>
-      <c r="T55" s="51"/>
-      <c r="U55" s="51"/>
-      <c r="V55" s="51"/>
-      <c r="W55" s="51"/>
-      <c r="X55" s="51"/>
-      <c r="Y55" s="51"/>
-      <c r="Z55" s="51"/>
+      <c r="A55" s="6"/>
+      <c r="B55" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="6"/>
+      <c r="O55" s="6"/>
+      <c r="P55" s="6"/>
+      <c r="Q55" s="6"/>
+      <c r="R55" s="6"/>
+      <c r="S55" s="6"/>
+      <c r="T55" s="6"/>
+      <c r="U55" s="6"/>
+      <c r="V55" s="6"/>
+      <c r="W55" s="6"/>
+      <c r="X55" s="6"/>
+      <c r="Y55" s="6"/>
+      <c r="Z55" s="6"/>
     </row>
     <row r="56" ht="16.5" customHeight="1">
-      <c r="A56" s="51"/>
-      <c r="B56" s="53" t="s">
+      <c r="A56" s="6"/>
+      <c r="B56" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="C56" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D56" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="H56" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="I56" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="J56" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="K56" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="L56" s="6"/>
+      <c r="M56" s="6"/>
+      <c r="N56" s="6"/>
+      <c r="O56" s="6"/>
+      <c r="P56" s="6"/>
+      <c r="Q56" s="6"/>
+      <c r="R56" s="6"/>
+      <c r="S56" s="6"/>
+      <c r="T56" s="6"/>
+      <c r="U56" s="6"/>
+      <c r="V56" s="6"/>
+      <c r="W56" s="6"/>
+      <c r="X56" s="6"/>
+      <c r="Y56" s="6"/>
+      <c r="Z56" s="6"/>
+    </row>
+    <row r="57" ht="16.5" customHeight="1">
+      <c r="A57" s="6"/>
+      <c r="B57" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C56" s="52"/>
-      <c r="D56" s="52"/>
-      <c r="E56" s="51"/>
-      <c r="F56" s="51"/>
-      <c r="G56" s="52"/>
-      <c r="H56" s="52"/>
-      <c r="I56" s="52"/>
-      <c r="J56" s="52"/>
-      <c r="K56" s="52"/>
-      <c r="L56" s="51"/>
-      <c r="M56" s="51"/>
-      <c r="N56" s="51"/>
-      <c r="O56" s="51"/>
-      <c r="P56" s="51"/>
-      <c r="Q56" s="51"/>
-      <c r="R56" s="51"/>
-      <c r="S56" s="51"/>
-      <c r="T56" s="51"/>
-      <c r="U56" s="51"/>
-      <c r="V56" s="51"/>
-      <c r="W56" s="51"/>
-      <c r="X56" s="51"/>
-      <c r="Y56" s="51"/>
-      <c r="Z56" s="51"/>
-    </row>
-    <row r="57" ht="16.5" customHeight="1">
-      <c r="A57" s="54"/>
-      <c r="B57" s="55" t="s">
-        <v>52</v>
+      <c r="D57" s="13" t="s">
+        <v>83</v>
       </c>
-      <c r="C57" s="55" t="s">
-        <v>53</v>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="51"/>
+      <c r="H57" s="51"/>
+      <c r="I57" s="51"/>
+      <c r="J57" s="51"/>
+      <c r="K57" s="51"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6"/>
+      <c r="N57" s="6"/>
+      <c r="O57" s="6"/>
+      <c r="P57" s="6"/>
+      <c r="Q57" s="6"/>
+      <c r="R57" s="6"/>
+      <c r="S57" s="6"/>
+      <c r="T57" s="6"/>
+      <c r="U57" s="6"/>
+      <c r="V57" s="6"/>
+      <c r="W57" s="6"/>
+      <c r="X57" s="6"/>
+      <c r="Y57" s="6"/>
+      <c r="Z57" s="6"/>
+    </row>
+    <row r="58" ht="78.0" customHeight="1">
+      <c r="A58" s="6"/>
+      <c r="B58" s="62"/>
+      <c r="C58" s="63" t="s">
+        <v>84</v>
       </c>
-      <c r="D57" s="55" t="s">
-        <v>54</v>
+      <c r="D58" s="64" t="s">
+        <v>85</v>
       </c>
-      <c r="E57" s="51"/>
-      <c r="F57" s="54"/>
-      <c r="G57" s="55" t="s">
-        <v>55</v>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="49" t="s">
+        <v>86</v>
       </c>
-      <c r="H57" s="55" t="s">
-        <v>56</v>
+      <c r="H58" s="49" t="s">
+        <v>87</v>
       </c>
-      <c r="I57" s="55" t="s">
-        <v>23</v>
+      <c r="I58" s="49" t="s">
+        <v>88</v>
       </c>
-      <c r="J57" s="55" t="s">
-        <v>24</v>
+      <c r="J58" s="49" t="s">
+        <v>89</v>
       </c>
-      <c r="K57" s="55" t="s">
-        <v>54</v>
+      <c r="K58" s="65" t="s">
+        <v>90</v>
       </c>
-      <c r="L57" s="51"/>
-      <c r="M57" s="51"/>
-      <c r="N57" s="51"/>
-      <c r="O57" s="51"/>
-      <c r="P57" s="51"/>
-      <c r="Q57" s="51"/>
-      <c r="R57" s="51"/>
-      <c r="S57" s="51"/>
-      <c r="T57" s="51"/>
-      <c r="U57" s="51"/>
-      <c r="V57" s="51"/>
-      <c r="W57" s="51"/>
-      <c r="X57" s="51"/>
-      <c r="Y57" s="51"/>
-      <c r="Z57" s="51"/>
-    </row>
-    <row r="58" ht="16.5" customHeight="1">
-      <c r="A58" s="54"/>
-      <c r="B58" s="56" t="s">
-        <v>61</v>
+      <c r="L58" s="6"/>
+      <c r="M58" s="6"/>
+      <c r="N58" s="6"/>
+      <c r="O58" s="6"/>
+      <c r="P58" s="6"/>
+      <c r="Q58" s="6"/>
+      <c r="R58" s="6"/>
+      <c r="S58" s="6"/>
+      <c r="T58" s="6"/>
+      <c r="U58" s="6"/>
+      <c r="V58" s="6"/>
+      <c r="W58" s="6"/>
+      <c r="X58" s="6"/>
+      <c r="Y58" s="6"/>
+      <c r="Z58" s="6"/>
+    </row>
+    <row r="59" ht="59.25" customHeight="1">
+      <c r="A59" s="66"/>
+      <c r="B59" s="67" t="s">
+        <v>91</v>
       </c>
-      <c r="C58" s="56" t="s">
-        <v>62</v>
+      <c r="C59" s="15" t="s">
+        <v>84</v>
       </c>
-      <c r="D58" s="57" t="s">
-        <v>48</v>
+      <c r="D59" s="68" t="s">
+        <v>92</v>
       </c>
-      <c r="E58" s="51"/>
-      <c r="F58" s="54"/>
-      <c r="G58" s="58"/>
-      <c r="H58" s="58"/>
-      <c r="I58" s="58"/>
-      <c r="J58" s="58"/>
-      <c r="K58" s="58"/>
-      <c r="L58" s="51"/>
-      <c r="M58" s="51"/>
-      <c r="N58" s="51"/>
-      <c r="O58" s="51"/>
-      <c r="P58" s="51"/>
-      <c r="Q58" s="51"/>
-      <c r="R58" s="51"/>
-      <c r="S58" s="51"/>
-      <c r="T58" s="51"/>
-      <c r="U58" s="51"/>
-      <c r="V58" s="51"/>
-      <c r="W58" s="51"/>
-      <c r="X58" s="51"/>
-      <c r="Y58" s="51"/>
-      <c r="Z58" s="51"/>
-    </row>
-    <row r="59" ht="16.5" customHeight="1">
-      <c r="A59" s="54"/>
-      <c r="B59" s="59"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="51"/>
-      <c r="F59" s="54"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9"/>
-      <c r="J59" s="9"/>
-      <c r="K59" s="9"/>
-      <c r="L59" s="51"/>
-      <c r="M59" s="51"/>
-      <c r="N59" s="51"/>
-      <c r="O59" s="51"/>
-      <c r="P59" s="51"/>
-      <c r="Q59" s="51"/>
-      <c r="R59" s="51"/>
-      <c r="S59" s="51"/>
-      <c r="T59" s="51"/>
-      <c r="U59" s="51"/>
-      <c r="V59" s="51"/>
-      <c r="W59" s="51"/>
-      <c r="X59" s="51"/>
-      <c r="Y59" s="51"/>
-      <c r="Z59" s="51"/>
-    </row>
-    <row r="60" ht="16.5" customHeight="1">
-      <c r="A60" s="51"/>
-      <c r="B60" s="51"/>
-      <c r="C60" s="51"/>
-      <c r="D60" s="51"/>
-      <c r="E60" s="51"/>
-      <c r="F60" s="51"/>
-      <c r="G60" s="51"/>
-      <c r="H60" s="51"/>
-      <c r="I60" s="51"/>
-      <c r="J60" s="51"/>
-      <c r="K60" s="51"/>
-      <c r="L60" s="51"/>
-      <c r="M60" s="51"/>
-      <c r="N60" s="51"/>
-      <c r="O60" s="51"/>
-      <c r="P60" s="51"/>
-      <c r="Q60" s="51"/>
-      <c r="R60" s="51"/>
-      <c r="S60" s="51"/>
-      <c r="T60" s="51"/>
-      <c r="U60" s="51"/>
-      <c r="V60" s="51"/>
-      <c r="W60" s="51"/>
-      <c r="X60" s="51"/>
-      <c r="Y60" s="51"/>
-      <c r="Z60" s="51"/>
+      <c r="E59" s="52"/>
+      <c r="F59" s="66"/>
+      <c r="G59" s="69"/>
+      <c r="H59" s="69"/>
+      <c r="I59" s="69"/>
+      <c r="J59" s="69"/>
+      <c r="K59" s="69"/>
+      <c r="L59" s="52"/>
+      <c r="M59" s="52"/>
+      <c r="N59" s="52"/>
+      <c r="O59" s="52"/>
+      <c r="P59" s="52"/>
+      <c r="Q59" s="52"/>
+      <c r="R59" s="52"/>
+      <c r="S59" s="52"/>
+      <c r="T59" s="52"/>
+      <c r="U59" s="52"/>
+      <c r="V59" s="52"/>
+      <c r="W59" s="52"/>
+      <c r="X59" s="52"/>
+      <c r="Y59" s="52"/>
+      <c r="Z59" s="52"/>
+    </row>
+    <row r="60" ht="55.5" customHeight="1">
+      <c r="A60" s="66"/>
+      <c r="B60" s="70" t="s">
+        <v>93</v>
+      </c>
+      <c r="C60" s="71" t="s">
+        <v>84</v>
+      </c>
+      <c r="D60" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="E60" s="52"/>
+      <c r="F60" s="66"/>
+      <c r="G60" s="72"/>
+      <c r="H60" s="72"/>
+      <c r="I60" s="72"/>
+      <c r="J60" s="72"/>
+      <c r="K60" s="72"/>
+      <c r="L60" s="52"/>
+      <c r="M60" s="52"/>
+      <c r="N60" s="52"/>
+      <c r="O60" s="52"/>
+      <c r="P60" s="52"/>
+      <c r="Q60" s="52"/>
+      <c r="R60" s="52"/>
+      <c r="S60" s="52"/>
+      <c r="T60" s="52"/>
+      <c r="U60" s="52"/>
+      <c r="V60" s="52"/>
+      <c r="W60" s="52"/>
+      <c r="X60" s="52"/>
+      <c r="Y60" s="52"/>
+      <c r="Z60" s="52"/>
     </row>
     <row r="61" ht="16.5" customHeight="1">
-      <c r="A61" s="6"/>
-      <c r="B61" s="6" t="s">
-        <v>63</v>
+      <c r="A61" s="66"/>
+      <c r="B61" s="73" t="s">
+        <v>95</v>
       </c>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6" t="s">
-        <v>64</v>
+      <c r="C61" s="74" t="s">
+        <v>84</v>
       </c>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="6"/>
-      <c r="K61" s="6"/>
-      <c r="L61" s="6"/>
-      <c r="M61" s="6"/>
-      <c r="N61" s="6"/>
-      <c r="O61" s="6"/>
-      <c r="P61" s="6"/>
-      <c r="Q61" s="6"/>
-      <c r="R61" s="6"/>
-      <c r="S61" s="6"/>
-      <c r="T61" s="6"/>
-      <c r="U61" s="6"/>
-      <c r="V61" s="6"/>
-      <c r="W61" s="6"/>
-      <c r="X61" s="6"/>
-      <c r="Y61" s="6"/>
-      <c r="Z61" s="6"/>
+      <c r="D61" s="75" t="s">
+        <v>96</v>
+      </c>
+      <c r="E61" s="52"/>
+      <c r="F61" s="66"/>
+      <c r="G61" s="72"/>
+      <c r="H61" s="72"/>
+      <c r="I61" s="72"/>
+      <c r="J61" s="72"/>
+      <c r="K61" s="72"/>
+      <c r="L61" s="52"/>
+      <c r="M61" s="52"/>
+      <c r="N61" s="52"/>
+      <c r="O61" s="52"/>
+      <c r="P61" s="52"/>
+      <c r="Q61" s="52"/>
+      <c r="R61" s="52"/>
+      <c r="S61" s="52"/>
+      <c r="T61" s="52"/>
+      <c r="U61" s="52"/>
+      <c r="V61" s="52"/>
+      <c r="W61" s="52"/>
+      <c r="X61" s="52"/>
+      <c r="Y61" s="52"/>
+      <c r="Z61" s="52"/>
     </row>
     <row r="62" ht="16.5" customHeight="1">
       <c r="A62" s="6"/>
-      <c r="B62" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="C62" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="D62" s="32" t="s">
-        <v>54</v>
-      </c>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
-      <c r="G62" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="H62" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="I62" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="J62" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="K62" s="32" t="s">
-        <v>54</v>
-      </c>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="6"/>
       <c r="L62" s="6"/>
       <c r="M62" s="6"/>
       <c r="N62" s="6"/>
@@ -4534,22 +4670,16 @@
     </row>
     <row r="63" ht="16.5" customHeight="1">
       <c r="A63" s="6"/>
-      <c r="B63" s="60" t="s">
-        <v>65</v>
-      </c>
-      <c r="C63" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D63" s="13" t="s">
-        <v>66</v>
-      </c>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
-      <c r="G63" s="50"/>
-      <c r="H63" s="50"/>
-      <c r="I63" s="50"/>
-      <c r="J63" s="50"/>
-      <c r="K63" s="50"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
       <c r="L63" s="6"/>
       <c r="M63" s="6"/>
       <c r="N63" s="6"/>
@@ -4566,34 +4696,18 @@
       <c r="Y63" s="6"/>
       <c r="Z63" s="6"/>
     </row>
-    <row r="64" ht="39.75" customHeight="1">
+    <row r="64" ht="16.5" customHeight="1">
       <c r="A64" s="6"/>
-      <c r="B64" s="61" t="s">
-        <v>67</v>
-      </c>
-      <c r="C64" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D64" s="48" t="s">
-        <v>68</v>
-      </c>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
-      <c r="G64" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="H64" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="I64" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="J64" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="K64" s="48" t="s">
-        <v>71</v>
-      </c>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
       <c r="L64" s="6"/>
       <c r="M64" s="6"/>
       <c r="N64" s="6"/>
@@ -4612,22 +4726,16 @@
     </row>
     <row r="65" ht="16.5" customHeight="1">
       <c r="A65" s="6"/>
-      <c r="B65" s="62" t="s">
-        <v>72</v>
-      </c>
-      <c r="C65" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D65" s="13" t="s">
-        <v>66</v>
-      </c>
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
-      <c r="G65" s="50"/>
-      <c r="H65" s="50"/>
-      <c r="I65" s="50"/>
-      <c r="J65" s="50"/>
-      <c r="K65" s="50"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="6"/>
       <c r="L65" s="6"/>
       <c r="M65" s="6"/>
       <c r="N65" s="6"/>
@@ -4644,24 +4752,18 @@
       <c r="Y65" s="6"/>
       <c r="Z65" s="6"/>
     </row>
-    <row r="66" ht="84.75" customHeight="1">
+    <row r="66" ht="16.5" customHeight="1">
       <c r="A66" s="6"/>
-      <c r="B66" s="61" t="s">
-        <v>67</v>
-      </c>
-      <c r="C66" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D66" s="49" t="s">
-        <v>73</v>
-      </c>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
-      <c r="G66" s="50"/>
-      <c r="H66" s="50"/>
-      <c r="I66" s="50"/>
-      <c r="J66" s="50"/>
-      <c r="K66" s="50"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
       <c r="L66" s="6"/>
       <c r="M66" s="6"/>
       <c r="N66" s="6"/>
@@ -4679,82 +4781,60 @@
       <c r="Z66" s="6"/>
     </row>
     <row r="67" ht="16.5" customHeight="1">
-      <c r="A67" s="34"/>
-      <c r="B67" s="63" t="s">
-        <v>74</v>
-      </c>
-      <c r="C67" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="D67" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="E67" s="37"/>
-      <c r="F67" s="34"/>
-      <c r="G67" s="64"/>
-      <c r="H67" s="64"/>
-      <c r="I67" s="64"/>
-      <c r="J67" s="64"/>
-      <c r="K67" s="64"/>
-      <c r="L67" s="37"/>
-      <c r="M67" s="37"/>
-      <c r="N67" s="37"/>
-      <c r="O67" s="37"/>
-      <c r="P67" s="37"/>
-      <c r="Q67" s="37"/>
-      <c r="R67" s="37"/>
-      <c r="S67" s="37"/>
-      <c r="T67" s="37"/>
-      <c r="U67" s="37"/>
-      <c r="V67" s="37"/>
-      <c r="W67" s="37"/>
-      <c r="X67" s="37"/>
-      <c r="Y67" s="37"/>
-      <c r="Z67" s="37"/>
-    </row>
-    <row r="68" ht="96.75" customHeight="1">
-      <c r="A68" s="34"/>
-      <c r="B68" s="61" t="s">
-        <v>67</v>
-      </c>
-      <c r="C68" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="D68" s="65" t="s">
-        <v>75</v>
-      </c>
-      <c r="E68" s="37"/>
-      <c r="F68" s="34"/>
-      <c r="G68" s="66" t="s">
-        <v>76</v>
-      </c>
-      <c r="H68" s="67" t="s">
-        <v>77</v>
-      </c>
-      <c r="I68" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="J68" s="67" t="s">
-        <v>79</v>
-      </c>
-      <c r="K68" s="67" t="s">
-        <v>80</v>
-      </c>
-      <c r="L68" s="37"/>
-      <c r="M68" s="37"/>
-      <c r="N68" s="37"/>
-      <c r="O68" s="37"/>
-      <c r="P68" s="37"/>
-      <c r="Q68" s="37"/>
-      <c r="R68" s="37"/>
-      <c r="S68" s="37"/>
-      <c r="T68" s="37"/>
-      <c r="U68" s="37"/>
-      <c r="V68" s="37"/>
-      <c r="W68" s="37"/>
-      <c r="X68" s="37"/>
-      <c r="Y68" s="37"/>
-      <c r="Z68" s="37"/>
+      <c r="A67" s="6"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+      <c r="L67" s="6"/>
+      <c r="M67" s="6"/>
+      <c r="N67" s="6"/>
+      <c r="O67" s="6"/>
+      <c r="P67" s="6"/>
+      <c r="Q67" s="6"/>
+      <c r="R67" s="6"/>
+      <c r="S67" s="6"/>
+      <c r="T67" s="6"/>
+      <c r="U67" s="6"/>
+      <c r="V67" s="6"/>
+      <c r="W67" s="6"/>
+      <c r="X67" s="6"/>
+      <c r="Y67" s="6"/>
+      <c r="Z67" s="6"/>
+    </row>
+    <row r="68" ht="16.5" customHeight="1">
+      <c r="A68" s="6"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6"/>
+      <c r="L68" s="6"/>
+      <c r="M68" s="6"/>
+      <c r="N68" s="6"/>
+      <c r="O68" s="6"/>
+      <c r="P68" s="6"/>
+      <c r="Q68" s="6"/>
+      <c r="R68" s="6"/>
+      <c r="S68" s="6"/>
+      <c r="T68" s="6"/>
+      <c r="U68" s="6"/>
+      <c r="V68" s="6"/>
+      <c r="W68" s="6"/>
+      <c r="X68" s="6"/>
+      <c r="Y68" s="6"/>
+      <c r="Z68" s="6"/>
     </row>
     <row r="69" ht="16.5" customHeight="1">
       <c r="A69" s="6"/>
@@ -4764,162 +4844,122 @@
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
-      <c r="I69" s="6"/>
-      <c r="J69" s="6"/>
-      <c r="K69" s="6"/>
-      <c r="L69" s="6"/>
-      <c r="M69" s="6"/>
-      <c r="N69" s="6"/>
-      <c r="O69" s="6"/>
-      <c r="P69" s="6"/>
-      <c r="Q69" s="6"/>
-      <c r="R69" s="6"/>
-      <c r="S69" s="6"/>
-      <c r="T69" s="6"/>
-      <c r="U69" s="6"/>
-      <c r="V69" s="6"/>
-      <c r="W69" s="6"/>
-      <c r="X69" s="6"/>
-      <c r="Y69" s="6"/>
-      <c r="Z69" s="6"/>
+      <c r="H69" s="52"/>
+      <c r="I69" s="52"/>
+      <c r="J69" s="52"/>
+      <c r="K69" s="52"/>
+      <c r="L69" s="52"/>
+      <c r="M69" s="52"/>
+      <c r="N69" s="52"/>
+      <c r="O69" s="52"/>
+      <c r="P69" s="52"/>
+      <c r="Q69" s="52"/>
+      <c r="R69" s="52"/>
+      <c r="S69" s="52"/>
+      <c r="T69" s="52"/>
+      <c r="U69" s="52"/>
+      <c r="V69" s="52"/>
+      <c r="W69" s="52"/>
+      <c r="X69" s="52"/>
+      <c r="Y69" s="52"/>
+      <c r="Z69" s="52"/>
     </row>
     <row r="70" ht="16.5" customHeight="1">
       <c r="A70" s="6"/>
-      <c r="B70" s="6" t="s">
-        <v>81</v>
-      </c>
+      <c r="B70" s="6"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
-      <c r="G70" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="6"/>
-      <c r="K70" s="6"/>
-      <c r="L70" s="6"/>
-      <c r="M70" s="6"/>
-      <c r="N70" s="6"/>
-      <c r="O70" s="6"/>
-      <c r="P70" s="6"/>
-      <c r="Q70" s="6"/>
-      <c r="R70" s="6"/>
-      <c r="S70" s="6"/>
-      <c r="T70" s="6"/>
-      <c r="U70" s="6"/>
-      <c r="V70" s="6"/>
-      <c r="W70" s="6"/>
-      <c r="X70" s="6"/>
-      <c r="Y70" s="6"/>
-      <c r="Z70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="52"/>
+      <c r="I70" s="52"/>
+      <c r="J70" s="52"/>
+      <c r="K70" s="52"/>
+      <c r="L70" s="52"/>
+      <c r="M70" s="52"/>
+      <c r="N70" s="52"/>
+      <c r="O70" s="52"/>
+      <c r="P70" s="52"/>
+      <c r="Q70" s="52"/>
+      <c r="R70" s="52"/>
+      <c r="S70" s="52"/>
+      <c r="T70" s="52"/>
+      <c r="U70" s="52"/>
+      <c r="V70" s="52"/>
+      <c r="W70" s="52"/>
+      <c r="X70" s="52"/>
+      <c r="Y70" s="52"/>
+      <c r="Z70" s="52"/>
     </row>
     <row r="71" ht="16.5" customHeight="1">
       <c r="A71" s="6"/>
-      <c r="B71" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="C71" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="D71" s="32" t="s">
-        <v>54</v>
-      </c>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
-      <c r="G71" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="H71" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="I71" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="J71" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="K71" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="L71" s="6"/>
-      <c r="M71" s="6"/>
-      <c r="N71" s="6"/>
-      <c r="O71" s="6"/>
-      <c r="P71" s="6"/>
-      <c r="Q71" s="6"/>
-      <c r="R71" s="6"/>
-      <c r="S71" s="6"/>
-      <c r="T71" s="6"/>
-      <c r="U71" s="6"/>
-      <c r="V71" s="6"/>
-      <c r="W71" s="6"/>
-      <c r="X71" s="6"/>
-      <c r="Y71" s="6"/>
-      <c r="Z71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="52"/>
+      <c r="I71" s="52"/>
+      <c r="J71" s="52"/>
+      <c r="K71" s="52"/>
+      <c r="L71" s="52"/>
+      <c r="M71" s="52"/>
+      <c r="N71" s="52"/>
+      <c r="O71" s="52"/>
+      <c r="P71" s="52"/>
+      <c r="Q71" s="52"/>
+      <c r="R71" s="52"/>
+      <c r="S71" s="52"/>
+      <c r="T71" s="52"/>
+      <c r="U71" s="52"/>
+      <c r="V71" s="52"/>
+      <c r="W71" s="52"/>
+      <c r="X71" s="52"/>
+      <c r="Y71" s="52"/>
+      <c r="Z71" s="52"/>
     </row>
     <row r="72" ht="16.5" customHeight="1">
       <c r="A72" s="6"/>
-      <c r="B72" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="C72" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D72" s="13" t="s">
-        <v>84</v>
-      </c>
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
-      <c r="G72" s="50"/>
-      <c r="H72" s="50"/>
-      <c r="I72" s="50"/>
-      <c r="J72" s="50"/>
-      <c r="K72" s="50"/>
-      <c r="L72" s="6"/>
-      <c r="M72" s="6"/>
-      <c r="N72" s="6"/>
-      <c r="O72" s="6"/>
-      <c r="P72" s="6"/>
-      <c r="Q72" s="6"/>
-      <c r="R72" s="6"/>
-      <c r="S72" s="6"/>
-      <c r="T72" s="6"/>
-      <c r="U72" s="6"/>
-      <c r="V72" s="6"/>
-      <c r="W72" s="6"/>
-      <c r="X72" s="6"/>
-      <c r="Y72" s="6"/>
-      <c r="Z72" s="6"/>
-    </row>
-    <row r="73" ht="78.0" customHeight="1">
+      <c r="G72" s="6"/>
+      <c r="H72" s="52"/>
+      <c r="I72" s="52"/>
+      <c r="J72" s="52"/>
+      <c r="K72" s="52"/>
+      <c r="L72" s="52"/>
+      <c r="M72" s="52"/>
+      <c r="N72" s="52"/>
+      <c r="O72" s="52"/>
+      <c r="P72" s="52"/>
+      <c r="Q72" s="52"/>
+      <c r="R72" s="52"/>
+      <c r="S72" s="52"/>
+      <c r="T72" s="52"/>
+      <c r="U72" s="52"/>
+      <c r="V72" s="52"/>
+      <c r="W72" s="52"/>
+      <c r="X72" s="52"/>
+      <c r="Y72" s="52"/>
+      <c r="Z72" s="52"/>
+    </row>
+    <row r="73" ht="16.5" customHeight="1">
       <c r="A73" s="6"/>
-      <c r="B73" s="68"/>
-      <c r="C73" s="69" t="s">
-        <v>62</v>
-      </c>
-      <c r="D73" s="70" t="s">
-        <v>85</v>
-      </c>
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
-      <c r="G73" s="48" t="s">
-        <v>86</v>
-      </c>
-      <c r="H73" s="48" t="s">
-        <v>87</v>
-      </c>
-      <c r="I73" s="48" t="s">
-        <v>88</v>
-      </c>
-      <c r="J73" s="48" t="s">
-        <v>89</v>
-      </c>
-      <c r="K73" s="71" t="s">
-        <v>90</v>
-      </c>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="6"/>
       <c r="L73" s="6"/>
       <c r="M73" s="6"/>
       <c r="N73" s="6"/>
@@ -4936,107 +4976,89 @@
       <c r="Y73" s="6"/>
       <c r="Z73" s="6"/>
     </row>
-    <row r="74" ht="59.25" customHeight="1">
-      <c r="A74" s="54"/>
-      <c r="B74" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="C74" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D74" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="E74" s="51"/>
-      <c r="F74" s="54"/>
-      <c r="G74" s="73"/>
-      <c r="H74" s="73"/>
-      <c r="I74" s="73"/>
-      <c r="J74" s="73"/>
-      <c r="K74" s="73"/>
-      <c r="L74" s="51"/>
-      <c r="M74" s="51"/>
-      <c r="N74" s="51"/>
-      <c r="O74" s="51"/>
-      <c r="P74" s="51"/>
-      <c r="Q74" s="51"/>
-      <c r="R74" s="51"/>
-      <c r="S74" s="51"/>
-      <c r="T74" s="51"/>
-      <c r="U74" s="51"/>
-      <c r="V74" s="51"/>
-      <c r="W74" s="51"/>
-      <c r="X74" s="51"/>
-      <c r="Y74" s="51"/>
-      <c r="Z74" s="51"/>
-    </row>
-    <row r="75" ht="55.5" customHeight="1">
-      <c r="A75" s="54"/>
-      <c r="B75" s="74" t="s">
-        <v>93</v>
-      </c>
-      <c r="C75" s="75" t="s">
-        <v>62</v>
-      </c>
-      <c r="D75" s="74" t="s">
-        <v>94</v>
-      </c>
-      <c r="E75" s="51"/>
-      <c r="F75" s="54"/>
-      <c r="G75" s="76"/>
-      <c r="H75" s="76"/>
-      <c r="I75" s="76"/>
-      <c r="J75" s="76"/>
-      <c r="K75" s="76"/>
-      <c r="L75" s="51"/>
-      <c r="M75" s="51"/>
-      <c r="N75" s="51"/>
-      <c r="O75" s="51"/>
-      <c r="P75" s="51"/>
-      <c r="Q75" s="51"/>
-      <c r="R75" s="51"/>
-      <c r="S75" s="51"/>
-      <c r="T75" s="51"/>
-      <c r="U75" s="51"/>
-      <c r="V75" s="51"/>
-      <c r="W75" s="51"/>
-      <c r="X75" s="51"/>
-      <c r="Y75" s="51"/>
-      <c r="Z75" s="51"/>
+    <row r="74" ht="16.5" customHeight="1">
+      <c r="A74" s="6"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="6"/>
+      <c r="K74" s="6"/>
+      <c r="L74" s="6"/>
+      <c r="M74" s="6"/>
+      <c r="N74" s="6"/>
+      <c r="O74" s="6"/>
+      <c r="P74" s="6"/>
+      <c r="Q74" s="6"/>
+      <c r="R74" s="6"/>
+      <c r="S74" s="6"/>
+      <c r="T74" s="6"/>
+      <c r="U74" s="6"/>
+      <c r="V74" s="6"/>
+      <c r="W74" s="6"/>
+      <c r="X74" s="6"/>
+      <c r="Y74" s="6"/>
+      <c r="Z74" s="6"/>
+    </row>
+    <row r="75" ht="16.5" customHeight="1">
+      <c r="A75" s="6"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="6"/>
+      <c r="L75" s="6"/>
+      <c r="M75" s="6"/>
+      <c r="N75" s="6"/>
+      <c r="O75" s="6"/>
+      <c r="P75" s="6"/>
+      <c r="Q75" s="6"/>
+      <c r="R75" s="6"/>
+      <c r="S75" s="6"/>
+      <c r="T75" s="6"/>
+      <c r="U75" s="6"/>
+      <c r="V75" s="6"/>
+      <c r="W75" s="6"/>
+      <c r="X75" s="6"/>
+      <c r="Y75" s="6"/>
+      <c r="Z75" s="6"/>
     </row>
     <row r="76" ht="16.5" customHeight="1">
-      <c r="A76" s="54"/>
-      <c r="B76" s="77" t="s">
-        <v>95</v>
-      </c>
-      <c r="C76" s="78" t="s">
-        <v>62</v>
-      </c>
-      <c r="D76" s="77" t="s">
-        <v>96</v>
-      </c>
-      <c r="E76" s="51"/>
-      <c r="F76" s="54"/>
-      <c r="G76" s="76"/>
-      <c r="H76" s="76"/>
-      <c r="I76" s="76"/>
-      <c r="J76" s="76"/>
-      <c r="K76" s="76"/>
-      <c r="L76" s="51"/>
-      <c r="M76" s="51"/>
-      <c r="N76" s="51"/>
-      <c r="O76" s="51"/>
-      <c r="P76" s="51"/>
-      <c r="Q76" s="51"/>
-      <c r="R76" s="51"/>
-      <c r="S76" s="51"/>
-      <c r="T76" s="51"/>
-      <c r="U76" s="51"/>
-      <c r="V76" s="51"/>
-      <c r="W76" s="51"/>
-      <c r="X76" s="51"/>
-      <c r="Y76" s="51"/>
-      <c r="Z76" s="51"/>
+      <c r="A76" s="6"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="6"/>
+      <c r="M76" s="6"/>
+      <c r="N76" s="6"/>
+      <c r="O76" s="6"/>
+      <c r="P76" s="6"/>
+      <c r="Q76" s="6"/>
+      <c r="R76" s="6"/>
+      <c r="S76" s="6"/>
+      <c r="T76" s="6"/>
+      <c r="U76" s="6"/>
+      <c r="V76" s="6"/>
+      <c r="W76" s="6"/>
+      <c r="X76" s="6"/>
+      <c r="Y76" s="6"/>
+      <c r="Z76" s="6"/>
     </row>
     <row r="77" ht="16.5" customHeight="1">
       <c r="A77" s="6"/>
@@ -5242,25 +5264,25 @@
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
-      <c r="H84" s="51"/>
-      <c r="I84" s="51"/>
-      <c r="J84" s="51"/>
-      <c r="K84" s="51"/>
-      <c r="L84" s="51"/>
-      <c r="M84" s="51"/>
-      <c r="N84" s="51"/>
-      <c r="O84" s="51"/>
-      <c r="P84" s="51"/>
-      <c r="Q84" s="51"/>
-      <c r="R84" s="51"/>
-      <c r="S84" s="51"/>
-      <c r="T84" s="51"/>
-      <c r="U84" s="51"/>
-      <c r="V84" s="51"/>
-      <c r="W84" s="51"/>
-      <c r="X84" s="51"/>
-      <c r="Y84" s="51"/>
-      <c r="Z84" s="51"/>
+      <c r="H84" s="6"/>
+      <c r="I84" s="6"/>
+      <c r="J84" s="6"/>
+      <c r="K84" s="6"/>
+      <c r="L84" s="6"/>
+      <c r="M84" s="6"/>
+      <c r="N84" s="6"/>
+      <c r="O84" s="6"/>
+      <c r="P84" s="6"/>
+      <c r="Q84" s="6"/>
+      <c r="R84" s="6"/>
+      <c r="S84" s="6"/>
+      <c r="T84" s="6"/>
+      <c r="U84" s="6"/>
+      <c r="V84" s="6"/>
+      <c r="W84" s="6"/>
+      <c r="X84" s="6"/>
+      <c r="Y84" s="6"/>
+      <c r="Z84" s="6"/>
     </row>
     <row r="85" ht="16.5" customHeight="1">
       <c r="A85" s="6"/>
@@ -5270,25 +5292,25 @@
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
-      <c r="H85" s="51"/>
-      <c r="I85" s="51"/>
-      <c r="J85" s="51"/>
-      <c r="K85" s="51"/>
-      <c r="L85" s="51"/>
-      <c r="M85" s="51"/>
-      <c r="N85" s="51"/>
-      <c r="O85" s="51"/>
-      <c r="P85" s="51"/>
-      <c r="Q85" s="51"/>
-      <c r="R85" s="51"/>
-      <c r="S85" s="51"/>
-      <c r="T85" s="51"/>
-      <c r="U85" s="51"/>
-      <c r="V85" s="51"/>
-      <c r="W85" s="51"/>
-      <c r="X85" s="51"/>
-      <c r="Y85" s="51"/>
-      <c r="Z85" s="51"/>
+      <c r="H85" s="6"/>
+      <c r="I85" s="6"/>
+      <c r="J85" s="6"/>
+      <c r="K85" s="6"/>
+      <c r="L85" s="6"/>
+      <c r="M85" s="6"/>
+      <c r="N85" s="6"/>
+      <c r="O85" s="6"/>
+      <c r="P85" s="6"/>
+      <c r="Q85" s="6"/>
+      <c r="R85" s="6"/>
+      <c r="S85" s="6"/>
+      <c r="T85" s="6"/>
+      <c r="U85" s="6"/>
+      <c r="V85" s="6"/>
+      <c r="W85" s="6"/>
+      <c r="X85" s="6"/>
+      <c r="Y85" s="6"/>
+      <c r="Z85" s="6"/>
     </row>
     <row r="86" ht="16.5" customHeight="1">
       <c r="A86" s="6"/>
@@ -5298,25 +5320,25 @@
       <c r="E86" s="6"/>
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
-      <c r="H86" s="51"/>
-      <c r="I86" s="51"/>
-      <c r="J86" s="51"/>
-      <c r="K86" s="51"/>
-      <c r="L86" s="51"/>
-      <c r="M86" s="51"/>
-      <c r="N86" s="51"/>
-      <c r="O86" s="51"/>
-      <c r="P86" s="51"/>
-      <c r="Q86" s="51"/>
-      <c r="R86" s="51"/>
-      <c r="S86" s="51"/>
-      <c r="T86" s="51"/>
-      <c r="U86" s="51"/>
-      <c r="V86" s="51"/>
-      <c r="W86" s="51"/>
-      <c r="X86" s="51"/>
-      <c r="Y86" s="51"/>
-      <c r="Z86" s="51"/>
+      <c r="H86" s="6"/>
+      <c r="I86" s="6"/>
+      <c r="J86" s="6"/>
+      <c r="K86" s="6"/>
+      <c r="L86" s="6"/>
+      <c r="M86" s="6"/>
+      <c r="N86" s="6"/>
+      <c r="O86" s="6"/>
+      <c r="P86" s="6"/>
+      <c r="Q86" s="6"/>
+      <c r="R86" s="6"/>
+      <c r="S86" s="6"/>
+      <c r="T86" s="6"/>
+      <c r="U86" s="6"/>
+      <c r="V86" s="6"/>
+      <c r="W86" s="6"/>
+      <c r="X86" s="6"/>
+      <c r="Y86" s="6"/>
+      <c r="Z86" s="6"/>
     </row>
     <row r="87" ht="16.5" customHeight="1">
       <c r="A87" s="6"/>
@@ -5326,25 +5348,25 @@
       <c r="E87" s="6"/>
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
-      <c r="H87" s="51"/>
-      <c r="I87" s="51"/>
-      <c r="J87" s="51"/>
-      <c r="K87" s="51"/>
-      <c r="L87" s="51"/>
-      <c r="M87" s="51"/>
-      <c r="N87" s="51"/>
-      <c r="O87" s="51"/>
-      <c r="P87" s="51"/>
-      <c r="Q87" s="51"/>
-      <c r="R87" s="51"/>
-      <c r="S87" s="51"/>
-      <c r="T87" s="51"/>
-      <c r="U87" s="51"/>
-      <c r="V87" s="51"/>
-      <c r="W87" s="51"/>
-      <c r="X87" s="51"/>
-      <c r="Y87" s="51"/>
-      <c r="Z87" s="51"/>
+      <c r="H87" s="6"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="6"/>
+      <c r="K87" s="6"/>
+      <c r="L87" s="6"/>
+      <c r="M87" s="6"/>
+      <c r="N87" s="6"/>
+      <c r="O87" s="6"/>
+      <c r="P87" s="6"/>
+      <c r="Q87" s="6"/>
+      <c r="R87" s="6"/>
+      <c r="S87" s="6"/>
+      <c r="T87" s="6"/>
+      <c r="U87" s="6"/>
+      <c r="V87" s="6"/>
+      <c r="W87" s="6"/>
+      <c r="X87" s="6"/>
+      <c r="Y87" s="6"/>
+      <c r="Z87" s="6"/>
     </row>
     <row r="88" ht="16.5" customHeight="1">
       <c r="A88" s="6"/>
@@ -30350,447 +30372,20 @@
       <c r="Y980" s="6"/>
       <c r="Z980" s="6"/>
     </row>
-    <row r="981" ht="16.5" customHeight="1">
-      <c r="A981" s="6"/>
-      <c r="B981" s="6"/>
-      <c r="C981" s="6"/>
-      <c r="D981" s="6"/>
-      <c r="E981" s="6"/>
-      <c r="F981" s="6"/>
-      <c r="G981" s="6"/>
-      <c r="H981" s="6"/>
-      <c r="I981" s="6"/>
-      <c r="J981" s="6"/>
-      <c r="K981" s="6"/>
-      <c r="L981" s="6"/>
-      <c r="M981" s="6"/>
-      <c r="N981" s="6"/>
-      <c r="O981" s="6"/>
-      <c r="P981" s="6"/>
-      <c r="Q981" s="6"/>
-      <c r="R981" s="6"/>
-      <c r="S981" s="6"/>
-      <c r="T981" s="6"/>
-      <c r="U981" s="6"/>
-      <c r="V981" s="6"/>
-      <c r="W981" s="6"/>
-      <c r="X981" s="6"/>
-      <c r="Y981" s="6"/>
-      <c r="Z981" s="6"/>
-    </row>
-    <row r="982" ht="16.5" customHeight="1">
-      <c r="A982" s="6"/>
-      <c r="B982" s="6"/>
-      <c r="C982" s="6"/>
-      <c r="D982" s="6"/>
-      <c r="E982" s="6"/>
-      <c r="F982" s="6"/>
-      <c r="G982" s="6"/>
-      <c r="H982" s="6"/>
-      <c r="I982" s="6"/>
-      <c r="J982" s="6"/>
-      <c r="K982" s="6"/>
-      <c r="L982" s="6"/>
-      <c r="M982" s="6"/>
-      <c r="N982" s="6"/>
-      <c r="O982" s="6"/>
-      <c r="P982" s="6"/>
-      <c r="Q982" s="6"/>
-      <c r="R982" s="6"/>
-      <c r="S982" s="6"/>
-      <c r="T982" s="6"/>
-      <c r="U982" s="6"/>
-      <c r="V982" s="6"/>
-      <c r="W982" s="6"/>
-      <c r="X982" s="6"/>
-      <c r="Y982" s="6"/>
-      <c r="Z982" s="6"/>
-    </row>
-    <row r="983" ht="16.5" customHeight="1">
-      <c r="A983" s="6"/>
-      <c r="B983" s="6"/>
-      <c r="C983" s="6"/>
-      <c r="D983" s="6"/>
-      <c r="E983" s="6"/>
-      <c r="F983" s="6"/>
-      <c r="G983" s="6"/>
-      <c r="H983" s="6"/>
-      <c r="I983" s="6"/>
-      <c r="J983" s="6"/>
-      <c r="K983" s="6"/>
-      <c r="L983" s="6"/>
-      <c r="M983" s="6"/>
-      <c r="N983" s="6"/>
-      <c r="O983" s="6"/>
-      <c r="P983" s="6"/>
-      <c r="Q983" s="6"/>
-      <c r="R983" s="6"/>
-      <c r="S983" s="6"/>
-      <c r="T983" s="6"/>
-      <c r="U983" s="6"/>
-      <c r="V983" s="6"/>
-      <c r="W983" s="6"/>
-      <c r="X983" s="6"/>
-      <c r="Y983" s="6"/>
-      <c r="Z983" s="6"/>
-    </row>
-    <row r="984" ht="16.5" customHeight="1">
-      <c r="A984" s="6"/>
-      <c r="B984" s="6"/>
-      <c r="C984" s="6"/>
-      <c r="D984" s="6"/>
-      <c r="E984" s="6"/>
-      <c r="F984" s="6"/>
-      <c r="G984" s="6"/>
-      <c r="H984" s="6"/>
-      <c r="I984" s="6"/>
-      <c r="J984" s="6"/>
-      <c r="K984" s="6"/>
-      <c r="L984" s="6"/>
-      <c r="M984" s="6"/>
-      <c r="N984" s="6"/>
-      <c r="O984" s="6"/>
-      <c r="P984" s="6"/>
-      <c r="Q984" s="6"/>
-      <c r="R984" s="6"/>
-      <c r="S984" s="6"/>
-      <c r="T984" s="6"/>
-      <c r="U984" s="6"/>
-      <c r="V984" s="6"/>
-      <c r="W984" s="6"/>
-      <c r="X984" s="6"/>
-      <c r="Y984" s="6"/>
-      <c r="Z984" s="6"/>
-    </row>
-    <row r="985" ht="16.5" customHeight="1">
-      <c r="A985" s="6"/>
-      <c r="B985" s="6"/>
-      <c r="C985" s="6"/>
-      <c r="D985" s="6"/>
-      <c r="E985" s="6"/>
-      <c r="F985" s="6"/>
-      <c r="G985" s="6"/>
-      <c r="H985" s="6"/>
-      <c r="I985" s="6"/>
-      <c r="J985" s="6"/>
-      <c r="K985" s="6"/>
-      <c r="L985" s="6"/>
-      <c r="M985" s="6"/>
-      <c r="N985" s="6"/>
-      <c r="O985" s="6"/>
-      <c r="P985" s="6"/>
-      <c r="Q985" s="6"/>
-      <c r="R985" s="6"/>
-      <c r="S985" s="6"/>
-      <c r="T985" s="6"/>
-      <c r="U985" s="6"/>
-      <c r="V985" s="6"/>
-      <c r="W985" s="6"/>
-      <c r="X985" s="6"/>
-      <c r="Y985" s="6"/>
-      <c r="Z985" s="6"/>
-    </row>
-    <row r="986" ht="16.5" customHeight="1">
-      <c r="A986" s="6"/>
-      <c r="B986" s="6"/>
-      <c r="C986" s="6"/>
-      <c r="D986" s="6"/>
-      <c r="E986" s="6"/>
-      <c r="F986" s="6"/>
-      <c r="G986" s="6"/>
-      <c r="H986" s="6"/>
-      <c r="I986" s="6"/>
-      <c r="J986" s="6"/>
-      <c r="K986" s="6"/>
-      <c r="L986" s="6"/>
-      <c r="M986" s="6"/>
-      <c r="N986" s="6"/>
-      <c r="O986" s="6"/>
-      <c r="P986" s="6"/>
-      <c r="Q986" s="6"/>
-      <c r="R986" s="6"/>
-      <c r="S986" s="6"/>
-      <c r="T986" s="6"/>
-      <c r="U986" s="6"/>
-      <c r="V986" s="6"/>
-      <c r="W986" s="6"/>
-      <c r="X986" s="6"/>
-      <c r="Y986" s="6"/>
-      <c r="Z986" s="6"/>
-    </row>
-    <row r="987" ht="16.5" customHeight="1">
-      <c r="A987" s="6"/>
-      <c r="B987" s="6"/>
-      <c r="C987" s="6"/>
-      <c r="D987" s="6"/>
-      <c r="E987" s="6"/>
-      <c r="F987" s="6"/>
-      <c r="G987" s="6"/>
-      <c r="H987" s="6"/>
-      <c r="I987" s="6"/>
-      <c r="J987" s="6"/>
-      <c r="K987" s="6"/>
-      <c r="L987" s="6"/>
-      <c r="M987" s="6"/>
-      <c r="N987" s="6"/>
-      <c r="O987" s="6"/>
-      <c r="P987" s="6"/>
-      <c r="Q987" s="6"/>
-      <c r="R987" s="6"/>
-      <c r="S987" s="6"/>
-      <c r="T987" s="6"/>
-      <c r="U987" s="6"/>
-      <c r="V987" s="6"/>
-      <c r="W987" s="6"/>
-      <c r="X987" s="6"/>
-      <c r="Y987" s="6"/>
-      <c r="Z987" s="6"/>
-    </row>
-    <row r="988" ht="16.5" customHeight="1">
-      <c r="A988" s="6"/>
-      <c r="B988" s="6"/>
-      <c r="C988" s="6"/>
-      <c r="D988" s="6"/>
-      <c r="E988" s="6"/>
-      <c r="F988" s="6"/>
-      <c r="G988" s="6"/>
-      <c r="H988" s="6"/>
-      <c r="I988" s="6"/>
-      <c r="J988" s="6"/>
-      <c r="K988" s="6"/>
-      <c r="L988" s="6"/>
-      <c r="M988" s="6"/>
-      <c r="N988" s="6"/>
-      <c r="O988" s="6"/>
-      <c r="P988" s="6"/>
-      <c r="Q988" s="6"/>
-      <c r="R988" s="6"/>
-      <c r="S988" s="6"/>
-      <c r="T988" s="6"/>
-      <c r="U988" s="6"/>
-      <c r="V988" s="6"/>
-      <c r="W988" s="6"/>
-      <c r="X988" s="6"/>
-      <c r="Y988" s="6"/>
-      <c r="Z988" s="6"/>
-    </row>
-    <row r="989" ht="16.5" customHeight="1">
-      <c r="A989" s="6"/>
-      <c r="B989" s="6"/>
-      <c r="C989" s="6"/>
-      <c r="D989" s="6"/>
-      <c r="E989" s="6"/>
-      <c r="F989" s="6"/>
-      <c r="G989" s="6"/>
-      <c r="H989" s="6"/>
-      <c r="I989" s="6"/>
-      <c r="J989" s="6"/>
-      <c r="K989" s="6"/>
-      <c r="L989" s="6"/>
-      <c r="M989" s="6"/>
-      <c r="N989" s="6"/>
-      <c r="O989" s="6"/>
-      <c r="P989" s="6"/>
-      <c r="Q989" s="6"/>
-      <c r="R989" s="6"/>
-      <c r="S989" s="6"/>
-      <c r="T989" s="6"/>
-      <c r="U989" s="6"/>
-      <c r="V989" s="6"/>
-      <c r="W989" s="6"/>
-      <c r="X989" s="6"/>
-      <c r="Y989" s="6"/>
-      <c r="Z989" s="6"/>
-    </row>
-    <row r="990" ht="16.5" customHeight="1">
-      <c r="A990" s="6"/>
-      <c r="B990" s="6"/>
-      <c r="C990" s="6"/>
-      <c r="D990" s="6"/>
-      <c r="E990" s="6"/>
-      <c r="F990" s="6"/>
-      <c r="G990" s="6"/>
-      <c r="H990" s="6"/>
-      <c r="I990" s="6"/>
-      <c r="J990" s="6"/>
-      <c r="K990" s="6"/>
-      <c r="L990" s="6"/>
-      <c r="M990" s="6"/>
-      <c r="N990" s="6"/>
-      <c r="O990" s="6"/>
-      <c r="P990" s="6"/>
-      <c r="Q990" s="6"/>
-      <c r="R990" s="6"/>
-      <c r="S990" s="6"/>
-      <c r="T990" s="6"/>
-      <c r="U990" s="6"/>
-      <c r="V990" s="6"/>
-      <c r="W990" s="6"/>
-      <c r="X990" s="6"/>
-      <c r="Y990" s="6"/>
-      <c r="Z990" s="6"/>
-    </row>
-    <row r="991" ht="16.5" customHeight="1">
-      <c r="A991" s="6"/>
-      <c r="B991" s="6"/>
-      <c r="C991" s="6"/>
-      <c r="D991" s="6"/>
-      <c r="E991" s="6"/>
-      <c r="F991" s="6"/>
-      <c r="G991" s="6"/>
-      <c r="H991" s="6"/>
-      <c r="I991" s="6"/>
-      <c r="J991" s="6"/>
-      <c r="K991" s="6"/>
-      <c r="L991" s="6"/>
-      <c r="M991" s="6"/>
-      <c r="N991" s="6"/>
-      <c r="O991" s="6"/>
-      <c r="P991" s="6"/>
-      <c r="Q991" s="6"/>
-      <c r="R991" s="6"/>
-      <c r="S991" s="6"/>
-      <c r="T991" s="6"/>
-      <c r="U991" s="6"/>
-      <c r="V991" s="6"/>
-      <c r="W991" s="6"/>
-      <c r="X991" s="6"/>
-      <c r="Y991" s="6"/>
-      <c r="Z991" s="6"/>
-    </row>
-    <row r="992" ht="16.5" customHeight="1">
-      <c r="A992" s="6"/>
-      <c r="B992" s="6"/>
-      <c r="C992" s="6"/>
-      <c r="D992" s="6"/>
-      <c r="E992" s="6"/>
-      <c r="F992" s="6"/>
-      <c r="G992" s="6"/>
-      <c r="H992" s="6"/>
-      <c r="I992" s="6"/>
-      <c r="J992" s="6"/>
-      <c r="K992" s="6"/>
-      <c r="L992" s="6"/>
-      <c r="M992" s="6"/>
-      <c r="N992" s="6"/>
-      <c r="O992" s="6"/>
-      <c r="P992" s="6"/>
-      <c r="Q992" s="6"/>
-      <c r="R992" s="6"/>
-      <c r="S992" s="6"/>
-      <c r="T992" s="6"/>
-      <c r="U992" s="6"/>
-      <c r="V992" s="6"/>
-      <c r="W992" s="6"/>
-      <c r="X992" s="6"/>
-      <c r="Y992" s="6"/>
-      <c r="Z992" s="6"/>
-    </row>
-    <row r="993" ht="16.5" customHeight="1">
-      <c r="A993" s="6"/>
-      <c r="B993" s="6"/>
-      <c r="C993" s="6"/>
-      <c r="D993" s="6"/>
-      <c r="E993" s="6"/>
-      <c r="F993" s="6"/>
-      <c r="G993" s="6"/>
-      <c r="H993" s="6"/>
-      <c r="I993" s="6"/>
-      <c r="J993" s="6"/>
-      <c r="K993" s="6"/>
-      <c r="L993" s="6"/>
-      <c r="M993" s="6"/>
-      <c r="N993" s="6"/>
-      <c r="O993" s="6"/>
-      <c r="P993" s="6"/>
-      <c r="Q993" s="6"/>
-      <c r="R993" s="6"/>
-      <c r="S993" s="6"/>
-      <c r="T993" s="6"/>
-      <c r="U993" s="6"/>
-      <c r="V993" s="6"/>
-      <c r="W993" s="6"/>
-      <c r="X993" s="6"/>
-      <c r="Y993" s="6"/>
-      <c r="Z993" s="6"/>
-    </row>
-    <row r="994" ht="16.5" customHeight="1">
-      <c r="A994" s="6"/>
-      <c r="B994" s="6"/>
-      <c r="C994" s="6"/>
-      <c r="D994" s="6"/>
-      <c r="E994" s="6"/>
-      <c r="F994" s="6"/>
-      <c r="G994" s="6"/>
-      <c r="H994" s="6"/>
-      <c r="I994" s="6"/>
-      <c r="J994" s="6"/>
-      <c r="K994" s="6"/>
-      <c r="L994" s="6"/>
-      <c r="M994" s="6"/>
-      <c r="N994" s="6"/>
-      <c r="O994" s="6"/>
-      <c r="P994" s="6"/>
-      <c r="Q994" s="6"/>
-      <c r="R994" s="6"/>
-      <c r="S994" s="6"/>
-      <c r="T994" s="6"/>
-      <c r="U994" s="6"/>
-      <c r="V994" s="6"/>
-      <c r="W994" s="6"/>
-      <c r="X994" s="6"/>
-      <c r="Y994" s="6"/>
-      <c r="Z994" s="6"/>
-    </row>
-    <row r="995" ht="16.5" customHeight="1">
-      <c r="A995" s="6"/>
-      <c r="B995" s="6"/>
-      <c r="C995" s="6"/>
-      <c r="D995" s="6"/>
-      <c r="E995" s="6"/>
-      <c r="F995" s="6"/>
-      <c r="G995" s="6"/>
-      <c r="H995" s="6"/>
-      <c r="I995" s="6"/>
-      <c r="J995" s="6"/>
-      <c r="K995" s="6"/>
-      <c r="L995" s="6"/>
-      <c r="M995" s="6"/>
-      <c r="N995" s="6"/>
-      <c r="O995" s="6"/>
-      <c r="P995" s="6"/>
-      <c r="Q995" s="6"/>
-      <c r="R995" s="6"/>
-      <c r="S995" s="6"/>
-      <c r="T995" s="6"/>
-      <c r="U995" s="6"/>
-      <c r="V995" s="6"/>
-      <c r="W995" s="6"/>
-      <c r="X995" s="6"/>
-      <c r="Y995" s="6"/>
-      <c r="Z995" s="6"/>
-    </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="12">
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="E2:I2"/>
-    <mergeCell ref="B30:H33"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="J58:J59"/>
-    <mergeCell ref="K58:K59"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="B22:H24"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="B57:B58"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -30866,10 +30461,10 @@
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
       <c r="C2" s="9"/>
-      <c r="D2" s="79" t="s">
+      <c r="D2" s="76" t="s">
         <v>97</v>
       </c>
-      <c r="E2" s="80" t="s">
+      <c r="E2" s="77" t="s">
         <v>98</v>
       </c>
       <c r="F2" s="26"/>
@@ -30883,7 +30478,7 @@
         <v>9</v>
       </c>
       <c r="L2" s="14">
-        <v>45322.0</v>
+        <v>45332.0</v>
       </c>
       <c r="M2" s="15" t="s">
         <v>9</v>
@@ -30904,19 +30499,19 @@
     </row>
     <row r="3" ht="18.75" customHeight="1"/>
     <row r="4" ht="18.75" customHeight="1">
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="78" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1">
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="82" t="s">
-        <v>35</v>
+      <c r="C5" s="79" t="s">
+        <v>39</v>
       </c>
-      <c r="D5" s="83" t="s">
-        <v>36</v>
+      <c r="D5" s="80" t="s">
+        <v>40</v>
       </c>
       <c r="E5" s="27"/>
     </row>
@@ -30924,10 +30519,10 @@
       <c r="B6" s="17">
         <v>1.0</v>
       </c>
-      <c r="C6" s="84" t="s">
-        <v>37</v>
+      <c r="C6" s="13" t="s">
+        <v>41</v>
       </c>
-      <c r="D6" s="85" t="s">
+      <c r="D6" s="81" t="s">
         <v>100</v>
       </c>
       <c r="E6" s="27"/>
@@ -30936,23 +30531,23 @@
       <c r="B7" s="17">
         <v>2.0</v>
       </c>
-      <c r="C7" s="84" t="s">
-        <v>39</v>
+      <c r="C7" s="35" t="s">
+        <v>43</v>
       </c>
-      <c r="D7" s="86" t="s">
-        <v>40</v>
+      <c r="D7" s="82" t="s">
+        <v>44</v>
       </c>
       <c r="E7" s="27"/>
     </row>
     <row r="8" ht="60.75" customHeight="1">
-      <c r="B8" s="87">
+      <c r="B8" s="83">
         <v>3.0</v>
       </c>
-      <c r="C8" s="88" t="s">
-        <v>41</v>
+      <c r="C8" s="45" t="s">
+        <v>45</v>
       </c>
-      <c r="D8" s="89" t="s">
-        <v>42</v>
+      <c r="D8" s="84" t="s">
+        <v>46</v>
       </c>
       <c r="E8" s="27"/>
     </row>
@@ -30960,1316 +30555,1160 @@
       <c r="B9" s="19">
         <v>4.0</v>
       </c>
-      <c r="C9" s="90" t="s">
-        <v>43</v>
+      <c r="C9" s="47" t="s">
+        <v>47</v>
       </c>
-      <c r="D9" s="91" t="s">
-        <v>44</v>
+      <c r="D9" s="85" t="s">
+        <v>48</v>
       </c>
       <c r="E9" s="27"/>
     </row>
     <row r="10" ht="60.75" customHeight="1">
-      <c r="B10" s="87">
+      <c r="B10" s="83">
         <v>5.0</v>
       </c>
-      <c r="C10" s="88" t="s">
-        <v>45</v>
+      <c r="C10" s="45" t="s">
+        <v>49</v>
       </c>
-      <c r="D10" s="89" t="s">
-        <v>46</v>
+      <c r="D10" s="84" t="s">
+        <v>50</v>
       </c>
       <c r="E10" s="27"/>
     </row>
-    <row r="11" ht="40.5" customHeight="1">
-      <c r="B11" s="87">
-        <v>6.0</v>
-      </c>
-      <c r="C11" s="92" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="89" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="27"/>
-    </row>
-    <row r="12" ht="18.75" customHeight="1"/>
-    <row r="13" ht="18.75" customHeight="1">
-      <c r="A13" s="37"/>
-      <c r="B13" s="93" t="s">
+    <row r="11" ht="18.75" customHeight="1"/>
+    <row r="12" ht="18.75" customHeight="1">
+      <c r="A12" s="39"/>
+      <c r="B12" s="86" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="37"/>
-      <c r="T13" s="37"/>
-      <c r="U13" s="37"/>
-      <c r="V13" s="37"/>
-      <c r="W13" s="37"/>
-      <c r="X13" s="37"/>
-      <c r="Y13" s="37"/>
-      <c r="Z13" s="37"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="39"/>
+      <c r="S12" s="39"/>
+      <c r="T12" s="39"/>
+      <c r="U12" s="39"/>
+      <c r="V12" s="39"/>
+      <c r="W12" s="39"/>
+      <c r="X12" s="39"/>
+      <c r="Y12" s="39"/>
+      <c r="Z12" s="39"/>
+    </row>
+    <row r="13" ht="18.75" customHeight="1">
+      <c r="A13" s="39"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="39"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="39"/>
+      <c r="V13" s="39"/>
+      <c r="W13" s="39"/>
+      <c r="X13" s="39"/>
+      <c r="Y13" s="39"/>
+      <c r="Z13" s="39"/>
     </row>
     <row r="14" ht="18.75" customHeight="1">
-      <c r="A14" s="37"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="37"/>
-      <c r="R14" s="37"/>
-      <c r="S14" s="37"/>
-      <c r="T14" s="37"/>
-      <c r="U14" s="37"/>
-      <c r="V14" s="37"/>
-      <c r="W14" s="37"/>
-      <c r="X14" s="37"/>
-      <c r="Y14" s="37"/>
-      <c r="Z14" s="37"/>
-    </row>
-    <row r="15" ht="18.75" customHeight="1">
-      <c r="A15" s="37"/>
-      <c r="B15" s="93" t="s">
+      <c r="A14" s="39"/>
+      <c r="B14" s="86" t="s">
         <v>102</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="37"/>
-      <c r="T15" s="37"/>
-      <c r="U15" s="37"/>
-      <c r="V15" s="37"/>
-      <c r="W15" s="37"/>
-      <c r="X15" s="37"/>
-      <c r="Y15" s="37"/>
-      <c r="Z15" s="37"/>
-    </row>
-    <row r="16" ht="18.75" customHeight="1">
-      <c r="A16" s="94"/>
-      <c r="B16" s="95" t="s">
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="39"/>
+      <c r="S14" s="39"/>
+      <c r="T14" s="39"/>
+      <c r="U14" s="39"/>
+      <c r="V14" s="39"/>
+      <c r="W14" s="39"/>
+      <c r="X14" s="39"/>
+      <c r="Y14" s="39"/>
+      <c r="Z14" s="39"/>
+    </row>
+    <row r="15" ht="18.75" customHeight="1">
+      <c r="A15" s="87"/>
+      <c r="B15" s="88" t="s">
         <v>103</v>
       </c>
-      <c r="C16" s="94"/>
-      <c r="D16" s="94"/>
-      <c r="E16" s="94"/>
-      <c r="F16" s="94"/>
-      <c r="G16" s="94"/>
-      <c r="H16" s="94"/>
-      <c r="I16" s="94"/>
-      <c r="J16" s="94"/>
-      <c r="K16" s="94"/>
-      <c r="L16" s="94"/>
-      <c r="M16" s="94"/>
-      <c r="N16" s="94"/>
-      <c r="O16" s="94"/>
-      <c r="P16" s="94"/>
-      <c r="Q16" s="94"/>
-      <c r="R16" s="94"/>
-      <c r="S16" s="94"/>
-      <c r="T16" s="94"/>
-      <c r="U16" s="94"/>
-      <c r="V16" s="94"/>
-      <c r="W16" s="94"/>
-      <c r="X16" s="94"/>
-      <c r="Y16" s="94"/>
-      <c r="Z16" s="94"/>
-    </row>
-    <row r="17" ht="18.75" customHeight="1">
-      <c r="A17" s="94"/>
-      <c r="B17" s="94"/>
-      <c r="C17" s="96" t="s">
+      <c r="C15" s="87"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="87"/>
+      <c r="K15" s="87"/>
+      <c r="L15" s="87"/>
+      <c r="M15" s="87"/>
+      <c r="N15" s="87"/>
+      <c r="O15" s="87"/>
+      <c r="P15" s="87"/>
+      <c r="Q15" s="87"/>
+      <c r="R15" s="87"/>
+      <c r="S15" s="87"/>
+      <c r="T15" s="87"/>
+      <c r="U15" s="87"/>
+      <c r="V15" s="87"/>
+      <c r="W15" s="87"/>
+      <c r="X15" s="87"/>
+      <c r="Y15" s="87"/>
+      <c r="Z15" s="87"/>
+    </row>
+    <row r="16" ht="18.75" customHeight="1">
+      <c r="A16" s="87"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="89" t="s">
         <v>104</v>
       </c>
-      <c r="D17" s="94"/>
-      <c r="E17" s="94"/>
-      <c r="F17" s="94"/>
-      <c r="G17" s="94"/>
-      <c r="H17" s="95"/>
-      <c r="I17" s="95" t="s">
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="88" t="s">
         <v>105</v>
       </c>
-      <c r="J17" s="94"/>
-      <c r="K17" s="94"/>
-      <c r="L17" s="94"/>
-      <c r="M17" s="94"/>
-      <c r="N17" s="94"/>
-      <c r="O17" s="94"/>
-      <c r="P17" s="94"/>
-      <c r="Q17" s="94"/>
-      <c r="R17" s="94"/>
-      <c r="S17" s="94"/>
-      <c r="T17" s="94"/>
-      <c r="U17" s="94"/>
-      <c r="V17" s="94"/>
-      <c r="W17" s="94"/>
-      <c r="X17" s="94"/>
-      <c r="Y17" s="94"/>
-      <c r="Z17" s="94"/>
-    </row>
-    <row r="18" ht="18.75" customHeight="1">
-      <c r="A18" s="94"/>
-      <c r="B18" s="94"/>
-      <c r="C18" s="95" t="s">
+      <c r="J16" s="87"/>
+      <c r="K16" s="87"/>
+      <c r="L16" s="87"/>
+      <c r="M16" s="87"/>
+      <c r="N16" s="87"/>
+      <c r="O16" s="87"/>
+      <c r="P16" s="87"/>
+      <c r="Q16" s="87"/>
+      <c r="R16" s="87"/>
+      <c r="S16" s="87"/>
+      <c r="T16" s="87"/>
+      <c r="U16" s="87"/>
+      <c r="V16" s="87"/>
+      <c r="W16" s="87"/>
+      <c r="X16" s="87"/>
+      <c r="Y16" s="87"/>
+      <c r="Z16" s="87"/>
+    </row>
+    <row r="17" ht="18.75" customHeight="1">
+      <c r="A17" s="87"/>
+      <c r="B17" s="87"/>
+      <c r="C17" s="88" t="s">
         <v>106</v>
       </c>
-      <c r="D18" s="94"/>
-      <c r="E18" s="95" t="s">
+      <c r="D17" s="87"/>
+      <c r="E17" s="88" t="s">
         <v>107</v>
       </c>
-      <c r="F18" s="94"/>
-      <c r="G18" s="94"/>
-      <c r="H18" s="94"/>
-      <c r="I18" s="94"/>
-      <c r="J18" s="94"/>
-      <c r="K18" s="94"/>
-      <c r="L18" s="94"/>
-      <c r="M18" s="94"/>
-      <c r="N18" s="94"/>
-      <c r="O18" s="94"/>
-      <c r="P18" s="94"/>
-      <c r="Q18" s="94"/>
-      <c r="R18" s="94"/>
-      <c r="S18" s="94"/>
-      <c r="T18" s="94"/>
-      <c r="U18" s="94"/>
-      <c r="V18" s="94"/>
-      <c r="W18" s="94"/>
-      <c r="X18" s="94"/>
-      <c r="Y18" s="94"/>
-      <c r="Z18" s="94"/>
-    </row>
-    <row r="19" ht="18.75" customHeight="1">
-      <c r="A19" s="94"/>
-      <c r="B19" s="94"/>
-      <c r="C19" s="95" t="s">
+      <c r="F17" s="87"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="87"/>
+      <c r="M17" s="87"/>
+      <c r="N17" s="87"/>
+      <c r="O17" s="87"/>
+      <c r="P17" s="87"/>
+      <c r="Q17" s="87"/>
+      <c r="R17" s="87"/>
+      <c r="S17" s="87"/>
+      <c r="T17" s="87"/>
+      <c r="U17" s="87"/>
+      <c r="V17" s="87"/>
+      <c r="W17" s="87"/>
+      <c r="X17" s="87"/>
+      <c r="Y17" s="87"/>
+      <c r="Z17" s="87"/>
+    </row>
+    <row r="18" ht="18.75" customHeight="1">
+      <c r="A18" s="87"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="88" t="s">
         <v>108</v>
       </c>
-      <c r="D19" s="94"/>
-      <c r="E19" s="95" t="s">
+      <c r="D18" s="87"/>
+      <c r="E18" s="88" t="s">
         <v>107</v>
       </c>
-      <c r="F19" s="94"/>
-      <c r="G19" s="94"/>
-      <c r="H19" s="94"/>
-      <c r="I19" s="94"/>
-      <c r="J19" s="94"/>
-      <c r="K19" s="94"/>
-      <c r="L19" s="94"/>
-      <c r="M19" s="94"/>
-      <c r="N19" s="94"/>
-      <c r="O19" s="94"/>
-      <c r="P19" s="94"/>
-      <c r="Q19" s="94"/>
-      <c r="R19" s="94"/>
-      <c r="S19" s="94"/>
-      <c r="T19" s="94"/>
-      <c r="U19" s="94"/>
-      <c r="V19" s="94"/>
-      <c r="W19" s="94"/>
-      <c r="X19" s="94"/>
-      <c r="Y19" s="94"/>
-      <c r="Z19" s="94"/>
-    </row>
-    <row r="20" ht="18.75" customHeight="1">
-      <c r="A20" s="94"/>
-      <c r="B20" s="94"/>
-      <c r="C20" s="95" t="s">
+      <c r="F18" s="87"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="87"/>
+      <c r="K18" s="87"/>
+      <c r="L18" s="87"/>
+      <c r="M18" s="87"/>
+      <c r="N18" s="87"/>
+      <c r="O18" s="87"/>
+      <c r="P18" s="87"/>
+      <c r="Q18" s="87"/>
+      <c r="R18" s="87"/>
+      <c r="S18" s="87"/>
+      <c r="T18" s="87"/>
+      <c r="U18" s="87"/>
+      <c r="V18" s="87"/>
+      <c r="W18" s="87"/>
+      <c r="X18" s="87"/>
+      <c r="Y18" s="87"/>
+      <c r="Z18" s="87"/>
+    </row>
+    <row r="19" ht="18.75" customHeight="1">
+      <c r="A19" s="87"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="88" t="s">
         <v>109</v>
       </c>
-      <c r="D20" s="94"/>
-      <c r="E20" s="95" t="s">
+      <c r="D19" s="87"/>
+      <c r="E19" s="88" t="s">
         <v>110</v>
       </c>
-      <c r="F20" s="94"/>
-      <c r="G20" s="94"/>
-      <c r="H20" s="94"/>
-      <c r="I20" s="94"/>
-      <c r="J20" s="94"/>
-      <c r="K20" s="94"/>
-      <c r="L20" s="94"/>
-      <c r="M20" s="94"/>
-      <c r="N20" s="94"/>
-      <c r="O20" s="94"/>
-      <c r="P20" s="94"/>
-      <c r="Q20" s="94"/>
-      <c r="R20" s="94"/>
-      <c r="S20" s="94"/>
-      <c r="T20" s="94"/>
-      <c r="U20" s="94"/>
-      <c r="V20" s="94"/>
-      <c r="W20" s="94"/>
-      <c r="X20" s="94"/>
-      <c r="Y20" s="94"/>
-      <c r="Z20" s="94"/>
-    </row>
-    <row r="21" ht="18.75" customHeight="1">
-      <c r="A21" s="94"/>
-      <c r="B21" s="94"/>
-      <c r="C21" s="95" t="s">
+      <c r="F19" s="87"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="87"/>
+      <c r="I19" s="87"/>
+      <c r="J19" s="87"/>
+      <c r="K19" s="87"/>
+      <c r="L19" s="87"/>
+      <c r="M19" s="87"/>
+      <c r="N19" s="87"/>
+      <c r="O19" s="87"/>
+      <c r="P19" s="87"/>
+      <c r="Q19" s="87"/>
+      <c r="R19" s="87"/>
+      <c r="S19" s="87"/>
+      <c r="T19" s="87"/>
+      <c r="U19" s="87"/>
+      <c r="V19" s="87"/>
+      <c r="W19" s="87"/>
+      <c r="X19" s="87"/>
+      <c r="Y19" s="87"/>
+      <c r="Z19" s="87"/>
+    </row>
+    <row r="20" ht="18.75" customHeight="1">
+      <c r="A20" s="87"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="88" t="s">
         <v>111</v>
       </c>
-      <c r="D21" s="94"/>
-      <c r="E21" s="95" t="s">
+      <c r="D20" s="87"/>
+      <c r="E20" s="88" t="s">
         <v>112</v>
       </c>
-      <c r="F21" s="94"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="94"/>
-      <c r="I21" s="94"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="94"/>
-      <c r="L21" s="94"/>
-      <c r="M21" s="94"/>
-      <c r="N21" s="94"/>
-      <c r="O21" s="94"/>
-      <c r="P21" s="94"/>
-      <c r="Q21" s="94"/>
-      <c r="R21" s="94"/>
-      <c r="S21" s="94"/>
-      <c r="T21" s="94"/>
-      <c r="U21" s="94"/>
-      <c r="V21" s="94"/>
-      <c r="W21" s="94"/>
-      <c r="X21" s="94"/>
-      <c r="Y21" s="94"/>
-      <c r="Z21" s="94"/>
-    </row>
-    <row r="22" ht="18.75" customHeight="1">
-      <c r="A22" s="94"/>
-      <c r="B22" s="94"/>
-      <c r="C22" s="96" t="s">
+      <c r="F20" s="87"/>
+      <c r="G20" s="87"/>
+      <c r="H20" s="87"/>
+      <c r="I20" s="87"/>
+      <c r="J20" s="87"/>
+      <c r="K20" s="87"/>
+      <c r="L20" s="87"/>
+      <c r="M20" s="87"/>
+      <c r="N20" s="87"/>
+      <c r="O20" s="87"/>
+      <c r="P20" s="87"/>
+      <c r="Q20" s="87"/>
+      <c r="R20" s="87"/>
+      <c r="S20" s="87"/>
+      <c r="T20" s="87"/>
+      <c r="U20" s="87"/>
+      <c r="V20" s="87"/>
+      <c r="W20" s="87"/>
+      <c r="X20" s="87"/>
+      <c r="Y20" s="87"/>
+      <c r="Z20" s="87"/>
+    </row>
+    <row r="21" ht="18.75" customHeight="1">
+      <c r="A21" s="87"/>
+      <c r="B21" s="87"/>
+      <c r="C21" s="89" t="s">
         <v>113</v>
       </c>
-      <c r="D22" s="94"/>
-      <c r="E22" s="96" t="s">
+      <c r="D21" s="87"/>
+      <c r="E21" s="89" t="s">
         <v>114</v>
       </c>
-      <c r="F22" s="94"/>
-      <c r="G22" s="94"/>
-      <c r="H22" s="94"/>
-      <c r="I22" s="94"/>
-      <c r="J22" s="94"/>
-      <c r="K22" s="94"/>
-      <c r="L22" s="94"/>
-      <c r="M22" s="94"/>
-      <c r="N22" s="94"/>
-      <c r="O22" s="94"/>
-      <c r="P22" s="94"/>
-      <c r="Q22" s="94"/>
-      <c r="R22" s="94"/>
-      <c r="S22" s="94"/>
-      <c r="T22" s="94"/>
-      <c r="U22" s="94"/>
-      <c r="V22" s="94"/>
-      <c r="W22" s="94"/>
-      <c r="X22" s="94"/>
-      <c r="Y22" s="94"/>
-      <c r="Z22" s="94"/>
-    </row>
-    <row r="23" ht="18.75" customHeight="1">
-      <c r="A23" s="94"/>
-      <c r="B23" s="94"/>
-      <c r="C23" s="96" t="s">
+      <c r="F21" s="87"/>
+      <c r="G21" s="87"/>
+      <c r="H21" s="87"/>
+      <c r="I21" s="87"/>
+      <c r="J21" s="87"/>
+      <c r="K21" s="87"/>
+      <c r="L21" s="87"/>
+      <c r="M21" s="87"/>
+      <c r="N21" s="87"/>
+      <c r="O21" s="87"/>
+      <c r="P21" s="87"/>
+      <c r="Q21" s="87"/>
+      <c r="R21" s="87"/>
+      <c r="S21" s="87"/>
+      <c r="T21" s="87"/>
+      <c r="U21" s="87"/>
+      <c r="V21" s="87"/>
+      <c r="W21" s="87"/>
+      <c r="X21" s="87"/>
+      <c r="Y21" s="87"/>
+      <c r="Z21" s="87"/>
+    </row>
+    <row r="22" ht="18.75" customHeight="1">
+      <c r="A22" s="87"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="89" t="s">
         <v>115</v>
       </c>
-      <c r="D23" s="94"/>
-      <c r="E23" s="96" t="s">
+      <c r="D22" s="87"/>
+      <c r="E22" s="89" t="s">
         <v>116</v>
       </c>
-      <c r="F23" s="94"/>
-      <c r="G23" s="94"/>
-      <c r="H23" s="94"/>
-      <c r="I23" s="94"/>
-      <c r="J23" s="94"/>
-      <c r="K23" s="94"/>
-      <c r="L23" s="94"/>
-      <c r="M23" s="94"/>
-      <c r="N23" s="94"/>
-      <c r="O23" s="94"/>
-      <c r="P23" s="94"/>
-      <c r="Q23" s="94"/>
-      <c r="R23" s="94"/>
-      <c r="S23" s="94"/>
-      <c r="T23" s="94"/>
-      <c r="U23" s="94"/>
-      <c r="V23" s="94"/>
-      <c r="W23" s="94"/>
-      <c r="X23" s="94"/>
-      <c r="Y23" s="94"/>
-      <c r="Z23" s="94"/>
-    </row>
-    <row r="24" ht="18.75" customHeight="1">
-      <c r="A24" s="94"/>
-      <c r="B24" s="94"/>
-      <c r="C24" s="95" t="s">
+      <c r="F22" s="87"/>
+      <c r="G22" s="87"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="87"/>
+      <c r="J22" s="87"/>
+      <c r="K22" s="87"/>
+      <c r="L22" s="87"/>
+      <c r="M22" s="87"/>
+      <c r="N22" s="87"/>
+      <c r="O22" s="87"/>
+      <c r="P22" s="87"/>
+      <c r="Q22" s="87"/>
+      <c r="R22" s="87"/>
+      <c r="S22" s="87"/>
+      <c r="T22" s="87"/>
+      <c r="U22" s="87"/>
+      <c r="V22" s="87"/>
+      <c r="W22" s="87"/>
+      <c r="X22" s="87"/>
+      <c r="Y22" s="87"/>
+      <c r="Z22" s="87"/>
+    </row>
+    <row r="23" ht="18.75" customHeight="1">
+      <c r="A23" s="87"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="88" t="s">
         <v>117</v>
       </c>
-      <c r="D24" s="94"/>
-      <c r="E24" s="94"/>
-      <c r="F24" s="94"/>
-      <c r="G24" s="94"/>
-      <c r="H24" s="94"/>
-      <c r="I24" s="94"/>
-      <c r="J24" s="94"/>
-      <c r="K24" s="94"/>
-      <c r="L24" s="94"/>
-      <c r="M24" s="94"/>
-      <c r="N24" s="94"/>
-      <c r="O24" s="94"/>
-      <c r="P24" s="94"/>
-      <c r="Q24" s="94"/>
-      <c r="R24" s="94"/>
-      <c r="S24" s="94"/>
-      <c r="T24" s="94"/>
-      <c r="U24" s="94"/>
-      <c r="V24" s="94"/>
-      <c r="W24" s="94"/>
-      <c r="X24" s="94"/>
-      <c r="Y24" s="94"/>
-      <c r="Z24" s="94"/>
-    </row>
-    <row r="25" ht="18.75" customHeight="1">
-      <c r="A25" s="94"/>
-      <c r="B25" s="94"/>
-      <c r="C25" s="95" t="s">
+      <c r="D23" s="87"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="87"/>
+      <c r="G23" s="87"/>
+      <c r="H23" s="87"/>
+      <c r="I23" s="87"/>
+      <c r="J23" s="87"/>
+      <c r="K23" s="87"/>
+      <c r="L23" s="87"/>
+      <c r="M23" s="87"/>
+      <c r="N23" s="87"/>
+      <c r="O23" s="87"/>
+      <c r="P23" s="87"/>
+      <c r="Q23" s="87"/>
+      <c r="R23" s="87"/>
+      <c r="S23" s="87"/>
+      <c r="T23" s="87"/>
+      <c r="U23" s="87"/>
+      <c r="V23" s="87"/>
+      <c r="W23" s="87"/>
+      <c r="X23" s="87"/>
+      <c r="Y23" s="87"/>
+      <c r="Z23" s="87"/>
+    </row>
+    <row r="24" ht="18.75" customHeight="1">
+      <c r="A24" s="87"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="88" t="s">
         <v>118</v>
       </c>
-      <c r="D25" s="94"/>
-      <c r="E25" s="94"/>
-      <c r="F25" s="94"/>
-      <c r="G25" s="94"/>
-      <c r="H25" s="94"/>
-      <c r="I25" s="94"/>
-      <c r="J25" s="94"/>
-      <c r="K25" s="94"/>
-      <c r="L25" s="94"/>
-      <c r="M25" s="94"/>
-      <c r="N25" s="94"/>
-      <c r="O25" s="94"/>
-      <c r="P25" s="94"/>
-      <c r="Q25" s="94"/>
-      <c r="R25" s="94"/>
-      <c r="S25" s="94"/>
-      <c r="T25" s="94"/>
-      <c r="U25" s="94"/>
-      <c r="V25" s="94"/>
-      <c r="W25" s="94"/>
-      <c r="X25" s="94"/>
-      <c r="Y25" s="94"/>
-      <c r="Z25" s="94"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="87"/>
+      <c r="K24" s="87"/>
+      <c r="L24" s="87"/>
+      <c r="M24" s="87"/>
+      <c r="N24" s="87"/>
+      <c r="O24" s="87"/>
+      <c r="P24" s="87"/>
+      <c r="Q24" s="87"/>
+      <c r="R24" s="87"/>
+      <c r="S24" s="87"/>
+      <c r="T24" s="87"/>
+      <c r="U24" s="87"/>
+      <c r="V24" s="87"/>
+      <c r="W24" s="87"/>
+      <c r="X24" s="87"/>
+      <c r="Y24" s="87"/>
+      <c r="Z24" s="87"/>
+    </row>
+    <row r="25" ht="18.75" customHeight="1">
+      <c r="A25" s="39"/>
+      <c r="B25" s="90"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="39"/>
+      <c r="S25" s="39"/>
+      <c r="T25" s="39"/>
+      <c r="U25" s="39"/>
+      <c r="V25" s="39"/>
+      <c r="W25" s="39"/>
+      <c r="X25" s="39"/>
+      <c r="Y25" s="39"/>
+      <c r="Z25" s="39"/>
     </row>
     <row r="26" ht="18.75" customHeight="1">
-      <c r="A26" s="37"/>
-      <c r="B26" s="97"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="37"/>
-      <c r="O26" s="37"/>
-      <c r="P26" s="37"/>
-      <c r="Q26" s="37"/>
-      <c r="R26" s="37"/>
-      <c r="S26" s="37"/>
-      <c r="T26" s="37"/>
-      <c r="U26" s="37"/>
-      <c r="V26" s="37"/>
-      <c r="W26" s="37"/>
-      <c r="X26" s="37"/>
-      <c r="Y26" s="37"/>
-      <c r="Z26" s="37"/>
-    </row>
-    <row r="27" ht="18.75" customHeight="1">
-      <c r="A27" s="37"/>
-      <c r="B27" s="97" t="s">
+      <c r="A26" s="39"/>
+      <c r="B26" s="90" t="s">
         <v>119</v>
       </c>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="37"/>
-      <c r="N27" s="37"/>
-      <c r="O27" s="37"/>
-      <c r="P27" s="37"/>
-      <c r="Q27" s="37"/>
-      <c r="R27" s="37"/>
-      <c r="S27" s="37"/>
-      <c r="T27" s="37"/>
-      <c r="U27" s="37"/>
-      <c r="V27" s="37"/>
-      <c r="W27" s="37"/>
-      <c r="X27" s="37"/>
-      <c r="Y27" s="37"/>
-      <c r="Z27" s="37"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="39"/>
+      <c r="R26" s="39"/>
+      <c r="S26" s="39"/>
+      <c r="T26" s="39"/>
+      <c r="U26" s="39"/>
+      <c r="V26" s="39"/>
+      <c r="W26" s="39"/>
+      <c r="X26" s="39"/>
+      <c r="Y26" s="39"/>
+      <c r="Z26" s="39"/>
+    </row>
+    <row r="27" ht="18.75" customHeight="1">
+      <c r="A27" s="39"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="39"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="39"/>
+      <c r="R27" s="39"/>
+      <c r="S27" s="39"/>
+      <c r="T27" s="39"/>
+      <c r="U27" s="39"/>
+      <c r="V27" s="39"/>
+      <c r="W27" s="39"/>
+      <c r="X27" s="39"/>
+      <c r="Y27" s="39"/>
+      <c r="Z27" s="39"/>
     </row>
     <row r="28" ht="18.75" customHeight="1">
-      <c r="A28" s="37"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="37"/>
-      <c r="M28" s="37"/>
-      <c r="N28" s="37"/>
-      <c r="O28" s="37"/>
-      <c r="P28" s="37"/>
-      <c r="Q28" s="37"/>
-      <c r="R28" s="37"/>
-      <c r="S28" s="37"/>
-      <c r="T28" s="37"/>
-      <c r="U28" s="37"/>
-      <c r="V28" s="37"/>
-      <c r="W28" s="37"/>
-      <c r="X28" s="37"/>
-      <c r="Y28" s="37"/>
-      <c r="Z28" s="37"/>
-    </row>
-    <row r="29" ht="18.75" customHeight="1">
-      <c r="A29" s="37"/>
-      <c r="B29" s="98" t="s">
+      <c r="A28" s="39"/>
+      <c r="B28" s="91" t="s">
         <v>120</v>
       </c>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="37"/>
-      <c r="M29" s="37"/>
-      <c r="N29" s="37"/>
-      <c r="O29" s="37"/>
-      <c r="P29" s="37"/>
-      <c r="Q29" s="37"/>
-      <c r="R29" s="37"/>
-      <c r="S29" s="37"/>
-      <c r="T29" s="37"/>
-      <c r="U29" s="37"/>
-      <c r="V29" s="37"/>
-      <c r="W29" s="37"/>
-      <c r="X29" s="37"/>
-      <c r="Y29" s="37"/>
-      <c r="Z29" s="37"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="39"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="39"/>
+      <c r="R28" s="39"/>
+      <c r="S28" s="39"/>
+      <c r="T28" s="39"/>
+      <c r="U28" s="39"/>
+      <c r="V28" s="39"/>
+      <c r="W28" s="39"/>
+      <c r="X28" s="39"/>
+      <c r="Y28" s="39"/>
+      <c r="Z28" s="39"/>
+    </row>
+    <row r="29" ht="18.75" customHeight="1">
+      <c r="A29" s="39"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="39"/>
+      <c r="R29" s="39"/>
+      <c r="S29" s="39"/>
+      <c r="T29" s="39"/>
+      <c r="U29" s="39"/>
+      <c r="V29" s="39"/>
+      <c r="W29" s="39"/>
+      <c r="X29" s="39"/>
+      <c r="Y29" s="39"/>
+      <c r="Z29" s="39"/>
     </row>
     <row r="30" ht="18.75" customHeight="1">
-      <c r="A30" s="37"/>
-      <c r="B30" s="51"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="37"/>
-      <c r="M30" s="37"/>
-      <c r="N30" s="37"/>
-      <c r="O30" s="37"/>
-      <c r="P30" s="37"/>
-      <c r="Q30" s="37"/>
-      <c r="R30" s="37"/>
-      <c r="S30" s="37"/>
-      <c r="T30" s="37"/>
-      <c r="U30" s="37"/>
-      <c r="V30" s="37"/>
-      <c r="W30" s="37"/>
-      <c r="X30" s="37"/>
-      <c r="Y30" s="37"/>
-      <c r="Z30" s="37"/>
-    </row>
-    <row r="31" ht="18.75" customHeight="1">
-      <c r="A31" s="37"/>
-      <c r="B31" s="98" t="s">
+      <c r="A30" s="39"/>
+      <c r="B30" s="91" t="s">
         <v>121</v>
       </c>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="37"/>
-      <c r="K31" s="37"/>
-      <c r="L31" s="37"/>
-      <c r="M31" s="37"/>
-      <c r="N31" s="37"/>
-      <c r="O31" s="37"/>
-      <c r="P31" s="37"/>
-      <c r="Q31" s="37"/>
-      <c r="R31" s="37"/>
-      <c r="S31" s="37"/>
-      <c r="T31" s="37"/>
-      <c r="U31" s="37"/>
-      <c r="V31" s="37"/>
-      <c r="W31" s="37"/>
-      <c r="X31" s="37"/>
-      <c r="Y31" s="37"/>
-      <c r="Z31" s="37"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="39"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="39"/>
+      <c r="Q30" s="39"/>
+      <c r="R30" s="39"/>
+      <c r="S30" s="39"/>
+      <c r="T30" s="39"/>
+      <c r="U30" s="39"/>
+      <c r="V30" s="39"/>
+      <c r="W30" s="39"/>
+      <c r="X30" s="39"/>
+      <c r="Y30" s="39"/>
+      <c r="Z30" s="39"/>
+    </row>
+    <row r="31" ht="18.75" customHeight="1">
+      <c r="A31" s="39"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="39"/>
+      <c r="R31" s="39"/>
+      <c r="S31" s="39"/>
+      <c r="T31" s="39"/>
+      <c r="U31" s="39"/>
+      <c r="V31" s="39"/>
+      <c r="W31" s="39"/>
+      <c r="X31" s="39"/>
+      <c r="Y31" s="39"/>
+      <c r="Z31" s="39"/>
     </row>
     <row r="32" ht="18.75" customHeight="1">
-      <c r="A32" s="37"/>
-      <c r="B32" s="51"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="37"/>
-      <c r="N32" s="37"/>
-      <c r="O32" s="37"/>
-      <c r="P32" s="37"/>
-      <c r="Q32" s="37"/>
-      <c r="R32" s="37"/>
-      <c r="S32" s="37"/>
-      <c r="T32" s="37"/>
-      <c r="U32" s="37"/>
-      <c r="V32" s="37"/>
-      <c r="W32" s="37"/>
-      <c r="X32" s="37"/>
-      <c r="Y32" s="37"/>
-      <c r="Z32" s="37"/>
-    </row>
-    <row r="33" ht="18.75" customHeight="1">
-      <c r="A33" s="37"/>
-      <c r="B33" s="98" t="s">
+      <c r="A32" s="39"/>
+      <c r="B32" s="91" t="s">
         <v>122</v>
       </c>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="37"/>
-      <c r="N33" s="37"/>
-      <c r="O33" s="37"/>
-      <c r="P33" s="37"/>
-      <c r="Q33" s="37"/>
-      <c r="R33" s="37"/>
-      <c r="S33" s="37"/>
-      <c r="T33" s="37"/>
-      <c r="U33" s="37"/>
-      <c r="V33" s="37"/>
-      <c r="W33" s="37"/>
-      <c r="X33" s="37"/>
-      <c r="Y33" s="37"/>
-      <c r="Z33" s="37"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="39"/>
+      <c r="Q32" s="39"/>
+      <c r="R32" s="39"/>
+      <c r="S32" s="39"/>
+      <c r="T32" s="39"/>
+      <c r="U32" s="39"/>
+      <c r="V32" s="39"/>
+      <c r="W32" s="39"/>
+      <c r="X32" s="39"/>
+      <c r="Y32" s="39"/>
+      <c r="Z32" s="39"/>
+    </row>
+    <row r="33" ht="18.75" customHeight="1">
+      <c r="A33" s="39"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="39"/>
+      <c r="O33" s="39"/>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="39"/>
+      <c r="R33" s="39"/>
+      <c r="S33" s="39"/>
+      <c r="T33" s="39"/>
+      <c r="U33" s="39"/>
+      <c r="V33" s="39"/>
+      <c r="W33" s="39"/>
+      <c r="X33" s="39"/>
+      <c r="Y33" s="39"/>
+      <c r="Z33" s="39"/>
     </row>
     <row r="34" ht="18.75" customHeight="1">
-      <c r="A34" s="37"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="37"/>
-      <c r="K34" s="37"/>
-      <c r="L34" s="37"/>
-      <c r="M34" s="37"/>
-      <c r="N34" s="37"/>
-      <c r="O34" s="37"/>
-      <c r="P34" s="37"/>
-      <c r="Q34" s="37"/>
-      <c r="R34" s="37"/>
-      <c r="S34" s="37"/>
-      <c r="T34" s="37"/>
-      <c r="U34" s="37"/>
-      <c r="V34" s="37"/>
-      <c r="W34" s="37"/>
-      <c r="X34" s="37"/>
-      <c r="Y34" s="37"/>
-      <c r="Z34" s="37"/>
-    </row>
-    <row r="35" ht="18.75" customHeight="1">
-      <c r="A35" s="37"/>
-      <c r="B35" s="93" t="s">
+      <c r="A34" s="39"/>
+      <c r="B34" s="90" t="s">
         <v>123</v>
       </c>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="37"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="37"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="37"/>
-      <c r="M35" s="37"/>
-      <c r="N35" s="37"/>
-      <c r="O35" s="37"/>
-      <c r="P35" s="37"/>
-      <c r="Q35" s="37"/>
-      <c r="R35" s="37"/>
-      <c r="S35" s="37"/>
-      <c r="T35" s="37"/>
-      <c r="U35" s="37"/>
-      <c r="V35" s="37"/>
-      <c r="W35" s="37"/>
-      <c r="X35" s="37"/>
-      <c r="Y35" s="37"/>
-      <c r="Z35" s="37"/>
-    </row>
-    <row r="36" ht="18.75" customHeight="1">
-      <c r="A36" s="37"/>
-      <c r="B36" s="97" t="s">
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="39"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="39"/>
+      <c r="Q34" s="39"/>
+      <c r="R34" s="39"/>
+      <c r="S34" s="39"/>
+      <c r="T34" s="39"/>
+      <c r="U34" s="39"/>
+      <c r="V34" s="39"/>
+      <c r="W34" s="39"/>
+      <c r="X34" s="39"/>
+      <c r="Y34" s="39"/>
+      <c r="Z34" s="39"/>
+    </row>
+    <row r="35" ht="18.75" customHeight="1">
+      <c r="A35" s="39"/>
+      <c r="B35" s="90" t="s">
         <v>124</v>
       </c>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37"/>
-      <c r="I36" s="37"/>
-      <c r="J36" s="37"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="37"/>
-      <c r="M36" s="37"/>
-      <c r="N36" s="37"/>
-      <c r="O36" s="37"/>
-      <c r="P36" s="37"/>
-      <c r="Q36" s="37"/>
-      <c r="R36" s="37"/>
-      <c r="S36" s="37"/>
-      <c r="T36" s="37"/>
-      <c r="U36" s="37"/>
-      <c r="V36" s="37"/>
-      <c r="W36" s="37"/>
-      <c r="X36" s="37"/>
-      <c r="Y36" s="37"/>
-      <c r="Z36" s="37"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="39"/>
+      <c r="O35" s="39"/>
+      <c r="P35" s="39"/>
+      <c r="Q35" s="39"/>
+      <c r="R35" s="39"/>
+      <c r="S35" s="39"/>
+      <c r="T35" s="39"/>
+      <c r="U35" s="39"/>
+      <c r="V35" s="39"/>
+      <c r="W35" s="39"/>
+      <c r="X35" s="39"/>
+      <c r="Y35" s="39"/>
+      <c r="Z35" s="39"/>
+    </row>
+    <row r="36" ht="18.75" customHeight="1">
+      <c r="A36" s="39"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="39"/>
+      <c r="K36" s="39"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="39"/>
+      <c r="O36" s="39"/>
+      <c r="P36" s="39"/>
+      <c r="Q36" s="39"/>
+      <c r="R36" s="39"/>
+      <c r="S36" s="39"/>
+      <c r="T36" s="39"/>
+      <c r="U36" s="39"/>
+      <c r="V36" s="39"/>
+      <c r="W36" s="39"/>
+      <c r="X36" s="39"/>
+      <c r="Y36" s="39"/>
+      <c r="Z36" s="39"/>
     </row>
     <row r="37" ht="18.75" customHeight="1">
-      <c r="A37" s="37"/>
-      <c r="B37" s="37"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="37"/>
-      <c r="I37" s="37"/>
-      <c r="J37" s="37"/>
-      <c r="K37" s="37"/>
-      <c r="L37" s="37"/>
-      <c r="M37" s="37"/>
-      <c r="N37" s="37"/>
-      <c r="O37" s="37"/>
-      <c r="P37" s="37"/>
-      <c r="Q37" s="37"/>
-      <c r="R37" s="37"/>
-      <c r="S37" s="37"/>
-      <c r="T37" s="37"/>
-      <c r="U37" s="37"/>
-      <c r="V37" s="37"/>
-      <c r="W37" s="37"/>
-      <c r="X37" s="37"/>
-      <c r="Y37" s="37"/>
-      <c r="Z37" s="37"/>
-    </row>
-    <row r="38" ht="18.75" customHeight="1">
-      <c r="A38" s="51"/>
-      <c r="B38" s="99" t="s">
+      <c r="A37" s="52"/>
+      <c r="B37" s="89" t="s">
         <v>125</v>
       </c>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="51"/>
-      <c r="I38" s="51"/>
-      <c r="J38" s="51"/>
-      <c r="K38" s="51"/>
-      <c r="L38" s="51"/>
-      <c r="M38" s="51"/>
-      <c r="N38" s="51"/>
-      <c r="O38" s="51"/>
-      <c r="P38" s="51"/>
-      <c r="Q38" s="51"/>
-      <c r="R38" s="51"/>
-      <c r="S38" s="51"/>
-      <c r="T38" s="51"/>
-      <c r="U38" s="51"/>
-      <c r="V38" s="51"/>
-      <c r="W38" s="51"/>
-      <c r="X38" s="51"/>
-      <c r="Y38" s="51"/>
-      <c r="Z38" s="51"/>
-    </row>
-    <row r="39" ht="18.75" customHeight="1">
-      <c r="A39" s="51"/>
-      <c r="B39" s="99" t="s">
+      <c r="C37" s="52"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="52"/>
+      <c r="J37" s="52"/>
+      <c r="K37" s="52"/>
+      <c r="L37" s="52"/>
+      <c r="M37" s="52"/>
+      <c r="N37" s="52"/>
+      <c r="O37" s="52"/>
+      <c r="P37" s="52"/>
+      <c r="Q37" s="52"/>
+      <c r="R37" s="52"/>
+      <c r="S37" s="52"/>
+      <c r="T37" s="52"/>
+      <c r="U37" s="52"/>
+      <c r="V37" s="52"/>
+      <c r="W37" s="52"/>
+      <c r="X37" s="52"/>
+      <c r="Y37" s="52"/>
+      <c r="Z37" s="52"/>
+    </row>
+    <row r="38" ht="18.75" customHeight="1">
+      <c r="A38" s="52"/>
+      <c r="B38" s="92" t="s">
         <v>126</v>
       </c>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="51"/>
-      <c r="H39" s="51"/>
-      <c r="I39" s="51"/>
-      <c r="J39" s="51"/>
-      <c r="K39" s="51"/>
-      <c r="L39" s="51"/>
-      <c r="M39" s="51"/>
-      <c r="N39" s="51"/>
-      <c r="O39" s="51"/>
-      <c r="P39" s="51"/>
-      <c r="Q39" s="51"/>
-      <c r="R39" s="51"/>
-      <c r="S39" s="51"/>
-      <c r="T39" s="51"/>
-      <c r="U39" s="51"/>
-      <c r="V39" s="51"/>
-      <c r="W39" s="51"/>
-      <c r="X39" s="51"/>
-      <c r="Y39" s="51"/>
-      <c r="Z39" s="51"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="52"/>
+      <c r="J38" s="52"/>
+      <c r="K38" s="52"/>
+      <c r="L38" s="52"/>
+      <c r="M38" s="52"/>
+      <c r="N38" s="52"/>
+      <c r="O38" s="52"/>
+      <c r="P38" s="52"/>
+      <c r="Q38" s="52"/>
+      <c r="R38" s="52"/>
+      <c r="S38" s="52"/>
+      <c r="T38" s="52"/>
+      <c r="U38" s="52"/>
+      <c r="V38" s="52"/>
+      <c r="W38" s="52"/>
+      <c r="X38" s="52"/>
+      <c r="Y38" s="52"/>
+      <c r="Z38" s="52"/>
+    </row>
+    <row r="39" ht="18.75" customHeight="1">
+      <c r="A39" s="52"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="52"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="52"/>
+      <c r="I39" s="52"/>
+      <c r="J39" s="52"/>
+      <c r="K39" s="52"/>
+      <c r="L39" s="52"/>
+      <c r="M39" s="52"/>
+      <c r="N39" s="52"/>
+      <c r="O39" s="52"/>
+      <c r="P39" s="52"/>
+      <c r="Q39" s="52"/>
+      <c r="R39" s="52"/>
+      <c r="S39" s="52"/>
+      <c r="T39" s="52"/>
+      <c r="U39" s="52"/>
+      <c r="V39" s="52"/>
+      <c r="W39" s="52"/>
+      <c r="X39" s="52"/>
+      <c r="Y39" s="52"/>
+      <c r="Z39" s="52"/>
     </row>
     <row r="40" ht="18.75" customHeight="1">
-      <c r="A40" s="51"/>
-      <c r="B40" s="51"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="51"/>
-      <c r="H40" s="51"/>
-      <c r="I40" s="51"/>
-      <c r="J40" s="51"/>
-      <c r="K40" s="51"/>
-      <c r="L40" s="51"/>
-      <c r="M40" s="51"/>
-      <c r="N40" s="51"/>
-      <c r="O40" s="51"/>
-      <c r="P40" s="51"/>
-      <c r="Q40" s="51"/>
-      <c r="R40" s="51"/>
-      <c r="S40" s="51"/>
-      <c r="T40" s="51"/>
-      <c r="U40" s="51"/>
-      <c r="V40" s="51"/>
-      <c r="W40" s="51"/>
-      <c r="X40" s="51"/>
-      <c r="Y40" s="51"/>
-      <c r="Z40" s="51"/>
-    </row>
-    <row r="41" ht="18.75" customHeight="1">
-      <c r="A41" s="37"/>
-      <c r="B41" s="97" t="s">
+      <c r="A40" s="39"/>
+      <c r="B40" s="90" t="s">
         <v>127</v>
       </c>
-      <c r="C41" s="37"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="37"/>
-      <c r="I41" s="37"/>
-      <c r="J41" s="37"/>
-      <c r="K41" s="37"/>
-      <c r="L41" s="37"/>
-      <c r="M41" s="37"/>
-      <c r="N41" s="37"/>
-      <c r="O41" s="37"/>
-      <c r="P41" s="37"/>
-      <c r="Q41" s="37"/>
-      <c r="R41" s="37"/>
-      <c r="S41" s="37"/>
-      <c r="T41" s="37"/>
-      <c r="U41" s="37"/>
-      <c r="V41" s="37"/>
-      <c r="W41" s="37"/>
-      <c r="X41" s="37"/>
-      <c r="Y41" s="37"/>
-      <c r="Z41" s="37"/>
-    </row>
-    <row r="42" ht="18.75" customHeight="1">
-      <c r="A42" s="37"/>
-      <c r="B42" s="97" t="s">
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="39"/>
+      <c r="J40" s="39"/>
+      <c r="K40" s="39"/>
+      <c r="L40" s="39"/>
+      <c r="M40" s="39"/>
+      <c r="N40" s="39"/>
+      <c r="O40" s="39"/>
+      <c r="P40" s="39"/>
+      <c r="Q40" s="39"/>
+      <c r="R40" s="39"/>
+      <c r="S40" s="39"/>
+      <c r="T40" s="39"/>
+      <c r="U40" s="39"/>
+      <c r="V40" s="39"/>
+      <c r="W40" s="39"/>
+      <c r="X40" s="39"/>
+      <c r="Y40" s="39"/>
+      <c r="Z40" s="39"/>
+    </row>
+    <row r="41" ht="18.75" customHeight="1">
+      <c r="A41" s="39"/>
+      <c r="B41" s="90" t="s">
         <v>128</v>
       </c>
-      <c r="C42" s="37"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="37"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="37"/>
-      <c r="H42" s="37"/>
-      <c r="I42" s="37"/>
-      <c r="J42" s="37"/>
-      <c r="K42" s="37"/>
-      <c r="L42" s="37"/>
-      <c r="M42" s="37"/>
-      <c r="N42" s="37"/>
-      <c r="O42" s="37"/>
-      <c r="P42" s="37"/>
-      <c r="Q42" s="37"/>
-      <c r="R42" s="37"/>
-      <c r="S42" s="37"/>
-      <c r="T42" s="37"/>
-      <c r="U42" s="37"/>
-      <c r="V42" s="37"/>
-      <c r="W42" s="37"/>
-      <c r="X42" s="37"/>
-      <c r="Y42" s="37"/>
-      <c r="Z42" s="37"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="39"/>
+      <c r="K41" s="39"/>
+      <c r="L41" s="39"/>
+      <c r="M41" s="39"/>
+      <c r="N41" s="39"/>
+      <c r="O41" s="39"/>
+      <c r="P41" s="39"/>
+      <c r="Q41" s="39"/>
+      <c r="R41" s="39"/>
+      <c r="S41" s="39"/>
+      <c r="T41" s="39"/>
+      <c r="U41" s="39"/>
+      <c r="V41" s="39"/>
+      <c r="W41" s="39"/>
+      <c r="X41" s="39"/>
+      <c r="Y41" s="39"/>
+      <c r="Z41" s="39"/>
+    </row>
+    <row r="42" ht="18.75" customHeight="1">
+      <c r="A42" s="39"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="39"/>
+      <c r="K42" s="39"/>
+      <c r="L42" s="39"/>
+      <c r="M42" s="39"/>
+      <c r="N42" s="39"/>
+      <c r="O42" s="39"/>
+      <c r="P42" s="39"/>
+      <c r="Q42" s="39"/>
+      <c r="R42" s="39"/>
+      <c r="S42" s="39"/>
+      <c r="T42" s="39"/>
+      <c r="U42" s="39"/>
+      <c r="V42" s="39"/>
+      <c r="W42" s="39"/>
+      <c r="X42" s="39"/>
+      <c r="Y42" s="39"/>
+      <c r="Z42" s="39"/>
     </row>
     <row r="43" ht="18.75" customHeight="1">
-      <c r="A43" s="37"/>
-      <c r="B43" s="37"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="37"/>
-      <c r="J43" s="37"/>
-      <c r="K43" s="37"/>
-      <c r="L43" s="37"/>
-      <c r="M43" s="37"/>
-      <c r="N43" s="37"/>
-      <c r="O43" s="37"/>
-      <c r="P43" s="37"/>
-      <c r="Q43" s="37"/>
-      <c r="R43" s="37"/>
-      <c r="S43" s="37"/>
-      <c r="T43" s="37"/>
-      <c r="U43" s="37"/>
-      <c r="V43" s="37"/>
-      <c r="W43" s="37"/>
-      <c r="X43" s="37"/>
-      <c r="Y43" s="37"/>
-      <c r="Z43" s="37"/>
-    </row>
-    <row r="44" ht="18.75" customHeight="1">
-      <c r="A44" s="37"/>
-      <c r="B44" s="100" t="s">
+      <c r="A43" s="39"/>
+      <c r="B43" s="89" t="s">
         <v>129</v>
       </c>
-      <c r="C44" s="51"/>
-      <c r="D44" s="51"/>
-      <c r="E44" s="51"/>
-      <c r="F44" s="51"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="37"/>
-      <c r="I44" s="37"/>
-      <c r="J44" s="37"/>
-      <c r="K44" s="37"/>
-      <c r="L44" s="37"/>
-      <c r="M44" s="37"/>
-      <c r="N44" s="37"/>
-      <c r="O44" s="37"/>
-      <c r="P44" s="37"/>
-      <c r="Q44" s="37"/>
-      <c r="R44" s="37"/>
-      <c r="S44" s="37"/>
-      <c r="T44" s="37"/>
-      <c r="U44" s="37"/>
-      <c r="V44" s="37"/>
-      <c r="W44" s="37"/>
-      <c r="X44" s="37"/>
-      <c r="Y44" s="37"/>
-      <c r="Z44" s="37"/>
-    </row>
-    <row r="45" ht="18.75" customHeight="1">
-      <c r="A45" s="37"/>
-      <c r="B45" s="100" t="s">
+      <c r="C43" s="52"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="39"/>
+      <c r="K43" s="39"/>
+      <c r="L43" s="39"/>
+      <c r="M43" s="39"/>
+      <c r="N43" s="39"/>
+      <c r="O43" s="39"/>
+      <c r="P43" s="39"/>
+      <c r="Q43" s="39"/>
+      <c r="R43" s="39"/>
+      <c r="S43" s="39"/>
+      <c r="T43" s="39"/>
+      <c r="U43" s="39"/>
+      <c r="V43" s="39"/>
+      <c r="W43" s="39"/>
+      <c r="X43" s="39"/>
+      <c r="Y43" s="39"/>
+      <c r="Z43" s="39"/>
+    </row>
+    <row r="44" ht="18.75" customHeight="1">
+      <c r="A44" s="39"/>
+      <c r="B44" s="93" t="s">
         <v>130</v>
       </c>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="51"/>
-      <c r="F45" s="51"/>
-      <c r="G45" s="37"/>
-      <c r="H45" s="37"/>
-      <c r="I45" s="37"/>
-      <c r="J45" s="37"/>
-      <c r="K45" s="37"/>
-      <c r="L45" s="37"/>
-      <c r="M45" s="37"/>
-      <c r="N45" s="37"/>
-      <c r="O45" s="37"/>
-      <c r="P45" s="37"/>
-      <c r="Q45" s="37"/>
-      <c r="R45" s="37"/>
-      <c r="S45" s="37"/>
-      <c r="T45" s="37"/>
-      <c r="U45" s="37"/>
-      <c r="V45" s="37"/>
-      <c r="W45" s="37"/>
-      <c r="X45" s="37"/>
-      <c r="Y45" s="37"/>
-      <c r="Z45" s="37"/>
+      <c r="C44" s="52"/>
+      <c r="D44" s="52"/>
+      <c r="E44" s="52"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="39"/>
+      <c r="I44" s="39"/>
+      <c r="J44" s="39"/>
+      <c r="K44" s="39"/>
+      <c r="L44" s="39"/>
+      <c r="M44" s="39"/>
+      <c r="N44" s="39"/>
+      <c r="O44" s="39"/>
+      <c r="P44" s="39"/>
+      <c r="Q44" s="39"/>
+      <c r="R44" s="39"/>
+      <c r="S44" s="39"/>
+      <c r="T44" s="39"/>
+      <c r="U44" s="39"/>
+      <c r="V44" s="39"/>
+      <c r="W44" s="39"/>
+      <c r="X44" s="39"/>
+      <c r="Y44" s="39"/>
+      <c r="Z44" s="39"/>
+    </row>
+    <row r="45" ht="18.75" customHeight="1">
+      <c r="A45" s="87"/>
+      <c r="B45" s="87"/>
+      <c r="C45" s="88"/>
+      <c r="D45" s="87"/>
+      <c r="E45" s="88"/>
+      <c r="F45" s="87"/>
+      <c r="G45" s="87"/>
+      <c r="H45" s="87"/>
+      <c r="I45" s="87"/>
+      <c r="J45" s="87"/>
+      <c r="K45" s="87"/>
+      <c r="L45" s="87"/>
+      <c r="M45" s="87"/>
+      <c r="N45" s="87"/>
+      <c r="O45" s="87"/>
+      <c r="P45" s="87"/>
+      <c r="Q45" s="87"/>
+      <c r="R45" s="87"/>
+      <c r="S45" s="87"/>
+      <c r="T45" s="87"/>
+      <c r="U45" s="87"/>
+      <c r="V45" s="87"/>
+      <c r="W45" s="87"/>
+      <c r="X45" s="87"/>
+      <c r="Y45" s="87"/>
+      <c r="Z45" s="87"/>
     </row>
     <row r="46" ht="18.75" customHeight="1">
-      <c r="B46" s="94"/>
-      <c r="C46" s="94"/>
-      <c r="D46" s="94"/>
-      <c r="E46" s="94"/>
-      <c r="F46" s="94"/>
+      <c r="A46" s="87"/>
+      <c r="B46" s="87"/>
+      <c r="C46" s="88"/>
+      <c r="D46" s="87"/>
+      <c r="E46" s="88"/>
+      <c r="F46" s="87"/>
+      <c r="G46" s="87"/>
+      <c r="H46" s="87"/>
+      <c r="I46" s="87"/>
+      <c r="J46" s="87"/>
+      <c r="K46" s="87"/>
+      <c r="L46" s="87"/>
+      <c r="M46" s="87"/>
+      <c r="N46" s="87"/>
+      <c r="O46" s="87"/>
+      <c r="P46" s="87"/>
+      <c r="Q46" s="87"/>
+      <c r="R46" s="87"/>
+      <c r="S46" s="87"/>
+      <c r="T46" s="87"/>
+      <c r="U46" s="87"/>
+      <c r="V46" s="87"/>
+      <c r="W46" s="87"/>
+      <c r="X46" s="87"/>
+      <c r="Y46" s="87"/>
+      <c r="Z46" s="87"/>
     </row>
     <row r="47" ht="18.75" customHeight="1">
-      <c r="A47" s="94"/>
-      <c r="B47" s="95" t="s">
-        <v>131</v>
-      </c>
-      <c r="C47" s="94"/>
-      <c r="D47" s="94"/>
-      <c r="E47" s="94"/>
-      <c r="F47" s="94"/>
-      <c r="G47" s="94"/>
-      <c r="H47" s="94"/>
-      <c r="I47" s="94"/>
-      <c r="J47" s="94"/>
-      <c r="K47" s="94"/>
-      <c r="L47" s="94"/>
-      <c r="M47" s="94"/>
-      <c r="N47" s="94"/>
-      <c r="O47" s="94"/>
-      <c r="P47" s="94"/>
-      <c r="Q47" s="94"/>
-      <c r="R47" s="94"/>
-      <c r="S47" s="94"/>
-      <c r="T47" s="94"/>
-      <c r="U47" s="94"/>
-      <c r="V47" s="94"/>
-      <c r="W47" s="94"/>
-      <c r="X47" s="94"/>
-      <c r="Y47" s="94"/>
-      <c r="Z47" s="94"/>
+      <c r="A47" s="87"/>
+      <c r="B47" s="87"/>
+      <c r="C47" s="88"/>
+      <c r="D47" s="87"/>
+      <c r="E47" s="87"/>
+      <c r="F47" s="87"/>
+      <c r="G47" s="87"/>
+      <c r="H47" s="87"/>
+      <c r="I47" s="87"/>
+      <c r="J47" s="87"/>
+      <c r="K47" s="87"/>
+      <c r="L47" s="87"/>
+      <c r="M47" s="87"/>
+      <c r="N47" s="87"/>
+      <c r="O47" s="87"/>
+      <c r="P47" s="87"/>
+      <c r="Q47" s="87"/>
+      <c r="R47" s="87"/>
+      <c r="S47" s="87"/>
+      <c r="T47" s="87"/>
+      <c r="U47" s="87"/>
+      <c r="V47" s="87"/>
+      <c r="W47" s="87"/>
+      <c r="X47" s="87"/>
+      <c r="Y47" s="87"/>
+      <c r="Z47" s="87"/>
     </row>
     <row r="48" ht="18.75" customHeight="1">
-      <c r="A48" s="94"/>
-      <c r="B48" s="95" t="s">
-        <v>132</v>
-      </c>
-      <c r="C48" s="94"/>
-      <c r="D48" s="94"/>
-      <c r="E48" s="94"/>
-      <c r="F48" s="94"/>
-      <c r="G48" s="94"/>
-      <c r="H48" s="95"/>
-      <c r="I48" s="94"/>
-      <c r="J48" s="94"/>
-      <c r="K48" s="94"/>
-      <c r="L48" s="94"/>
-      <c r="M48" s="94"/>
-      <c r="N48" s="94"/>
-      <c r="O48" s="94"/>
-      <c r="P48" s="94"/>
-      <c r="Q48" s="94"/>
-      <c r="R48" s="94"/>
-      <c r="S48" s="94"/>
-      <c r="T48" s="94"/>
-      <c r="U48" s="94"/>
-      <c r="V48" s="94"/>
-      <c r="W48" s="94"/>
-      <c r="X48" s="94"/>
-      <c r="Y48" s="94"/>
-      <c r="Z48" s="94"/>
+      <c r="A48" s="87"/>
+      <c r="B48" s="87"/>
+      <c r="C48" s="88"/>
+      <c r="D48" s="87"/>
+      <c r="E48" s="87"/>
+      <c r="F48" s="87"/>
+      <c r="G48" s="87"/>
+      <c r="H48" s="87"/>
+      <c r="I48" s="87"/>
+      <c r="J48" s="87"/>
+      <c r="K48" s="87"/>
+      <c r="L48" s="87"/>
+      <c r="M48" s="87"/>
+      <c r="N48" s="87"/>
+      <c r="O48" s="87"/>
+      <c r="P48" s="87"/>
+      <c r="Q48" s="87"/>
+      <c r="R48" s="87"/>
+      <c r="S48" s="87"/>
+      <c r="T48" s="87"/>
+      <c r="U48" s="87"/>
+      <c r="V48" s="87"/>
+      <c r="W48" s="87"/>
+      <c r="X48" s="87"/>
+      <c r="Y48" s="87"/>
+      <c r="Z48" s="87"/>
     </row>
     <row r="49" ht="18.75" customHeight="1">
-      <c r="A49" s="94"/>
-      <c r="B49" s="94"/>
-      <c r="C49" s="94"/>
-      <c r="D49" s="94"/>
-      <c r="E49" s="94"/>
-      <c r="F49" s="94"/>
-      <c r="G49" s="94"/>
-      <c r="H49" s="94"/>
-      <c r="I49" s="94"/>
-      <c r="J49" s="94"/>
-      <c r="K49" s="94"/>
-      <c r="L49" s="94"/>
-      <c r="M49" s="94"/>
-      <c r="N49" s="94"/>
-      <c r="O49" s="94"/>
-      <c r="P49" s="94"/>
-      <c r="Q49" s="94"/>
-      <c r="R49" s="94"/>
-      <c r="S49" s="94"/>
-      <c r="T49" s="94"/>
-      <c r="U49" s="94"/>
-      <c r="V49" s="94"/>
-      <c r="W49" s="94"/>
-      <c r="X49" s="94"/>
-      <c r="Y49" s="94"/>
-      <c r="Z49" s="94"/>
-    </row>
-    <row r="50" ht="18.75" customHeight="1">
-      <c r="A50" s="94"/>
-      <c r="B50" s="94"/>
-      <c r="C50" s="95"/>
-      <c r="D50" s="94"/>
-      <c r="E50" s="95"/>
-      <c r="F50" s="94"/>
-      <c r="G50" s="94"/>
-      <c r="H50" s="94"/>
-      <c r="I50" s="94"/>
-      <c r="J50" s="94"/>
-      <c r="K50" s="94"/>
-      <c r="L50" s="94"/>
-      <c r="M50" s="94"/>
-      <c r="N50" s="94"/>
-      <c r="O50" s="94"/>
-      <c r="P50" s="94"/>
-      <c r="Q50" s="94"/>
-      <c r="R50" s="94"/>
-      <c r="S50" s="94"/>
-      <c r="T50" s="94"/>
-      <c r="U50" s="94"/>
-      <c r="V50" s="94"/>
-      <c r="W50" s="94"/>
-      <c r="X50" s="94"/>
-      <c r="Y50" s="94"/>
-      <c r="Z50" s="94"/>
-    </row>
-    <row r="51" ht="18.75" customHeight="1">
-      <c r="A51" s="94"/>
-      <c r="B51" s="94"/>
-      <c r="C51" s="95"/>
-      <c r="D51" s="94"/>
-      <c r="E51" s="95"/>
-      <c r="F51" s="94"/>
-      <c r="G51" s="94"/>
-      <c r="H51" s="94"/>
-      <c r="I51" s="94"/>
-      <c r="J51" s="94"/>
-      <c r="K51" s="94"/>
-      <c r="L51" s="94"/>
-      <c r="M51" s="94"/>
-      <c r="N51" s="94"/>
-      <c r="O51" s="94"/>
-      <c r="P51" s="94"/>
-      <c r="Q51" s="94"/>
-      <c r="R51" s="94"/>
-      <c r="S51" s="94"/>
-      <c r="T51" s="94"/>
-      <c r="U51" s="94"/>
-      <c r="V51" s="94"/>
-      <c r="W51" s="94"/>
-      <c r="X51" s="94"/>
-      <c r="Y51" s="94"/>
-      <c r="Z51" s="94"/>
-    </row>
-    <row r="52" ht="18.75" customHeight="1">
-      <c r="A52" s="94"/>
-      <c r="B52" s="94"/>
-      <c r="C52" s="95"/>
-      <c r="D52" s="94"/>
-      <c r="E52" s="95"/>
-      <c r="F52" s="94"/>
-      <c r="G52" s="94"/>
-      <c r="H52" s="94"/>
-      <c r="I52" s="94"/>
-      <c r="J52" s="94"/>
-      <c r="K52" s="94"/>
-      <c r="L52" s="94"/>
-      <c r="M52" s="94"/>
-      <c r="N52" s="94"/>
-      <c r="O52" s="94"/>
-      <c r="P52" s="94"/>
-      <c r="Q52" s="94"/>
-      <c r="R52" s="94"/>
-      <c r="S52" s="94"/>
-      <c r="T52" s="94"/>
-      <c r="U52" s="94"/>
-      <c r="V52" s="94"/>
-      <c r="W52" s="94"/>
-      <c r="X52" s="94"/>
-      <c r="Y52" s="94"/>
-      <c r="Z52" s="94"/>
-    </row>
-    <row r="53" ht="18.75" customHeight="1">
-      <c r="A53" s="94"/>
-      <c r="B53" s="94"/>
-      <c r="C53" s="95"/>
-      <c r="D53" s="94"/>
-      <c r="E53" s="95"/>
-      <c r="F53" s="94"/>
-      <c r="G53" s="94"/>
-      <c r="H53" s="94"/>
-      <c r="I53" s="94"/>
-      <c r="J53" s="94"/>
-      <c r="K53" s="94"/>
-      <c r="L53" s="94"/>
-      <c r="M53" s="94"/>
-      <c r="N53" s="94"/>
-      <c r="O53" s="94"/>
-      <c r="P53" s="94"/>
-      <c r="Q53" s="94"/>
-      <c r="R53" s="94"/>
-      <c r="S53" s="94"/>
-      <c r="T53" s="94"/>
-      <c r="U53" s="94"/>
-      <c r="V53" s="94"/>
-      <c r="W53" s="94"/>
-      <c r="X53" s="94"/>
-      <c r="Y53" s="94"/>
-      <c r="Z53" s="94"/>
-    </row>
-    <row r="54" ht="18.75" customHeight="1">
-      <c r="A54" s="94"/>
-      <c r="B54" s="94"/>
-      <c r="C54" s="95"/>
-      <c r="D54" s="94"/>
-      <c r="E54" s="94"/>
-      <c r="F54" s="94"/>
-      <c r="G54" s="94"/>
-      <c r="H54" s="94"/>
-      <c r="I54" s="94"/>
-      <c r="J54" s="94"/>
-      <c r="K54" s="94"/>
-      <c r="L54" s="94"/>
-      <c r="M54" s="94"/>
-      <c r="N54" s="94"/>
-      <c r="O54" s="94"/>
-      <c r="P54" s="94"/>
-      <c r="Q54" s="94"/>
-      <c r="R54" s="94"/>
-      <c r="S54" s="94"/>
-      <c r="T54" s="94"/>
-      <c r="U54" s="94"/>
-      <c r="V54" s="94"/>
-      <c r="W54" s="94"/>
-      <c r="X54" s="94"/>
-      <c r="Y54" s="94"/>
-      <c r="Z54" s="94"/>
-    </row>
-    <row r="55" ht="18.75" customHeight="1">
-      <c r="A55" s="94"/>
-      <c r="B55" s="94"/>
-      <c r="C55" s="95"/>
-      <c r="D55" s="94"/>
-      <c r="E55" s="94"/>
-      <c r="F55" s="94"/>
-      <c r="G55" s="94"/>
-      <c r="H55" s="94"/>
-      <c r="I55" s="94"/>
-      <c r="J55" s="94"/>
-      <c r="K55" s="94"/>
-      <c r="L55" s="94"/>
-      <c r="M55" s="94"/>
-      <c r="N55" s="94"/>
-      <c r="O55" s="94"/>
-      <c r="P55" s="94"/>
-      <c r="Q55" s="94"/>
-      <c r="R55" s="94"/>
-      <c r="S55" s="94"/>
-      <c r="T55" s="94"/>
-      <c r="U55" s="94"/>
-      <c r="V55" s="94"/>
-      <c r="W55" s="94"/>
-      <c r="X55" s="94"/>
-      <c r="Y55" s="94"/>
-      <c r="Z55" s="94"/>
-    </row>
-    <row r="56" ht="18.75" customHeight="1">
-      <c r="A56" s="94"/>
-      <c r="B56" s="94"/>
-      <c r="C56" s="94"/>
-      <c r="D56" s="94"/>
-      <c r="E56" s="94"/>
-      <c r="F56" s="94"/>
-      <c r="G56" s="94"/>
-      <c r="H56" s="94"/>
-      <c r="I56" s="94"/>
-      <c r="J56" s="94"/>
-      <c r="K56" s="94"/>
-      <c r="L56" s="94"/>
-      <c r="M56" s="94"/>
-      <c r="N56" s="94"/>
-      <c r="O56" s="94"/>
-      <c r="P56" s="94"/>
-      <c r="Q56" s="94"/>
-      <c r="R56" s="94"/>
-      <c r="S56" s="94"/>
-      <c r="T56" s="94"/>
-      <c r="U56" s="94"/>
-      <c r="V56" s="94"/>
-      <c r="W56" s="94"/>
-      <c r="X56" s="94"/>
-      <c r="Y56" s="94"/>
-      <c r="Z56" s="94"/>
-    </row>
+      <c r="A49" s="87"/>
+      <c r="B49" s="87"/>
+      <c r="C49" s="87"/>
+      <c r="D49" s="87"/>
+      <c r="E49" s="87"/>
+      <c r="F49" s="87"/>
+      <c r="G49" s="87"/>
+      <c r="H49" s="87"/>
+      <c r="I49" s="87"/>
+      <c r="J49" s="87"/>
+      <c r="K49" s="87"/>
+      <c r="L49" s="87"/>
+      <c r="M49" s="87"/>
+      <c r="N49" s="87"/>
+      <c r="O49" s="87"/>
+      <c r="P49" s="87"/>
+      <c r="Q49" s="87"/>
+      <c r="R49" s="87"/>
+      <c r="S49" s="87"/>
+      <c r="T49" s="87"/>
+      <c r="U49" s="87"/>
+      <c r="V49" s="87"/>
+      <c r="W49" s="87"/>
+      <c r="X49" s="87"/>
+      <c r="Y49" s="87"/>
+      <c r="Z49" s="87"/>
+    </row>
+    <row r="50" ht="18.75" customHeight="1"/>
+    <row r="51" ht="18.75" customHeight="1"/>
+    <row r="52" ht="18.75" customHeight="1"/>
+    <row r="53" ht="18.75" customHeight="1"/>
+    <row r="54" ht="18.75" customHeight="1"/>
+    <row r="55" ht="18.75" customHeight="1"/>
+    <row r="56" ht="18.75" customHeight="1"/>
     <row r="57" ht="18.75" customHeight="1"/>
     <row r="58" ht="18.75" customHeight="1"/>
     <row r="59" ht="18.75" customHeight="1"/>
@@ -33211,18 +32650,10 @@
     <row r="995" ht="18.75" customHeight="1"/>
     <row r="996" ht="18.75" customHeight="1"/>
     <row r="997" ht="18.75" customHeight="1"/>
-    <row r="998" ht="18.75" customHeight="1"/>
-    <row r="999" ht="18.75" customHeight="1"/>
-    <row r="1000" ht="18.75" customHeight="1"/>
-    <row r="1001" ht="18.75" customHeight="1"/>
-    <row r="1002" ht="18.75" customHeight="1"/>
-    <row r="1003" ht="18.75" customHeight="1"/>
-    <row r="1004" ht="18.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="E2:I2"/>

--- a/doc/2023年下期/【修正版】2023年上期/【画面設計】番組詳細画面（ProgramDetail.vue).xlsx
+++ b/doc/2023年下期/【修正版】2023年上期/【画面設計】番組詳細画面（ProgramDetail.vue).xlsx
@@ -11,7 +11,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="90UXAUl9YBbgMwUJsh1XcM9IwuzEwU8dVFILK3outpQ="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="Zh0C2ThbcQaKVVTsyK6p749ox/X6u+FoPVzXoo/3zmM="/>
     </ext>
   </extLst>
 </workbook>
@@ -1056,11 +1056,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="8620125" cy="2847975"/>
+    <xdr:ext cx="8582025" cy="2400300"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="2" name="Shape 2" title="図形描画"/>
@@ -1069,9 +1069,9 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="152400" y="152400"/>
-          <a:ext cx="10667999" cy="3504266"/>
+          <a:ext cx="9448802" cy="2649310"/>
           <a:chOff x="152400" y="152400"/>
-          <a:chExt cx="10667999" cy="3504266"/>
+          <a:chExt cx="9448802" cy="2649310"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
@@ -1090,7 +1090,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="152400" y="152400"/>
-            <a:ext cx="10667999" cy="3504266"/>
+            <a:ext cx="9448802" cy="2649310"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1113,11 +1113,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="9277350" cy="2847975"/>
+    <xdr:ext cx="8582025" cy="2400300"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="2" name="Shape 2" title="図形描画"/>
@@ -1126,9 +1126,9 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="152400" y="152400"/>
-          <a:ext cx="10667999" cy="3251044"/>
+          <a:ext cx="9448802" cy="2649310"/>
           <a:chOff x="152400" y="152400"/>
-          <a:chExt cx="10667999" cy="3251044"/>
+          <a:chExt cx="9448802" cy="2649310"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
@@ -1147,7 +1147,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="152400" y="152400"/>
-            <a:ext cx="10667999" cy="3251044"/>
+            <a:ext cx="9448802" cy="2649310"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3218,7 +3218,9 @@
     </row>
     <row r="19" ht="16.5" customHeight="1">
       <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
+      <c r="B19" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -3246,13 +3248,15 @@
     </row>
     <row r="20" ht="16.5" customHeight="1">
       <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
+      <c r="B20" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="3"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
@@ -3274,15 +3278,8 @@
     </row>
     <row r="21" ht="16.5" customHeight="1">
       <c r="A21" s="6"/>
-      <c r="B21" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
+      <c r="B21" s="32"/>
+      <c r="H21" s="33"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
@@ -3304,15 +3301,13 @@
     </row>
     <row r="22" ht="16.5" customHeight="1">
       <c r="A22" s="6"/>
-      <c r="B22" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="3"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="9"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
@@ -3334,8 +3329,13 @@
     </row>
     <row r="23" ht="16.5" customHeight="1">
       <c r="A23" s="6"/>
-      <c r="B23" s="32"/>
-      <c r="H23" s="33"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
@@ -3357,13 +3357,15 @@
     </row>
     <row r="24" ht="16.5" customHeight="1">
       <c r="A24" s="6"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="9"/>
+      <c r="B24" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
@@ -3385,9 +3387,15 @@
     </row>
     <row r="25" ht="16.5" customHeight="1">
       <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
+      <c r="B25" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>28</v>
+      </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
@@ -3413,11 +3421,15 @@
     </row>
     <row r="26" ht="16.5" customHeight="1">
       <c r="A26" s="6"/>
-      <c r="B26" s="6" t="s">
-        <v>25</v>
+      <c r="B26" s="13" t="s">
+        <v>29</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
+      <c r="C26" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>31</v>
+      </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
@@ -3443,14 +3455,14 @@
     </row>
     <row r="27" ht="16.5" customHeight="1">
       <c r="A27" s="6"/>
-      <c r="B27" s="34" t="s">
-        <v>26</v>
+      <c r="B27" s="13" t="s">
+        <v>32</v>
       </c>
-      <c r="C27" s="34" t="s">
-        <v>27</v>
+      <c r="C27" s="13" t="s">
+        <v>30</v>
       </c>
-      <c r="D27" s="34" t="s">
-        <v>28</v>
+      <c r="D27" s="35" t="s">
+        <v>33</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
@@ -3476,146 +3488,140 @@
       <c r="Z27" s="6"/>
     </row>
     <row r="28" ht="16.5" customHeight="1">
-      <c r="A28" s="6"/>
-      <c r="B28" s="13" t="s">
-        <v>29</v>
+      <c r="A28" s="36"/>
+      <c r="B28" s="37" t="s">
+        <v>34</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="13" t="s">
-        <v>31</v>
+      <c r="D28" s="38" t="s">
+        <v>35</v>
       </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6"/>
-      <c r="S28" s="6"/>
-      <c r="T28" s="6"/>
-      <c r="U28" s="6"/>
-      <c r="V28" s="6"/>
-      <c r="W28" s="6"/>
-      <c r="X28" s="6"/>
-      <c r="Y28" s="6"/>
-      <c r="Z28" s="6"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="39"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="39"/>
+      <c r="R28" s="39"/>
+      <c r="S28" s="39"/>
+      <c r="T28" s="39"/>
+      <c r="U28" s="39"/>
+      <c r="V28" s="39"/>
+      <c r="W28" s="39"/>
+      <c r="X28" s="39"/>
+      <c r="Y28" s="39"/>
+      <c r="Z28" s="39"/>
     </row>
     <row r="29" ht="16.5" customHeight="1">
-      <c r="A29" s="6"/>
-      <c r="B29" s="13" t="s">
-        <v>32</v>
+      <c r="A29" s="36"/>
+      <c r="B29" s="40" t="s">
+        <v>36</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="6"/>
-      <c r="S29" s="6"/>
-      <c r="T29" s="6"/>
-      <c r="U29" s="6"/>
-      <c r="V29" s="6"/>
-      <c r="W29" s="6"/>
-      <c r="X29" s="6"/>
-      <c r="Y29" s="6"/>
-      <c r="Z29" s="6"/>
-    </row>
-    <row r="30" ht="16.5" customHeight="1">
-      <c r="A30" s="36"/>
-      <c r="B30" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="39"/>
-      <c r="N30" s="39"/>
-      <c r="O30" s="39"/>
-      <c r="P30" s="39"/>
-      <c r="Q30" s="39"/>
-      <c r="R30" s="39"/>
-      <c r="S30" s="39"/>
-      <c r="T30" s="39"/>
-      <c r="U30" s="39"/>
-      <c r="V30" s="39"/>
-      <c r="W30" s="39"/>
-      <c r="X30" s="39"/>
-      <c r="Y30" s="39"/>
-      <c r="Z30" s="39"/>
-    </row>
-    <row r="31" ht="16.5" customHeight="1">
-      <c r="A31" s="36"/>
-      <c r="B31" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="D31" s="41" t="s">
+      <c r="D29" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="39"/>
-      <c r="O31" s="39"/>
-      <c r="P31" s="39"/>
-      <c r="Q31" s="39"/>
-      <c r="R31" s="39"/>
-      <c r="S31" s="39"/>
-      <c r="T31" s="39"/>
-      <c r="U31" s="39"/>
-      <c r="V31" s="39"/>
-      <c r="W31" s="39"/>
-      <c r="X31" s="39"/>
-      <c r="Y31" s="39"/>
-      <c r="Z31" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="39"/>
+      <c r="R29" s="39"/>
+      <c r="S29" s="39"/>
+      <c r="T29" s="39"/>
+      <c r="U29" s="39"/>
+      <c r="V29" s="39"/>
+      <c r="W29" s="39"/>
+      <c r="X29" s="39"/>
+      <c r="Y29" s="39"/>
+      <c r="Z29" s="39"/>
+    </row>
+    <row r="30" ht="16.5" customHeight="1">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="6"/>
+      <c r="U30" s="6"/>
+      <c r="V30" s="6"/>
+      <c r="W30" s="6"/>
+      <c r="X30" s="6"/>
+      <c r="Y30" s="6"/>
+      <c r="Z30" s="6"/>
+    </row>
+    <row r="31" ht="16.5" customHeight="1">
+      <c r="A31" s="6"/>
+      <c r="B31" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="6"/>
+      <c r="W31" s="6"/>
+      <c r="X31" s="6"/>
+      <c r="Y31" s="6"/>
+      <c r="Z31" s="6"/>
     </row>
     <row r="32" ht="16.5" customHeight="1">
       <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
+      <c r="B32" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="27"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
@@ -3639,15 +3645,16 @@
       <c r="Y32" s="6"/>
       <c r="Z32" s="6"/>
     </row>
-    <row r="33" ht="16.5" customHeight="1">
+    <row r="33" ht="33.75" customHeight="1">
       <c r="A33" s="6"/>
-      <c r="B33" s="29" t="s">
-        <v>38</v>
+      <c r="B33" s="13" t="s">
+        <v>41</v>
       </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
+      <c r="C33" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="27"/>
       <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
@@ -3669,13 +3676,13 @@
       <c r="Y33" s="6"/>
       <c r="Z33" s="6"/>
     </row>
-    <row r="34" ht="16.5" customHeight="1">
+    <row r="34" ht="24.0" customHeight="1">
       <c r="A34" s="6"/>
-      <c r="B34" s="34" t="s">
-        <v>39</v>
+      <c r="B34" s="35" t="s">
+        <v>43</v>
       </c>
-      <c r="C34" s="42" t="s">
-        <v>40</v>
+      <c r="C34" s="44" t="s">
+        <v>44</v>
       </c>
       <c r="D34" s="27"/>
       <c r="E34" s="6"/>
@@ -3701,16 +3708,17 @@
       <c r="Y34" s="6"/>
       <c r="Z34" s="6"/>
     </row>
-    <row r="35" ht="33.75" customHeight="1">
+    <row r="35" ht="20.25" customHeight="1">
       <c r="A35" s="6"/>
-      <c r="B35" s="13" t="s">
-        <v>41</v>
+      <c r="B35" s="45" t="s">
+        <v>45</v>
       </c>
-      <c r="C35" s="43" t="s">
-        <v>42</v>
+      <c r="C35" s="46" t="s">
+        <v>46</v>
       </c>
       <c r="D35" s="27"/>
       <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
@@ -3732,13 +3740,13 @@
       <c r="Y35" s="6"/>
       <c r="Z35" s="6"/>
     </row>
-    <row r="36" ht="48.0" customHeight="1">
+    <row r="36" ht="36.0" customHeight="1">
       <c r="A36" s="6"/>
-      <c r="B36" s="35" t="s">
-        <v>43</v>
+      <c r="B36" s="47" t="s">
+        <v>47</v>
       </c>
-      <c r="C36" s="44" t="s">
-        <v>44</v>
+      <c r="C36" s="48" t="s">
+        <v>48</v>
       </c>
       <c r="D36" s="27"/>
       <c r="E36" s="6"/>
@@ -3764,13 +3772,13 @@
       <c r="Y36" s="6"/>
       <c r="Z36" s="6"/>
     </row>
-    <row r="37" ht="38.25" customHeight="1">
+    <row r="37" ht="30.0" customHeight="1">
       <c r="A37" s="6"/>
       <c r="B37" s="45" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C37" s="46" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D37" s="27"/>
       <c r="E37" s="6"/>
@@ -3796,15 +3804,11 @@
       <c r="Y37" s="6"/>
       <c r="Z37" s="6"/>
     </row>
-    <row r="38" ht="36.0" customHeight="1">
+    <row r="38" ht="16.5" customHeight="1">
       <c r="A38" s="6"/>
-      <c r="B38" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="C38" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="D38" s="27"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
@@ -3828,18 +3832,18 @@
       <c r="Y38" s="6"/>
       <c r="Z38" s="6"/>
     </row>
-    <row r="39" ht="43.5" customHeight="1">
+    <row r="39" ht="16.5" customHeight="1">
       <c r="A39" s="6"/>
-      <c r="B39" s="45" t="s">
-        <v>49</v>
+      <c r="B39" s="29" t="s">
+        <v>51</v>
       </c>
-      <c r="C39" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="D39" s="27"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
+      <c r="G39" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
@@ -3862,12 +3866,16 @@
     </row>
     <row r="40" ht="16.5" customHeight="1">
       <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
+      <c r="B40" s="6" t="s">
+        <v>53</v>
+      </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
+      <c r="G40" s="6" t="s">
+        <v>53</v>
+      </c>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
@@ -3890,20 +3898,32 @@
     </row>
     <row r="41" ht="16.5" customHeight="1">
       <c r="A41" s="6"/>
-      <c r="B41" s="29" t="s">
-        <v>51</v>
+      <c r="B41" s="34" t="s">
+        <v>54</v>
       </c>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
+      <c r="C41" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41" s="34" t="s">
+        <v>56</v>
+      </c>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
-      <c r="G41" s="6" t="s">
-        <v>52</v>
+      <c r="G41" s="34" t="s">
+        <v>57</v>
       </c>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
+      <c r="H41" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="I41" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="J41" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="K41" s="34" t="s">
+        <v>56</v>
+      </c>
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
@@ -3920,22 +3940,24 @@
       <c r="Y41" s="6"/>
       <c r="Z41" s="6"/>
     </row>
-    <row r="42" ht="16.5" customHeight="1">
+    <row r="42" ht="163.5" customHeight="1">
       <c r="A42" s="6"/>
-      <c r="B42" s="6" t="s">
-        <v>53</v>
+      <c r="B42" s="49" t="s">
+        <v>59</v>
       </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
+      <c r="C42" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D42" s="50" t="s">
+        <v>61</v>
+      </c>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
-      <c r="G42" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="51"/>
+      <c r="J42" s="51"/>
+      <c r="K42" s="51"/>
       <c r="L42" s="6"/>
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>
@@ -3953,67 +3975,49 @@
       <c r="Z42" s="6"/>
     </row>
     <row r="43" ht="16.5" customHeight="1">
-      <c r="A43" s="6"/>
-      <c r="B43" s="34" t="s">
-        <v>54</v>
+      <c r="A43" s="52"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="52"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="53"/>
+      <c r="H43" s="53"/>
+      <c r="I43" s="53"/>
+      <c r="J43" s="53"/>
+      <c r="K43" s="53"/>
+      <c r="L43" s="52"/>
+      <c r="M43" s="52"/>
+      <c r="N43" s="52"/>
+      <c r="O43" s="52"/>
+      <c r="P43" s="52"/>
+      <c r="Q43" s="52"/>
+      <c r="R43" s="52"/>
+      <c r="S43" s="52"/>
+      <c r="T43" s="52"/>
+      <c r="U43" s="52"/>
+      <c r="V43" s="52"/>
+      <c r="W43" s="52"/>
+      <c r="X43" s="52"/>
+      <c r="Y43" s="52"/>
+      <c r="Z43" s="52"/>
+    </row>
+    <row r="44" ht="16.5" customHeight="1">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6" t="s">
+        <v>62</v>
       </c>
-      <c r="C43" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="D43" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="H43" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="I43" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="J43" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="K43" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-      <c r="O43" s="6"/>
-      <c r="P43" s="6"/>
-      <c r="Q43" s="6"/>
-      <c r="R43" s="6"/>
-      <c r="S43" s="6"/>
-      <c r="T43" s="6"/>
-      <c r="U43" s="6"/>
-      <c r="V43" s="6"/>
-      <c r="W43" s="6"/>
-      <c r="X43" s="6"/>
-      <c r="Y43" s="6"/>
-      <c r="Z43" s="6"/>
-    </row>
-    <row r="44" ht="163.5" customHeight="1">
-      <c r="A44" s="6"/>
-      <c r="B44" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D44" s="50" t="s">
-        <v>61</v>
-      </c>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
-      <c r="G44" s="51"/>
-      <c r="H44" s="51"/>
-      <c r="I44" s="51"/>
-      <c r="J44" s="51"/>
-      <c r="K44" s="51"/>
+      <c r="G44" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
       <c r="N44" s="6"/>
@@ -4031,49 +4035,67 @@
       <c r="Z44" s="6"/>
     </row>
     <row r="45" ht="16.5" customHeight="1">
-      <c r="A45" s="52"/>
-      <c r="B45" s="52"/>
-      <c r="C45" s="52"/>
-      <c r="D45" s="52"/>
-      <c r="E45" s="52"/>
-      <c r="F45" s="52"/>
-      <c r="G45" s="53"/>
-      <c r="H45" s="53"/>
-      <c r="I45" s="53"/>
-      <c r="J45" s="53"/>
-      <c r="K45" s="53"/>
-      <c r="L45" s="52"/>
-      <c r="M45" s="52"/>
-      <c r="N45" s="52"/>
-      <c r="O45" s="52"/>
-      <c r="P45" s="52"/>
-      <c r="Q45" s="52"/>
-      <c r="R45" s="52"/>
-      <c r="S45" s="52"/>
-      <c r="T45" s="52"/>
-      <c r="U45" s="52"/>
-      <c r="V45" s="52"/>
-      <c r="W45" s="52"/>
-      <c r="X45" s="52"/>
-      <c r="Y45" s="52"/>
-      <c r="Z45" s="52"/>
+      <c r="A45" s="6"/>
+      <c r="B45" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="H45" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="I45" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="J45" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="K45" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="6"/>
+      <c r="S45" s="6"/>
+      <c r="T45" s="6"/>
+      <c r="U45" s="6"/>
+      <c r="V45" s="6"/>
+      <c r="W45" s="6"/>
+      <c r="X45" s="6"/>
+      <c r="Y45" s="6"/>
+      <c r="Z45" s="6"/>
     </row>
     <row r="46" ht="16.5" customHeight="1">
       <c r="A46" s="6"/>
-      <c r="B46" s="6" t="s">
-        <v>62</v>
+      <c r="B46" s="54" t="s">
+        <v>64</v>
       </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
+      <c r="C46" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>65</v>
+      </c>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
-      <c r="G46" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
+      <c r="G46" s="51"/>
+      <c r="H46" s="51"/>
+      <c r="I46" s="51"/>
+      <c r="J46" s="51"/>
+      <c r="K46" s="51"/>
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
       <c r="N46" s="6"/>
@@ -4090,33 +4112,33 @@
       <c r="Y46" s="6"/>
       <c r="Z46" s="6"/>
     </row>
-    <row r="47" ht="16.5" customHeight="1">
+    <row r="47" ht="39.75" customHeight="1">
       <c r="A47" s="6"/>
-      <c r="B47" s="34" t="s">
-        <v>54</v>
+      <c r="B47" s="55" t="s">
+        <v>66</v>
       </c>
-      <c r="C47" s="34" t="s">
-        <v>55</v>
+      <c r="C47" s="13" t="s">
+        <v>60</v>
       </c>
-      <c r="D47" s="34" t="s">
-        <v>56</v>
+      <c r="D47" s="49" t="s">
+        <v>67</v>
       </c>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
-      <c r="G47" s="34" t="s">
-        <v>57</v>
+      <c r="G47" s="13" t="s">
+        <v>68</v>
       </c>
-      <c r="H47" s="34" t="s">
-        <v>58</v>
+      <c r="H47" s="13" t="s">
+        <v>64</v>
       </c>
-      <c r="I47" s="34" t="s">
-        <v>27</v>
+      <c r="I47" s="13" t="s">
+        <v>30</v>
       </c>
-      <c r="J47" s="34" t="s">
-        <v>28</v>
+      <c r="J47" s="13" t="s">
+        <v>69</v>
       </c>
-      <c r="K47" s="34" t="s">
-        <v>56</v>
+      <c r="K47" s="49" t="s">
+        <v>70</v>
       </c>
       <c r="L47" s="6"/>
       <c r="M47" s="6"/>
@@ -4136,8 +4158,8 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="6"/>
-      <c r="B48" s="54" t="s">
-        <v>64</v>
+      <c r="B48" s="56" t="s">
+        <v>71</v>
       </c>
       <c r="C48" s="13" t="s">
         <v>60</v>
@@ -4168,7 +4190,7 @@
       <c r="Y48" s="6"/>
       <c r="Z48" s="6"/>
     </row>
-    <row r="49" ht="39.75" customHeight="1">
+    <row r="49" ht="84.75" customHeight="1">
       <c r="A49" s="6"/>
       <c r="B49" s="55" t="s">
         <v>66</v>
@@ -4176,26 +4198,16 @@
       <c r="C49" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D49" s="49" t="s">
-        <v>67</v>
+      <c r="D49" s="50" t="s">
+        <v>72</v>
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
-      <c r="G49" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H49" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="I49" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="J49" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="K49" s="49" t="s">
-        <v>70</v>
-      </c>
+      <c r="G49" s="51"/>
+      <c r="H49" s="51"/>
+      <c r="I49" s="51"/>
+      <c r="J49" s="51"/>
+      <c r="K49" s="51"/>
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
       <c r="N49" s="6"/>
@@ -4213,163 +4225,171 @@
       <c r="Z49" s="6"/>
     </row>
     <row r="50" ht="16.5" customHeight="1">
-      <c r="A50" s="6"/>
-      <c r="B50" s="56" t="s">
-        <v>71</v>
+      <c r="A50" s="36"/>
+      <c r="B50" s="57" t="s">
+        <v>73</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C50" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="D50" s="13" t="s">
+      <c r="D50" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="51"/>
-      <c r="H50" s="51"/>
-      <c r="I50" s="51"/>
-      <c r="J50" s="51"/>
-      <c r="K50" s="51"/>
-      <c r="L50" s="6"/>
-      <c r="M50" s="6"/>
-      <c r="N50" s="6"/>
-      <c r="O50" s="6"/>
-      <c r="P50" s="6"/>
-      <c r="Q50" s="6"/>
-      <c r="R50" s="6"/>
-      <c r="S50" s="6"/>
-      <c r="T50" s="6"/>
-      <c r="U50" s="6"/>
-      <c r="V50" s="6"/>
-      <c r="W50" s="6"/>
-      <c r="X50" s="6"/>
-      <c r="Y50" s="6"/>
-      <c r="Z50" s="6"/>
-    </row>
-    <row r="51" ht="84.75" customHeight="1">
-      <c r="A51" s="6"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="58"/>
+      <c r="H50" s="58"/>
+      <c r="I50" s="58"/>
+      <c r="J50" s="58"/>
+      <c r="K50" s="58"/>
+      <c r="L50" s="39"/>
+      <c r="M50" s="39"/>
+      <c r="N50" s="39"/>
+      <c r="O50" s="39"/>
+      <c r="P50" s="39"/>
+      <c r="Q50" s="39"/>
+      <c r="R50" s="39"/>
+      <c r="S50" s="39"/>
+      <c r="T50" s="39"/>
+      <c r="U50" s="39"/>
+      <c r="V50" s="39"/>
+      <c r="W50" s="39"/>
+      <c r="X50" s="39"/>
+      <c r="Y50" s="39"/>
+      <c r="Z50" s="39"/>
+    </row>
+    <row r="51" ht="96.75" customHeight="1">
+      <c r="A51" s="36"/>
       <c r="B51" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C51" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="D51" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="51"/>
-      <c r="H51" s="51"/>
-      <c r="I51" s="51"/>
-      <c r="J51" s="51"/>
-      <c r="K51" s="51"/>
-      <c r="L51" s="6"/>
-      <c r="M51" s="6"/>
-      <c r="N51" s="6"/>
-      <c r="O51" s="6"/>
-      <c r="P51" s="6"/>
-      <c r="Q51" s="6"/>
-      <c r="R51" s="6"/>
-      <c r="S51" s="6"/>
-      <c r="T51" s="6"/>
-      <c r="U51" s="6"/>
-      <c r="V51" s="6"/>
-      <c r="W51" s="6"/>
-      <c r="X51" s="6"/>
-      <c r="Y51" s="6"/>
-      <c r="Z51" s="6"/>
-    </row>
-    <row r="52" ht="16.5" customHeight="1">
-      <c r="A52" s="36"/>
-      <c r="B52" s="57" t="s">
-        <v>73</v>
-      </c>
-      <c r="C52" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="D52" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="E52" s="39"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="58"/>
-      <c r="H52" s="58"/>
-      <c r="I52" s="58"/>
-      <c r="J52" s="58"/>
-      <c r="K52" s="58"/>
-      <c r="L52" s="39"/>
-      <c r="M52" s="39"/>
-      <c r="N52" s="39"/>
-      <c r="O52" s="39"/>
-      <c r="P52" s="39"/>
-      <c r="Q52" s="39"/>
-      <c r="R52" s="39"/>
-      <c r="S52" s="39"/>
-      <c r="T52" s="39"/>
-      <c r="U52" s="39"/>
-      <c r="V52" s="39"/>
-      <c r="W52" s="39"/>
-      <c r="X52" s="39"/>
-      <c r="Y52" s="39"/>
-      <c r="Z52" s="39"/>
-    </row>
-    <row r="53" ht="96.75" customHeight="1">
-      <c r="A53" s="36"/>
-      <c r="B53" s="55" t="s">
-        <v>66</v>
-      </c>
-      <c r="C53" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="D53" s="59" t="s">
+      <c r="D51" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="E53" s="39"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="60" t="s">
+      <c r="E51" s="39"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="H53" s="61" t="s">
+      <c r="H51" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="I53" s="61" t="s">
+      <c r="I51" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="J53" s="61" t="s">
+      <c r="J51" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="K53" s="61" t="s">
+      <c r="K51" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="L53" s="39"/>
-      <c r="M53" s="39"/>
-      <c r="N53" s="39"/>
-      <c r="O53" s="39"/>
-      <c r="P53" s="39"/>
-      <c r="Q53" s="39"/>
-      <c r="R53" s="39"/>
-      <c r="S53" s="39"/>
-      <c r="T53" s="39"/>
-      <c r="U53" s="39"/>
-      <c r="V53" s="39"/>
-      <c r="W53" s="39"/>
-      <c r="X53" s="39"/>
-      <c r="Y53" s="39"/>
-      <c r="Z53" s="39"/>
+      <c r="L51" s="39"/>
+      <c r="M51" s="39"/>
+      <c r="N51" s="39"/>
+      <c r="O51" s="39"/>
+      <c r="P51" s="39"/>
+      <c r="Q51" s="39"/>
+      <c r="R51" s="39"/>
+      <c r="S51" s="39"/>
+      <c r="T51" s="39"/>
+      <c r="U51" s="39"/>
+      <c r="V51" s="39"/>
+      <c r="W51" s="39"/>
+      <c r="X51" s="39"/>
+      <c r="Y51" s="39"/>
+      <c r="Z51" s="39"/>
+    </row>
+    <row r="52" ht="16.5" customHeight="1">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
+      <c r="O52" s="6"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="6"/>
+      <c r="R52" s="6"/>
+      <c r="S52" s="6"/>
+      <c r="T52" s="6"/>
+      <c r="U52" s="6"/>
+      <c r="V52" s="6"/>
+      <c r="W52" s="6"/>
+      <c r="X52" s="6"/>
+      <c r="Y52" s="6"/>
+      <c r="Z52" s="6"/>
+    </row>
+    <row r="53" ht="16.5" customHeight="1">
+      <c r="A53" s="6"/>
+      <c r="B53" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="6"/>
+      <c r="O53" s="6"/>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="6"/>
+      <c r="R53" s="6"/>
+      <c r="S53" s="6"/>
+      <c r="T53" s="6"/>
+      <c r="U53" s="6"/>
+      <c r="V53" s="6"/>
+      <c r="W53" s="6"/>
+      <c r="X53" s="6"/>
+      <c r="Y53" s="6"/>
+      <c r="Z53" s="6"/>
     </row>
     <row r="54" ht="16.5" customHeight="1">
       <c r="A54" s="6"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
+      <c r="B54" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D54" s="34" t="s">
+        <v>56</v>
+      </c>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
+      <c r="G54" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="H54" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="I54" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="J54" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="K54" s="34" t="s">
+        <v>56</v>
+      </c>
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
       <c r="N54" s="6"/>
@@ -4388,20 +4408,22 @@
     </row>
     <row r="55" ht="16.5" customHeight="1">
       <c r="A55" s="6"/>
-      <c r="B55" s="6" t="s">
-        <v>80</v>
+      <c r="B55" s="56" t="s">
+        <v>82</v>
       </c>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
+      <c r="C55" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>83</v>
+      </c>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
-      <c r="G55" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
+      <c r="G55" s="51"/>
+      <c r="H55" s="51"/>
+      <c r="I55" s="51"/>
+      <c r="J55" s="51"/>
+      <c r="K55" s="51"/>
       <c r="L55" s="6"/>
       <c r="M55" s="6"/>
       <c r="N55" s="6"/>
@@ -4418,33 +4440,31 @@
       <c r="Y55" s="6"/>
       <c r="Z55" s="6"/>
     </row>
-    <row r="56" ht="16.5" customHeight="1">
+    <row r="56" ht="78.0" customHeight="1">
       <c r="A56" s="6"/>
-      <c r="B56" s="34" t="s">
-        <v>54</v>
+      <c r="B56" s="62"/>
+      <c r="C56" s="63" t="s">
+        <v>84</v>
       </c>
-      <c r="C56" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="D56" s="34" t="s">
-        <v>56</v>
+      <c r="D56" s="64" t="s">
+        <v>85</v>
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
-      <c r="G56" s="34" t="s">
-        <v>57</v>
+      <c r="G56" s="49" t="s">
+        <v>86</v>
       </c>
-      <c r="H56" s="34" t="s">
-        <v>58</v>
+      <c r="H56" s="49" t="s">
+        <v>87</v>
       </c>
-      <c r="I56" s="34" t="s">
-        <v>27</v>
+      <c r="I56" s="49" t="s">
+        <v>88</v>
       </c>
-      <c r="J56" s="34" t="s">
-        <v>28</v>
+      <c r="J56" s="49" t="s">
+        <v>89</v>
       </c>
-      <c r="K56" s="34" t="s">
-        <v>56</v>
+      <c r="K56" s="65" t="s">
+        <v>90</v>
       </c>
       <c r="L56" s="6"/>
       <c r="M56" s="6"/>
@@ -4462,100 +4482,92 @@
       <c r="Y56" s="6"/>
       <c r="Z56" s="6"/>
     </row>
-    <row r="57" ht="16.5" customHeight="1">
-      <c r="A57" s="6"/>
-      <c r="B57" s="56" t="s">
-        <v>82</v>
+    <row r="57" ht="59.25" customHeight="1">
+      <c r="A57" s="66"/>
+      <c r="B57" s="67" t="s">
+        <v>91</v>
       </c>
-      <c r="C57" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D57" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="51"/>
-      <c r="H57" s="51"/>
-      <c r="I57" s="51"/>
-      <c r="J57" s="51"/>
-      <c r="K57" s="51"/>
-      <c r="L57" s="6"/>
-      <c r="M57" s="6"/>
-      <c r="N57" s="6"/>
-      <c r="O57" s="6"/>
-      <c r="P57" s="6"/>
-      <c r="Q57" s="6"/>
-      <c r="R57" s="6"/>
-      <c r="S57" s="6"/>
-      <c r="T57" s="6"/>
-      <c r="U57" s="6"/>
-      <c r="V57" s="6"/>
-      <c r="W57" s="6"/>
-      <c r="X57" s="6"/>
-      <c r="Y57" s="6"/>
-      <c r="Z57" s="6"/>
-    </row>
-    <row r="58" ht="78.0" customHeight="1">
-      <c r="A58" s="6"/>
-      <c r="B58" s="62"/>
-      <c r="C58" s="63" t="s">
+      <c r="C57" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="D58" s="64" t="s">
-        <v>85</v>
+      <c r="D57" s="68" t="s">
+        <v>92</v>
       </c>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="49" t="s">
-        <v>86</v>
+      <c r="E57" s="52"/>
+      <c r="F57" s="66"/>
+      <c r="G57" s="69"/>
+      <c r="H57" s="69"/>
+      <c r="I57" s="69"/>
+      <c r="J57" s="69"/>
+      <c r="K57" s="69"/>
+      <c r="L57" s="52"/>
+      <c r="M57" s="52"/>
+      <c r="N57" s="52"/>
+      <c r="O57" s="52"/>
+      <c r="P57" s="52"/>
+      <c r="Q57" s="52"/>
+      <c r="R57" s="52"/>
+      <c r="S57" s="52"/>
+      <c r="T57" s="52"/>
+      <c r="U57" s="52"/>
+      <c r="V57" s="52"/>
+      <c r="W57" s="52"/>
+      <c r="X57" s="52"/>
+      <c r="Y57" s="52"/>
+      <c r="Z57" s="52"/>
+    </row>
+    <row r="58" ht="55.5" customHeight="1">
+      <c r="A58" s="66"/>
+      <c r="B58" s="70" t="s">
+        <v>93</v>
       </c>
-      <c r="H58" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="I58" s="49" t="s">
-        <v>88</v>
-      </c>
-      <c r="J58" s="49" t="s">
-        <v>89</v>
-      </c>
-      <c r="K58" s="65" t="s">
-        <v>90</v>
-      </c>
-      <c r="L58" s="6"/>
-      <c r="M58" s="6"/>
-      <c r="N58" s="6"/>
-      <c r="O58" s="6"/>
-      <c r="P58" s="6"/>
-      <c r="Q58" s="6"/>
-      <c r="R58" s="6"/>
-      <c r="S58" s="6"/>
-      <c r="T58" s="6"/>
-      <c r="U58" s="6"/>
-      <c r="V58" s="6"/>
-      <c r="W58" s="6"/>
-      <c r="X58" s="6"/>
-      <c r="Y58" s="6"/>
-      <c r="Z58" s="6"/>
-    </row>
-    <row r="59" ht="59.25" customHeight="1">
-      <c r="A59" s="66"/>
-      <c r="B59" s="67" t="s">
-        <v>91</v>
-      </c>
-      <c r="C59" s="15" t="s">
+      <c r="C58" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="D59" s="68" t="s">
-        <v>92</v>
+      <c r="D58" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="E58" s="52"/>
+      <c r="F58" s="66"/>
+      <c r="G58" s="72"/>
+      <c r="H58" s="72"/>
+      <c r="I58" s="72"/>
+      <c r="J58" s="72"/>
+      <c r="K58" s="72"/>
+      <c r="L58" s="52"/>
+      <c r="M58" s="52"/>
+      <c r="N58" s="52"/>
+      <c r="O58" s="52"/>
+      <c r="P58" s="52"/>
+      <c r="Q58" s="52"/>
+      <c r="R58" s="52"/>
+      <c r="S58" s="52"/>
+      <c r="T58" s="52"/>
+      <c r="U58" s="52"/>
+      <c r="V58" s="52"/>
+      <c r="W58" s="52"/>
+      <c r="X58" s="52"/>
+      <c r="Y58" s="52"/>
+      <c r="Z58" s="52"/>
+    </row>
+    <row r="59" ht="16.5" customHeight="1">
+      <c r="A59" s="66"/>
+      <c r="B59" s="73" t="s">
+        <v>95</v>
+      </c>
+      <c r="C59" s="74" t="s">
+        <v>84</v>
+      </c>
+      <c r="D59" s="75" t="s">
+        <v>96</v>
       </c>
       <c r="E59" s="52"/>
       <c r="F59" s="66"/>
-      <c r="G59" s="69"/>
-      <c r="H59" s="69"/>
-      <c r="I59" s="69"/>
-      <c r="J59" s="69"/>
-      <c r="K59" s="69"/>
+      <c r="G59" s="72"/>
+      <c r="H59" s="72"/>
+      <c r="I59" s="72"/>
+      <c r="J59" s="72"/>
+      <c r="K59" s="72"/>
       <c r="L59" s="52"/>
       <c r="M59" s="52"/>
       <c r="N59" s="52"/>
@@ -4572,73 +4584,61 @@
       <c r="Y59" s="52"/>
       <c r="Z59" s="52"/>
     </row>
-    <row r="60" ht="55.5" customHeight="1">
-      <c r="A60" s="66"/>
-      <c r="B60" s="70" t="s">
-        <v>93</v>
-      </c>
-      <c r="C60" s="71" t="s">
-        <v>84</v>
-      </c>
-      <c r="D60" s="70" t="s">
-        <v>94</v>
-      </c>
-      <c r="E60" s="52"/>
-      <c r="F60" s="66"/>
-      <c r="G60" s="72"/>
-      <c r="H60" s="72"/>
-      <c r="I60" s="72"/>
-      <c r="J60" s="72"/>
-      <c r="K60" s="72"/>
-      <c r="L60" s="52"/>
-      <c r="M60" s="52"/>
-      <c r="N60" s="52"/>
-      <c r="O60" s="52"/>
-      <c r="P60" s="52"/>
-      <c r="Q60" s="52"/>
-      <c r="R60" s="52"/>
-      <c r="S60" s="52"/>
-      <c r="T60" s="52"/>
-      <c r="U60" s="52"/>
-      <c r="V60" s="52"/>
-      <c r="W60" s="52"/>
-      <c r="X60" s="52"/>
-      <c r="Y60" s="52"/>
-      <c r="Z60" s="52"/>
+    <row r="60" ht="16.5" customHeight="1">
+      <c r="A60" s="6"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="6"/>
+      <c r="M60" s="6"/>
+      <c r="N60" s="6"/>
+      <c r="O60" s="6"/>
+      <c r="P60" s="6"/>
+      <c r="Q60" s="6"/>
+      <c r="R60" s="6"/>
+      <c r="S60" s="6"/>
+      <c r="T60" s="6"/>
+      <c r="U60" s="6"/>
+      <c r="V60" s="6"/>
+      <c r="W60" s="6"/>
+      <c r="X60" s="6"/>
+      <c r="Y60" s="6"/>
+      <c r="Z60" s="6"/>
     </row>
     <row r="61" ht="16.5" customHeight="1">
-      <c r="A61" s="66"/>
-      <c r="B61" s="73" t="s">
-        <v>95</v>
-      </c>
-      <c r="C61" s="74" t="s">
-        <v>84</v>
-      </c>
-      <c r="D61" s="75" t="s">
-        <v>96</v>
-      </c>
-      <c r="E61" s="52"/>
-      <c r="F61" s="66"/>
-      <c r="G61" s="72"/>
-      <c r="H61" s="72"/>
-      <c r="I61" s="72"/>
-      <c r="J61" s="72"/>
-      <c r="K61" s="72"/>
-      <c r="L61" s="52"/>
-      <c r="M61" s="52"/>
-      <c r="N61" s="52"/>
-      <c r="O61" s="52"/>
-      <c r="P61" s="52"/>
-      <c r="Q61" s="52"/>
-      <c r="R61" s="52"/>
-      <c r="S61" s="52"/>
-      <c r="T61" s="52"/>
-      <c r="U61" s="52"/>
-      <c r="V61" s="52"/>
-      <c r="W61" s="52"/>
-      <c r="X61" s="52"/>
-      <c r="Y61" s="52"/>
-      <c r="Z61" s="52"/>
+      <c r="A61" s="6"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
+      <c r="L61" s="6"/>
+      <c r="M61" s="6"/>
+      <c r="N61" s="6"/>
+      <c r="O61" s="6"/>
+      <c r="P61" s="6"/>
+      <c r="Q61" s="6"/>
+      <c r="R61" s="6"/>
+      <c r="S61" s="6"/>
+      <c r="T61" s="6"/>
+      <c r="U61" s="6"/>
+      <c r="V61" s="6"/>
+      <c r="W61" s="6"/>
+      <c r="X61" s="6"/>
+      <c r="Y61" s="6"/>
+      <c r="Z61" s="6"/>
     </row>
     <row r="62" ht="16.5" customHeight="1">
       <c r="A62" s="6"/>
@@ -4788,25 +4788,25 @@
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
-      <c r="I67" s="6"/>
-      <c r="J67" s="6"/>
-      <c r="K67" s="6"/>
-      <c r="L67" s="6"/>
-      <c r="M67" s="6"/>
-      <c r="N67" s="6"/>
-      <c r="O67" s="6"/>
-      <c r="P67" s="6"/>
-      <c r="Q67" s="6"/>
-      <c r="R67" s="6"/>
-      <c r="S67" s="6"/>
-      <c r="T67" s="6"/>
-      <c r="U67" s="6"/>
-      <c r="V67" s="6"/>
-      <c r="W67" s="6"/>
-      <c r="X67" s="6"/>
-      <c r="Y67" s="6"/>
-      <c r="Z67" s="6"/>
+      <c r="H67" s="52"/>
+      <c r="I67" s="52"/>
+      <c r="J67" s="52"/>
+      <c r="K67" s="52"/>
+      <c r="L67" s="52"/>
+      <c r="M67" s="52"/>
+      <c r="N67" s="52"/>
+      <c r="O67" s="52"/>
+      <c r="P67" s="52"/>
+      <c r="Q67" s="52"/>
+      <c r="R67" s="52"/>
+      <c r="S67" s="52"/>
+      <c r="T67" s="52"/>
+      <c r="U67" s="52"/>
+      <c r="V67" s="52"/>
+      <c r="W67" s="52"/>
+      <c r="X67" s="52"/>
+      <c r="Y67" s="52"/>
+      <c r="Z67" s="52"/>
     </row>
     <row r="68" ht="16.5" customHeight="1">
       <c r="A68" s="6"/>
@@ -4816,25 +4816,25 @@
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="6"/>
-      <c r="J68" s="6"/>
-      <c r="K68" s="6"/>
-      <c r="L68" s="6"/>
-      <c r="M68" s="6"/>
-      <c r="N68" s="6"/>
-      <c r="O68" s="6"/>
-      <c r="P68" s="6"/>
-      <c r="Q68" s="6"/>
-      <c r="R68" s="6"/>
-      <c r="S68" s="6"/>
-      <c r="T68" s="6"/>
-      <c r="U68" s="6"/>
-      <c r="V68" s="6"/>
-      <c r="W68" s="6"/>
-      <c r="X68" s="6"/>
-      <c r="Y68" s="6"/>
-      <c r="Z68" s="6"/>
+      <c r="H68" s="52"/>
+      <c r="I68" s="52"/>
+      <c r="J68" s="52"/>
+      <c r="K68" s="52"/>
+      <c r="L68" s="52"/>
+      <c r="M68" s="52"/>
+      <c r="N68" s="52"/>
+      <c r="O68" s="52"/>
+      <c r="P68" s="52"/>
+      <c r="Q68" s="52"/>
+      <c r="R68" s="52"/>
+      <c r="S68" s="52"/>
+      <c r="T68" s="52"/>
+      <c r="U68" s="52"/>
+      <c r="V68" s="52"/>
+      <c r="W68" s="52"/>
+      <c r="X68" s="52"/>
+      <c r="Y68" s="52"/>
+      <c r="Z68" s="52"/>
     </row>
     <row r="69" ht="16.5" customHeight="1">
       <c r="A69" s="6"/>
@@ -4900,25 +4900,25 @@
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
-      <c r="H71" s="52"/>
-      <c r="I71" s="52"/>
-      <c r="J71" s="52"/>
-      <c r="K71" s="52"/>
-      <c r="L71" s="52"/>
-      <c r="M71" s="52"/>
-      <c r="N71" s="52"/>
-      <c r="O71" s="52"/>
-      <c r="P71" s="52"/>
-      <c r="Q71" s="52"/>
-      <c r="R71" s="52"/>
-      <c r="S71" s="52"/>
-      <c r="T71" s="52"/>
-      <c r="U71" s="52"/>
-      <c r="V71" s="52"/>
-      <c r="W71" s="52"/>
-      <c r="X71" s="52"/>
-      <c r="Y71" s="52"/>
-      <c r="Z71" s="52"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="6"/>
+      <c r="L71" s="6"/>
+      <c r="M71" s="6"/>
+      <c r="N71" s="6"/>
+      <c r="O71" s="6"/>
+      <c r="P71" s="6"/>
+      <c r="Q71" s="6"/>
+      <c r="R71" s="6"/>
+      <c r="S71" s="6"/>
+      <c r="T71" s="6"/>
+      <c r="U71" s="6"/>
+      <c r="V71" s="6"/>
+      <c r="W71" s="6"/>
+      <c r="X71" s="6"/>
+      <c r="Y71" s="6"/>
+      <c r="Z71" s="6"/>
     </row>
     <row r="72" ht="16.5" customHeight="1">
       <c r="A72" s="6"/>
@@ -4928,25 +4928,25 @@
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
-      <c r="H72" s="52"/>
-      <c r="I72" s="52"/>
-      <c r="J72" s="52"/>
-      <c r="K72" s="52"/>
-      <c r="L72" s="52"/>
-      <c r="M72" s="52"/>
-      <c r="N72" s="52"/>
-      <c r="O72" s="52"/>
-      <c r="P72" s="52"/>
-      <c r="Q72" s="52"/>
-      <c r="R72" s="52"/>
-      <c r="S72" s="52"/>
-      <c r="T72" s="52"/>
-      <c r="U72" s="52"/>
-      <c r="V72" s="52"/>
-      <c r="W72" s="52"/>
-      <c r="X72" s="52"/>
-      <c r="Y72" s="52"/>
-      <c r="Z72" s="52"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="6"/>
+      <c r="K72" s="6"/>
+      <c r="L72" s="6"/>
+      <c r="M72" s="6"/>
+      <c r="N72" s="6"/>
+      <c r="O72" s="6"/>
+      <c r="P72" s="6"/>
+      <c r="Q72" s="6"/>
+      <c r="R72" s="6"/>
+      <c r="S72" s="6"/>
+      <c r="T72" s="6"/>
+      <c r="U72" s="6"/>
+      <c r="V72" s="6"/>
+      <c r="W72" s="6"/>
+      <c r="X72" s="6"/>
+      <c r="Y72" s="6"/>
+      <c r="Z72" s="6"/>
     </row>
     <row r="73" ht="16.5" customHeight="1">
       <c r="A73" s="6"/>
@@ -30316,76 +30316,20 @@
       <c r="Y978" s="6"/>
       <c r="Z978" s="6"/>
     </row>
-    <row r="979" ht="16.5" customHeight="1">
-      <c r="A979" s="6"/>
-      <c r="B979" s="6"/>
-      <c r="C979" s="6"/>
-      <c r="D979" s="6"/>
-      <c r="E979" s="6"/>
-      <c r="F979" s="6"/>
-      <c r="G979" s="6"/>
-      <c r="H979" s="6"/>
-      <c r="I979" s="6"/>
-      <c r="J979" s="6"/>
-      <c r="K979" s="6"/>
-      <c r="L979" s="6"/>
-      <c r="M979" s="6"/>
-      <c r="N979" s="6"/>
-      <c r="O979" s="6"/>
-      <c r="P979" s="6"/>
-      <c r="Q979" s="6"/>
-      <c r="R979" s="6"/>
-      <c r="S979" s="6"/>
-      <c r="T979" s="6"/>
-      <c r="U979" s="6"/>
-      <c r="V979" s="6"/>
-      <c r="W979" s="6"/>
-      <c r="X979" s="6"/>
-      <c r="Y979" s="6"/>
-      <c r="Z979" s="6"/>
-    </row>
-    <row r="980" ht="16.5" customHeight="1">
-      <c r="A980" s="6"/>
-      <c r="B980" s="6"/>
-      <c r="C980" s="6"/>
-      <c r="D980" s="6"/>
-      <c r="E980" s="6"/>
-      <c r="F980" s="6"/>
-      <c r="G980" s="6"/>
-      <c r="H980" s="6"/>
-      <c r="I980" s="6"/>
-      <c r="J980" s="6"/>
-      <c r="K980" s="6"/>
-      <c r="L980" s="6"/>
-      <c r="M980" s="6"/>
-      <c r="N980" s="6"/>
-      <c r="O980" s="6"/>
-      <c r="P980" s="6"/>
-      <c r="Q980" s="6"/>
-      <c r="R980" s="6"/>
-      <c r="S980" s="6"/>
-      <c r="T980" s="6"/>
-      <c r="U980" s="6"/>
-      <c r="V980" s="6"/>
-      <c r="W980" s="6"/>
-      <c r="X980" s="6"/>
-      <c r="Y980" s="6"/>
-      <c r="Z980" s="6"/>
-    </row>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="E2:I2"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="B20:H22"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="B22:H24"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B55:B56"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
